--- a/news_data/2020_07.xlsx
+++ b/news_data/2020_07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,126 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도관광협회, 코로나19 위기 극복 인사·재무 컨설팅</t>
+  </si>
+  <si>
+    <t>해외 대신 제주도 찾는 관광객들, 서귀포 펜션에서 힐링</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 관광사업체 컨설팅 추진</t>
+  </si>
+  <si>
+    <t>제주도, 외국인 관광객 늘수록 ‘폭력 범죄’ 늘었다</t>
+  </si>
+  <si>
+    <t>제주도 올해 제주국제관광마라톤축제 취소하기로</t>
+  </si>
+  <si>
+    <t>원희룡 "코로나19 이후 관광산업 제주도가 선도"</t>
+  </si>
+  <si>
+    <t>제주도의회 문화관광체육위원회 회의</t>
+  </si>
+  <si>
+    <t>제주도 지가변동률 0.62% 하락...관광객 감소 영향</t>
+  </si>
+  <si>
+    <t>제23회 제주도관광기념품 공모전 일반인 심사위원 모집</t>
+  </si>
+  <si>
+    <t>제주도의회, “관광산업 벼랑 끝” 산업위기 특별지역 지정 촉구</t>
+  </si>
+  <si>
+    <t>"해외여행 막히자 제주도에 몰린다"…'청정' 생태관광지 인기</t>
+  </si>
+  <si>
+    <t>제주도, 휴가철 관광지 등 환경정비 실시</t>
+  </si>
+  <si>
+    <t>제주도, '해열제 먹어가며 관광한 확진자'에 1.3억 손배소</t>
+  </si>
+  <si>
+    <t>[fn포토] 돌문화공원 찾은 제주도의회 문화관광체육위</t>
+  </si>
+  <si>
+    <t>관광 성수기 맞은 제주도 물가 잡기 총력전</t>
+  </si>
+  <si>
+    <t>관광객 접촉자 잇단 확진...비상 걸린 제주도</t>
+  </si>
+  <si>
+    <t>제주도 드림타워가 뭐길래?…롯데관광개발 쓸어담는 기관</t>
+  </si>
+  <si>
+    <t>제주도서 확진자 통한 n차 감염… 여름휴가철 관광지 비상</t>
+  </si>
+  <si>
+    <t>사우나·해열제·노마스크…제주도 민폐 관광객에 보건당국 '비상'</t>
+  </si>
+  <si>
+    <t>제주도-도의회 문화관광 추경 예산안 신경전 촉각</t>
+  </si>
+  <si>
+    <t>‘관광객 붐비는’ 제주도, 코로나19 전파 우려 현실화</t>
+  </si>
+  <si>
+    <t>제주도, 코로나19 발생 후 대대적 관광객 유치 돌입</t>
+  </si>
+  <si>
+    <t>가성비·가심비 ‘끝판왕’ 제주도 관광지·숙소·맛집은?</t>
+  </si>
+  <si>
+    <t>KT 빅데이터로 본 제주도 관광··· 생태 관광지 인기</t>
+  </si>
+  <si>
+    <t>[fn+레저] '코로나 블루' 날려버릴 제주도 웰니스관광 15선</t>
+  </si>
+  <si>
+    <t>해외여행 부럽지 않은 제주도여행지추천 '제주이야기' 천연 꽃 향수 만드는 실...</t>
+  </si>
+  <si>
+    <t>제주도, 여름철 관광객 급증에 코로나19 방역 총력</t>
+  </si>
+  <si>
+    <t>코로나19로 닫힌 하늘길 열려 이달 제주도에 '중국인 관광객' 쏟아진다</t>
+  </si>
+  <si>
+    <t>제주도, 해열제 먹고 여행한 경기도 관광객에 손해배상 제기</t>
+  </si>
+  <si>
+    <t>제주도 관광객 1일 3만명↑ '출렁'...코로나 방역대응 '비상'</t>
+  </si>
+  <si>
+    <t>외국인 관광객 98%↓…코로나19에 제주도 카지노 ‘벼랑 끝’</t>
+  </si>
+  <si>
+    <t>제주도 해수욕장 개장, 여름 즐기는 관광객들</t>
+  </si>
+  <si>
+    <t>성수기 맞은 제주도 '관광 vs 방역' 딜레마</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 1분기 이어 2분기도 회비 면제키로</t>
+  </si>
+  <si>
+    <t>성수기 맞은 제주도… 관광지 방역 구슬땀</t>
+  </si>
+  <si>
+    <t>대정서초, 제주도 관광지 그리기 백일장 실시</t>
+  </si>
+  <si>
+    <t>제주도 조직개편안 반발 여론에 밀려 ‘관광국’ ‘해녀문화유산과’ 존치</t>
+  </si>
+  <si>
+    <t>제주도, '공정가격-착한여행' 관광 캠페인 대대적 전개</t>
+  </si>
+  <si>
+    <t>올여름 제주도 가볼만한 곳…청정제주에서 힐링하기 좋은 '제주 웰니스관광지...</t>
+  </si>
+  <si>
+    <t>제주도 관광지 코로나 방역 총력...수영장서도 2m '거리두기'</t>
+  </si>
+  <si>
     <t>제주도, 내국인 관광객 유치 재개</t>
   </si>
   <si>
@@ -34,49 +154,157 @@
     <t>제주도관광협회, 코로나 극복 위해 2분기 회비 면제</t>
   </si>
   <si>
+    <t>KT 빅데이터 선정 6월 제주도 인기 급상승 관광지는 '혼인지'</t>
+  </si>
+  <si>
     <t>제주도, 여름 성수기 '바가지' 잡고 '공정관광' 조성 나선다</t>
   </si>
   <si>
-    <t>KT 빅데이터 선정 6월 제주도 인기 급상승 관광지는 '혼인지'</t>
+    <t>KT, 빅데이터로 본 제주도 '생태 관광지'로 회복세</t>
   </si>
   <si>
     <t>[SR경제&amp;라이프] KT, 빅데이터로 본 제주도 관광…생태 관광지 관광객수↑</t>
   </si>
   <si>
-    <t>KT, 빅데이터로 본 제주도 '생태 관광지'로 회복세</t>
-  </si>
-  <si>
     <t>KT, 빅데이터 분석 결과 발표…제주도 생태 관광지 방문 관광객수 큰 폭 증가</t>
   </si>
   <si>
-    <t>제주도, 내국인 관광객 유치 재개 ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항투데이제주도, 내국인 관광객 유치 재개 홍수현2020년 07월 03일 07시 20분 00초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 코로나19로 침체된 관광산업을 되살리기 위해 내국인 관광객 유치 활동이 재개됩니다. 제주도는 도내 관광업계와 관광지 방역과 예방수칙 이행 등 안전관광을 전제로 자율적인 내국인 관광객 유치활동에 돌입하기로 했다고 밝혔습니다. 또 코로나19 사태로 어려움을 겪고 있는 여행업체 100곳에 여행객 방역키트를 전달하고, 관광상품 홍보비도 지원합니다. 올들어 제주를 찾은 관광객은 453만 명으로 지난해 같은 기간보다 38% 감소했습니다. 홍수현michael1116@jejumbc.com 최신 뉴스 뉴스투데이2022년 10월 04일 08시 13분 24초 탐라문화제 3년 만에 대면행사...10월 6일~10일2022년 10월 04일 07시 20분 00초 동료 해녀 살린 제주의용소방대원 전국대회 1위2022년 10월 04일 07시 20분 00초 현병찬 선생 제41회 세종문화상 수상자 선정2022년 10월 04일 07시 20분 00초 국토부, JDC 정원 28명 감축 추진2022년 10월 04일 07시 20분 00초 오늘 낮까지 '가을비'‥내일부터 기온 내려가 선선2022년 10월 04일 07시 20분 00초TK신공항 밀어주는데.. 가덕도는 조용2022년 10월 04일 07시 20분 00초연중기획-주민들이 주인공으로 등장(리포트)2022년 10월 04일 07시 20분 00초'사상검증 논란' 4.3 수형인 68명 오늘 선고2022년 10월 04일 07시 20분 00초4.3길 사실상 방치?2022년 10월 04일 07시 20분 00초제주도, 내국인 관광객 유치 재개 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
-  </si>
-  <si>
-    <t>제주도, 내국인 관광객 유치 재개 ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항뉴스데스크제주도, 내국인 관광객 유치 재개 홍수현2020년 07월 02일 20시 10분 00초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 코로나19로 침체된 관광산업을 되살리기 위해 내국인 관광객 유치 활동이 재개됩니다. 제주도는 도내 관광업계와 관광지 방역과 예방수칙 이행 등 안전관광을 전제로 자율적인 내국인 관광객 유치활동에 돌입하기로 했다고 밝혔습니다. 또 코로나19 사태로 어려움을 겪고 있는 여행업체 100곳에 여행객 방역키트를 전달하고, 관광상품 홍보비도 지원합니다. 올들어 제주를 찾은 관광객은 453만 명으로 지난해 같은 기간보다 38% 감소했습니다. 홍수현michael1116@jejumbc.com 최신 뉴스 뉴스투데이2022년 10월 04일 08시 13분 24초 탐라문화제 3년 만에 대면행사...10월 6일~10일2022년 10월 04일 07시 20분 00초 동료 해녀 살린 제주의용소방대원 전국대회 1위2022년 10월 04일 07시 20분 00초 현병찬 선생 제41회 세종문화상 수상자 선정2022년 10월 04일 07시 20분 00초 국토부, JDC 정원 28명 감축 추진2022년 10월 04일 07시 20분 00초 오늘 낮까지 '가을비'‥내일부터 기온 내려가 선선2022년 10월 04일 07시 20분 00초TK신공항 밀어주는데.. 가덕도는 조용2022년 10월 04일 07시 20분 00초연중기획-주민들이 주인공으로 등장(리포트)2022년 10월 04일 07시 20분 00초'사상검증 논란' 4.3 수형인 68명 오늘 선고2022년 10월 04일 07시 20분 00초4.3길 사실상 방치?2022년 10월 04일 07시 20분 00초제주도, 내국인 관광객 유치 재개 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
-  </si>
-  <si>
-    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-04 10:52 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N2 이전 다음 제주도관광협회, 1분기 이어 2분기 회비도 면제 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 경제 제주도관광협회, 1분기 이어 2분기 회비도 면제 김형훈 기자 승인 2020.07.02 10:41 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도관광협회가 코로나19로 인한 회원사들의 어려움을 감안해 1분기에 이어, 2분기 회비도 면제해주기로 했다. 제주도관광협회는 올해 초에 터진 코로나19로 회원사들이 직격탄을 맞자 1월부터 3월까지 1분기 회비 2억6000만원을 면제했다. 그럼에도 여전히 상황이 나아지지 않자 2분기(4~6월) 회비 2억6000만원도 면제하는 조치를 내렸다. 제주도관광협회는 이에 따라 경상경비 삭감, 관리비 및 인력 감축을 지속적으로 유지하는 등 고통분담에 적극 동참할 계획이다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 김형훈 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 밥을 같이 먹는 식구가 서로 살아갈 힘을 주고 받듯 책을 함께 공유하는 것이 같은 원리라는 말이 깊이 와 닿네요~ 아이들 어릴적 책을 읽어 주면서 정서적 교감했던 행복한 기억이 있네요. 요즘은 바쁘다는 핑계로 책 읽어주기를 못했는데 다시 도전해봐야 겠네요. 혼자보다 함께 해야 하는 현 시대에 필요한 맞춤형 독서지도라는 생각이 듭니다 잘 읽었습니다. 내년엔 저도 참여해보고 싶네요~~ 여러 권 읽는 것보다 한 권을 여러 명이 토론하는 것이 낫다는 말 공감합니다^^ 가장 많이 읽은 기사 1제19회 賢테니스회장배 전도클럽대항 테니스대회 ‘후끈’ 2한글서예 ‘한평생 한길’, 한곬 현병찬 선생 세종문화상 수상 3서귀포시, '중장년 스타트업 부트캠프' 참가자 모집 4제주의 얼을 담다 ... 탐라문화제, 3년만에 대면행사로 5선흘 동백동산에서 평화의 노래를 "제주4.3 평화음악축제" 6제주TP 생물자원연구, 한국자원식물학회에서도 ‘주목’ 7양덕순 "제주연구원, 실용적인 정책 연구 앞장서야" SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
-  </si>
-  <si>
-    <t>[전문] 원희룡 지사, 여름 휴가철 제주도 방문 관광객 예방수칙 관련 담화 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 11:13 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 [전문] 원희룡 지사, 여름 휴가철 제주도 방문 관광객 예방수칙 관련 담화 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 [전문] 원희룡 지사, 여름 휴가철 제주도 방문 관광객 예방수칙 관련 담화 편집팀 iheadline@hanmail.net 승인 2020.07.01 12:33 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 원희룡 제주도지사는 1일 코로나19 상황 속에서 여름 휴가철을 맞아 제주도 관광객들이 크게 증가할 것으로 예상됨에 따라 제주를 찾는 국민들에게 전하는 예방수칙 관련 담화를 발표했다. 다음은 원 지사의 발표문 전문. 국민 여러분, 안녕하십니까 코로나19 사태로 인해 해외여행이 봉쇄되면서 이번 7~8월 휴가철에 하루 4만명 이상의 관광객이 제주를 방문할 것으로 전망되고 있습니다. 코로나19로 우리 일상이 바뀌게 된 지 벌써 반년이 지났습니다. 국민들께서 답답하고 지친 마음을 위로하고자 제주를 찾아주시는 발걸음 충분히 이해하고 환영합니다만, 단, 코로나19 확산 방지에 적극 동참하는 개념도 가지고 오시길 바랍니다. 저희는 마냥 기쁜 마음으로 여러분을 반길 수는 없습니다. 제주도는 현재까지 지역감염이 전혀 없는 지역이지만, 이것이 감염의 우려로부터 제주가 완전히 안전하다는 뜻은 아닙니다. 제주에서 발생한 코로나19 확진자 19명 중 18명이 모두 제주 바깥에서 감염된 후 유입된 사례였습니다. 나머지 1명도 확진자의 밀접 접촉자였습니다. 여러분, 코로나 사태는 아직 끝나지 않았습니다. 최근 여행객들이 해수욕장 등 관광지에서 마스크를 착용하지 않는 모습이 눈에 띄게 늘었습니다. 감염확산 위험이 여전하고 전국적으로 매일 20~30명의 지역감염이 발생하는 상황에서 서울 도심 어디에서도 벗지 않는 마스크를 제주도라고, 여행을 왔다고 벗는다는 건 안됩니다. 저는 지난 5월 초 황금연휴기간 국민 여러분께 다음과 같이 부탁드렸습니다. “가급적 제주로의 여행을 자제해 주십시오. 그래도 오시겠다면자신과 이웃, 청정 제주를 지킬 수 있도록 만반의 준비를 갖춰주시기 바랍니다. 방역의 관점에서 필요한 불편은 감수해 주셔야 합니다. ” 국민들께 지금 다시 한 번 부탁드립니다. 제주는 70만 도민들의 생활의 터전입니다. 제주는 모든 국민의 힐링을 위한 곳이지 코로나19의 도피처가 아닙니다. 코로나19 확산은 개인의 문제가 아닌 공동체의 문제인 만큼 여행객 한 분 한 분께서는 반드시 마스크를 착용해주시고 예방 수칙을 반드시 준수해 주십시오. 만약, 증상이 있음에도 마스크를 쓰지 않는 등 방역 수칙을 제대로 지키지 않고 제주여행을 무리하게 강행하다 확진되는 경우 제주는 그에 상응하는 책임을 반드시 물을 것입니다. 무엇보다 발열, 기침 등 미미한 증상이라도 나타나는 경우에는 즉시 1339 또는 보건소로 신고하셔야 합니다. 도움을 요청하시는 분은 철저히 보호하고 지원하겠습니다. 제주도는 동선이 분리된 검사와 진료 시스템을 완비하였고, 음압병실 등 의료자원에 여력이 있습니다. 적극적으로 지원을 요청하십시오. 가장 강력한 방역대책은 여행객 여러분의 자발적인 협조와 이해입니다. 현재 제주도정에서는 청정 제주를 지키기 위해 휴가철을 대비하여‘관광방역체계’를 재점검하고 2차 대유행을 대비해 ‘제주형 방역전략’을 수립하고 있습니다. 특히, 확진자의 이동 동선을 파악하고, 방역수칙을 충실히 이행하여 안심하고 이용할 수 있는 식당, 카페를 안내하는 ‘제주형 방역 어플리케이션’을 개발하고 있습니다. 도정은 앞으로도 제주도민에서 더 나아가 제주를 방문하시는 전 국민의 안전을 지키는 일에 온 행정력을 집중할 것입니다. 국민 한 분 한 분이 방역의 주체라는 것을 제주에서부터 증명해보일 수 있도록 수칙을 철저히 지켜주시기 바랍니다. 감사합니다. 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 원희룡 지사 "제주여행 코로나 유증상자, 상응하는 책임 물을 것" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 "제주 보전지역 정기조사 부실투성이...도의회, 재조사 요구하라" 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 7 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 코로나 극복 위해 2분기 회비 면제 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 11:10 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도관광협회, 코로나 극복 위해 2분기 회비 면제 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도관광협회, 코로나 극복 위해 2분기 회비 면제 문유미 기자 승인 2020.07.01 14:01 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도관광협회가 코로나19로 큰 피해를 입은 도내 관광업계와의 고통 분담을 위해 1분기에 이어 2분기 회비도 전액 면제키로 했다. 제주도관광협회(회장 부동석)는 코로나19 장기화로 관광객 입도 추세가 호전되지 않고 도내 관광사업체들의 경영여건이 여전히 최악의 상태를 벗어나지 못 하고 있는 점을 고려해 올 1분기에 이어 2분기 회비(약 2억6000만원)도 전액 면제키로 했다고 1일 밝혔다. 도관광협회는 약 5억2000만원의 1·2분기 회비 면제에 따른 예산 감축에 따라 경상경비 및 관리비 삭감과 인력 감축 등을 지속적으로 추진하는 등 고통 분담에 적극 동참한다. 아울러 도내 관광사업체 등의 고용유지지원금 신청이 원활히 진행될 수 있도록 고용지원센터에 오는 9월 15일까지 인력을 파견할 계획이다. 도관광협회 관계자는 “관광사업체들의 코로나19 위기 극복을 위해 최선의 노력을 기울일 것”이라고 말했다. 문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 64일부터 요양시설 접촉면회 재허용 7제주고·제주여상, 전도사격대회 고등부 단체전 정상 8깊어가는 가을, 코스모스 활짝 9기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 10김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도, 여름 성수기 '바가지' 잡고 '공정관광' 조성 나선다 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 11:10 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도, 여름 성수기 '바가지' 잡고 '공정관광' 조성 나선다 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 여름 성수기 '바가지' 잡고 '공정관광' 조성 나선다 현대성 기자 승인 2020.07.05 18:59 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 여름철 관광 성수기를 맞은 제주특별자치도가 코로나19 사태를 틈탄 ‘바가지 요금’을 억제하고 ‘공정관광’ 환경 조성에 나선다. 제주도는 ‘2020년 하계 휴가철 피서지 물가안정 대책’을 수립하고, 오는 9월 18일까지 물가관리 특별대책 기간을 운영한다. 물가관리 특별대책 주요 내용은 ▲민·관 협력을 통한 피서지 물가관리 ▲해수욕장 등 피서지 불공정거래 행위방지 활동 강화 ▲지방공공요금 및 개인서비스요금 안정관리 강화 등이다. 제주도는 이를 위해 제주도 경제정책과·보건건강위생과·관광정책과·동물방역과·해양산업과가 참여하는 물가안정 관리체계를 구축한다. 제주도는 행정안전부-제주도-양 행정시로 이어지는 물가대책 종합상황실을 운영, 물가 인상 대응 체계를 유지한다. 제주도는 계절음식점을 포함한 개인 서비스업소 요금 및 호텔 등 숙박료·콘도이용로 과다 및 부당 인상 행위, 담합에 의한 부당한 요금인상 행위를 중점적으로 점검한다. 피서철 해수욕장 자릿세 징수 행위와 파라솔, 튜브 등 피서용품 대여료 적정성 점검에도 나선다. 또 축산물 계량위반행위, 섞어팔기, 부정축산물 유통과 도내 대형마트 및 슈퍼마켓의 가격 표시제 및 원산지 표시제이행 여부도 점검해 ‘공정관광’ 조성에 총력을 기울일 방침이다. 제주도는 아울러 피서지 불량식품 근절을 위한 식품 위생과 먹거리 안전 집중점검에 나서고, 개인서비스업 종사가가 적정 요금을 징수하고 호객 행위를 하지 않도록 사전 교육을 실시한다. 제주도는 효과적인 지도·점검을 위해 소비자단체 등 유관기관과 합동 점점반을 편성해 활동하고, 피사지 상인회 등과 물가 안정 협조 체계를 강화한다. 제주도는 이에 더해 오는 9월 18일까지 피서지 부당요금 신고센터를 운영하고, 제주도 홈페이지 등에 외식비 등 개인 서비스 요금을 공개해 바가지 요금을 근절할 계획이다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 관련기사 ‘특별 여행주간’ 첫 주말, 제주관광 회복세 ‘미미’ 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 64일부터 요양시설 접촉면회 재허용 7제주고·제주여상, 전도사격대회 고등부 단체전 정상 8깊어가는 가을, 코스모스 활짝 9기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 10김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>KT 빅데이터 선정 6월 제주도 인기 급상승 관광지는 '혼인지' - 이투데이 속보창 구독신청 RSS 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 기업 전자/통신/IT KT 빅데이터 선정 6월 제주도 인기 급상승 관광지는 '혼인지' 입력 2020-07-12 09:00 김우람 기자																								구독하기 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 12일 제주도 주요 관광지·방문객 분석 발표 (KT 제공)제주도 대표적인 연못인 혼인지가 6월 가장 높은 방문객 수 증가세를 보였다. 5월 대비 3배가 넘는 증가세를 보이며, 인기 급상승 관광지로 자리잡았다. KT는 이런 내용을 담은 올해 제주도 주요 관광지와 방문객을 빅데이터로 분석을 12일 공개했다.6월 제주 관광지 별 방문객 수를 집계한 KT 빅데이터 분석 결과에 따르면 혼인지(368.18%), 화순곶자왈생태탐방숲길(204.01%), 한라생태숲 및 제주마방목지 일대(134.79%), 엉또폭포(130.26%), 비치미오름(121.36%) 순으로 전월 대비 관광객 수가 늘어난 여행지로 집계됐다. 관련 뉴스 대웅, 대웅제약 소송 장기화 가능성 부담 ‘투자의견↓’-KTB증권 KT, 영국 BBC와 '뽀로로' 출연 자연다큐 10일 공개 KT 요구에 어쩔 수 없이 입찰 참여했다는 세종텔레콤…법원 “담합 맞다” 5월엔 전월대비 카멜리아힐(202.98%), 롯데스카이힐CC 일대(168.11%), 수백 개의 기암괴석으로 구성된 오백나한(157.80%), 제주돌문화공원 및 에코랜드(155.33%), 제주 항파두리 항몽 유적지(154.21%) 등으로 증가세로 나타났다.연령대별로 인기가 높은 제주도 관광지도 차이를 보였다. 6월 방문객을 기준으로 20대가 가장 많이 찾은 관광지는 이중섭 문화거리, 30대는 쌍용굴 및 협재굴이었다. 40대 및 50대는 서귀포매일올레시장을 많이 찾았으며, 60대는 우도 성산포유람선, 70대는 중문관광단지에서 관광을 목적으로 방문한 인구가 제일 많은 것으로 분석했다.이밖에 코로나19 확산 이후 제주 여행객의 연령대도 변화가 일어났다. 코로나19가 본격화된 2월 제주도를 찾는 방문객 중 20대는 전월 대비 42.52% 줄어 가장 큰 감소 폭을 보였다. 또 5월 제주도 방문객 중에서 30대는 전월 대비 44.99% 늘어 가장 많은 증가세를 보였다. 6월에는 30대는 전월 대비 5.77% 증가했다.국내 공항을 이용하는 관광객 수도 늘고 있다. 김포공항의 경우 코로나19가 본격화된 올해 2월 이용자 수가 전월 대비 39.28%, 전년 동기 대비 25.35% 급감했다. 하지만 3월 이후 회복하기 시작해 5월에는 전월 대비 20% 정도 회복됐다.김채희 KT AI/BigData사업본부장(상무)은 "코로나19로 인해 변화한 여행 트렌드를 빅데이터 통계를 통해 확인할 수 있었다"며 "KT는 빅데이터 통계를 기반으로 고객과 국민들에게 유익한 정보를 지속적으로 제공하겠다"고 말했다. #KT 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 인천에 사는 박준수, 유영미 씨는 동갑내기 부부다. 11년 전 친구 소개로 만나 반년간의 연애 끝에 결혼에 골인했다. 당시 준수 씨는 완성차를 만드는 대기업에, 영미 씨는 전자제품을 만드는 중소기업에 다녔다. 결혼 1년여 만에 아이를 낳았고, 영미 씨는 회사를 나왔다. 외벌이에 빠듯한 살림이었지만 살만했다. 아이에게 드는 돈도 별로 없 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 서울만? 비수도권 출산율도 0.7~0.8명대 가임기 여성 유출로 출생아 감소 더 가팔라져 인구가 줄어드는 속도는 비수도권에서 상대적으로 빠르다. 추세적인 저출산에 더해 가임기 여성을 포함한 청년층(15~29세) 인구가 유출돼서다. 인구 유출은 추가적인 출생아 수 감소 요인이 된다. 그나마 수도권은 합계출산율 감소 영향이 가임기 여성 증가 10조원 증안펀드 10월 중순 재가동, 강신우 전 KIC CIO가 지휘 증시가 불안한 모습을 보이는 가운데 금융당국이 이달 중순께 증권시장 안정펀드(증안펀드)를 재가동할 전망이다. 증안펀드 투입에 앞서 공매도 금지에 대한 논의도 진행된다. 4일 금융권 등에 따르면 금융위원회는 증안펀드 재가동을 위해 증권 유관 기관과 실무 협의 및 약정 절차를 진행 중이다. 빠르면 이달 중순에 조성 작업을 마무리할 계 전장연, 지하철 4호선 출근길 시위…“지연우려” 전국장애인차별철폐연대(전장연)가 4일 오전 8시부터 서울 지하철 4호선에서 출근길 지하철 탑승 시위를 이어갈 것으로 예상된다. 서울교통공사는 공지사항을 통해 "10월 4일(화)~7일(금) 오전 8시 00분부터 4호선에서 ‘전국장애인차별철폐연대’의 ‘장애인 권리 예산 확보’를 위한 삭발식 및 ‘지하철 타기 선전전’이 예정돼 있다"며 "이로 인해 믿었던 반도체 수출도 '흔들'…성큼 다가온 '쌍둥이 적자' 공포 10월 수출입동향서 수출 상승세 둔화 무역수지 적자 6개월째 이어져 '위기' 반도체마저 115억 달러로 5.7% 감소 재정 적자에 이어 경상수지도 위기 세계 경기 침체로 무역 상황이 악화되면서 믿었던 반도체 수출도 흔들리고 있다. 23개월 연속 이어오던 수출 상승세가 주춤하며 이미 적자인 관리재정수지에 이어 경상수지까지 적자인 '쌍둥이 적 감사원 '文 서면조사 통보'에…野 "정치 탄압" vs 與 "감사에 성역 없어" 野 정치탄압대책위 "尹 소란 종착지는 文…감사원 직권남용 고발" 靑 출신 野 의원들 "무례한 행태…국민 두려움 모르는 권력 끝은 침몰" 이재명 "민생경제, 외교평화에 힘 쏟을 때" 與 "전직 대통령도 성역은 있을 수 없어" 정진석 "전 대통령 서면조사 요구 처음 아냐…겸허히 받아들여야" 감사원이 '서해 공무원 피격 사건'과 관련해 문재인 전 유가 하락 방어 나선 OPEC+, 하루 100만 배럴 감산 폭탄 터뜨리나 하루 50만~100만 배럴 감산 전망 지배적 전 세계 산유량의 1% 달하는 규모 배럴당 125달러였던 브렌트유 최근 85달러선대 유가 상승시 경기침체 리스크 더 커질 수도 석유수출국기구(OPEC)와 비(非) OPEC 산유국의 협의체인 ‘OPEC플러스(+)’가 이번 주 열리는 정례 회의에서 대형 감산에 나설 것이라는 관측이 커지고 있다. 감산으로 글로벌 경 [신용리스크 악몽 재현되나]①"우리 회사채 사주세요" 치솟는 금리에 울고 싶은 기업들 국내 5대 그룹 한 계열사는 최근 회사채 수요예측에 나섰지만, 선뜻 사겠다는 큰 손(기관투자자)이 없어 낭패를 봤다. 미국 중앙은행인 연방준비제도가 연방기금금리를 0.75%포인트(p) 올리는 ‘자이언트 스텝’을 3회 연속 단행한 후 시장 금리가 치솟고, 변동성이 커지자 기관들이 손사래를 치고 있다. 회사 관계자는 “올해 초만 해도 없어서 못 많이 본 뉴스 01 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 02 전장연, 지하철 4호선 출근길 시위…“지연우려” 03 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 04 머스크 “크림반도는 러시아 영토, 우크라이나 중립국 전환해야” 05 FOMC 후 일주일…폭락장에도 ‘태조이방원’ 찜한 외국인 06 유엔 “연준, 금리 그만 올려라” 07 우크라이나, 남부전선 돌파…러시아 점령지 헤르손 뚫었다 08 벤처투자 혹한기…몸집보다 수익으로 내실 다진 ‘켄타우로스’ 뜬다 09 '베이비 슬럼프 시대'...아기 발자국을 늘려라 10 10조원 증안펀드 10월 중순 재가동, 강신우 전 KIC CIO가 지휘 최신 영상 "北 도발 시 즉각 대응"…한미 연합 해상훈련 모습 // 이투데이TV 기업 최신 뉴스 웨이브에서 ‘플레이유’ 본다…카카오TV 전용관 오픈 LG전자, 올레드 TV 포장 상자 재활용 예술품 전시 에이비엘바이오, 퇴행성뇌질환 치료 이중항체 ‘ABL301’ 미국 임상 1상 신청 아시아나항공 소속 '스타얼라이언스'…글로벌 톱 항공 동맹체 선정 OTT ‘지니TV’로 한번에 본다…KT, 미디어포털 전환 ‘홈 미디어’ 시대 개막 기보, 투자연계보증 확대해 벤처투자 활성화…하반기 1500억 공급 ‘MZ 구매력’에 꽂힌 네이버, 사상 최대 M&amp;A…글로벌 중고거래 포트폴리오 완성 구광모, 폴란드 총리 예방 '부산엑스포' 지지 요청 북미 3700만 명이 찾는 중고 플랫폼…네이버가 인수한 포쉬마크는? 삼성전자 '한국전자전' 통해 맞춤형 라이프 솔루션 쏟아낸다 뉴스발전소 [인포그래픽] 개천절, 태극기 다는 법은? 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] '즐거움 가득한 공공디자인' 마켓 뉴스 특징주 투자전략 테슬라 공급 업체 ‘디아이씨’, 폐배터리 사업 진출 소식에 급등세 에쓰오일, 산유국 감산 소식에 3%대 오름세 오픈엣지테크놀로지, 삼성전자·ARM 전략적 제휴 논의 소식에 상한가 오토앤, 현대글로비스 미국 중고차 경매업체 인수 소식에 강세 오리온, 4분기 실적 기대감 속에도 ‘약세’ 출발 [오늘의 증시 리포트] “HMM, 4분기부터 실적 급감” [환율전망] 원·달러 1원 상승 출발…“국채금리 하락·파운드화 강세에 약세” “삼성전자, 역대급 ‘공급 축소’ 전망... 반도체 상승 싸이클, 최대 재고 후유증 우려” [오늘의 투자전략] 글로벌 증시 강세 따른 투자심리 개선…저가 매수·기술적 반등 시도 "하이브, BTS 활동 줄어도 3분기 실적 시장 예상치 부합할 전망" 오늘의 상승종목 10.04 10:53 20분지연 코스피 코스닥 1.SK네트웍스우 17,000 2.디아이씨 640 3.에이프로젠제약 82 4.삼성출판사 3,400 5.한미글로벌 2,900 1.오로스테크놀로지 2,760 2.라닉스 1,520 3.오픈엣지테크놀로지 3,150 4.네이처셀 2,850 5.유안타제7호스팩 765 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 28,152,000 +1.24% 이더리움 1,902,000 +1.28% 비트코인 캐시 167,000 -0.54% 리플 655.6 +0.09% 위믹스 2,585 +1.85% 에이다 615.2 +0.13% 이오스 1,701 -0.29% 트론 88.16 -0.9% 스텔라루멘 167.4 -3.96% 비트코인에스브이 69,400 -0.57% 체인링크 10,750 +2.77% 샌드박스 1,196 +0.93% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
-  </si>
-  <si>
-    <t>[SR경제&amp;라이프] KT, 빅데이터로 본 제주도 관광…생태 관광지 관광객수↑ - SR타임스 2022.10.4 (화) 사회적 책임 이끄는 종합인터넷신문 HOME전체기사보기로그인회원가입 지배구조 Organizational governance 소비자이슈 Consumer issues 공정운영 Fair operating practices 인권 Human rights 노동 Labour practices 환경 The environment 사회공헌 Community involvement and development SR포커스/해외SR 경제/라이프 오피니언 지자체의 SR 기사검색 이전 다음 로고 [SR경제&amp;라이프] KT, 빅데이터로 본 제주도 관광…생태 관광지 관광객수↑ 페이스북 트위터 구글 카카오스토리 메일 HOME 경제/라이프 IT·통신 [SR경제&amp;라이프] KT, 빅데이터로 본 제주도 관광…생태 관광지 관광객수↑ 김수민 기자 승인 2020.07.12 12:27:42 댓글 0 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사(권장) 가나다라마바사 가나다라마바사 가나다라마바사 메일보내기 인쇄하기 페이스북 트위터 구글 카카오스토리 ▲KT 제주도 여행 패턴 분석 인포그래픽. ⓒKT - 2월 제주공항, 김포공항 이용객 모두 급감했으나 3월부터 회복세 [SR(에스알)타임스 김수민 기자] KT가 올해 제주도 주요 관광지와 방문객을 빅데이터로 분석한 결과 제주도 내 생태 관광지의 관광객수가 큰 폭으로 증가했다고 12일 밝혔다. KT 빅데이터 분석 결과에 따르면, 오름, 휴양림 등 이른바 생태관광이 각광을 받고 있었다. 전월과 비교해 5월에는 수국으로 유명한 카멜리아힐(202.98%), 롯데스카이힐CC 일대(168.11%), 수백 개의 기암괴석으로 구성된 오백나한(157.80%), 제주돌문화공원 및 에코랜드(155.33%), 제주 항파두리 항몽 유적지(154.21%) 등지가 방문객 수가 크게 늘었다. 6월에는 제주도의 대표적인 연못인 혼인지(368.18%), 화순곶자왈생태탐방숲길(204.01%), 한라생태숲 및 제주마방목지 일대(134.79%), 엉또폭포(130.26%), 비치미오름(121.36%) 순으로 전월 대비 관광객 수가 큰 폭으로 늘어난 여행지로 집계됐다. 연령대별로 인기가 높은 제주도 관광지도 차이를 보였다. 6월 방문객을 기준으로 20대가 가장 많이 찾은 관광지는 이중섭 문화거리, 30대는 쌍용굴 및 협재굴이었다. 40대 및 50대는 서귀포매일올레시장을 많이 찾았으며, 60대는 우도 성산포유람선, 70대는 중문관광단지에서 관광을 목적으로 방문한 인구가 제일 많은 것으로 분석했다. 이밖에 코로나19 확산 이후 제주 여행객의 연령대도 변화가 일어났다. 코로나19가 본격화된 2월 제주도를 찾는 방문객 중 20대는 전월 대비 42.52% 줄어 가장 큰 감소 폭을 보였다. 또한 5월 제주도 방문객 중에서 30대는 전월 대비 44.99% 늘어 가장 큰 증가 폭을 보였다. 6월에는 30대는 전월 대비 5.77% 증가했다. 한편, KT가 발표한 빅데이터 통계에 따르면 국내선 탑승객들이 이용하는 김포공항 및 제주공항은 방문객 수가 빠르게 회복 중인 것으로 나타났다. 김포공항의 경우 코로나19가 본격화된 올해 2월 이용자 수가 전월 대비 39.28%, 전년 동기 대비 25.35% 급감했다. 하지만 3월 이후 회복하기 시작해 5월에는 전월 대비 20% 정도 회복됐다. 김채희 KT AI/BigData사업본부장(상무)은 “코로나19로 인해 변화한 여행 트렌드를 빅데이터 통계를 통해 확인할 수 있었다”며, “KT는 빅데이터 통계를 기반으로 고객과 국민들에게 유익한 정보를 지속적으로 제공하겠다”고 말했다. 김수민 기자  k8silver2@daum.net&lt;저작권자 © SR타임스, 무단 전재 및 재배포 금지&gt; 메일보내기 인쇄하기 트윗하기 김수민 기자의 다른기사 보기 icon관련기사 icon[SR경제&amp;라이프] KT 시즌, 신규 오리지널 콘텐츠 ‘아이들다방 3’ 론칭 icon[SR통신IT] 이통3사, 역대금 과징금 5G 투자 위축 '우려’ icon[SR공정운영] 방통위, 단통법 위반 이통3사에 512억 과징금 icon[SR통신IT] KT 클라우드, 금융 API 4종 출시 icon[SR경제&amp;라이프] KT, 한국판 뉴딜 성공 위해 ICT 역량 ‘올인’ icon[SR경제&amp;라이프] KT, 구독형 ‘포토북’ 서비스 출시 icon[SR경제&amp;라이프] NH농협은행, 대학생봉사단 화상교육 진행 icon[SR통신IT] NH농협은행, 올원뱅크에 이통3사 ‘패스 인증서’ 적용 icon현대HCN 본입찰 ‘임박’…SKT-KT스카이라이프 2파전 icon[SR통신IT] KT스카이라이프, 좋은라이프와 상조 결합상품 출시 위해 MOU icon[SR새상품] KT-하이트진로, ‘기가지니X진로 썸버 스페셜 패키지’ 출시 icon[SR통신IT] KT, 5G 융복합 사업 수요 맞춰 ‘5G 기업 망 슬라이스’ 개발 icon[SR통신IT] KT, 텔스타홈멜과 클라우드 기반 공장자동화 플랫폼 선봬 icon[SR경제&amp;라이프] KT, 차이나모바일과 K-콘텐츠 판매 계약 체결 icon인기기사 이화영 킨텍스 사장, 옥중 사퇴결심 굳혀 8년 만에 돌아온 석촌호수 '러버덕' 세계여성평화그룹, 필리핀에 평화기념비 건립 ‘들풀’의 꿈 ‘비단강살리기’ 닻 올려…“세종의 젖줄을 르네상스로” 한화그룹, 대우조선해양 인수…금융권 수장들 국감 '줄소환' [단독] 이화영 킨텍스 사장, 옥중 사퇴결심 굳혀[단독] 이화영 킨텍스 사장, 옥중 사퇴결심 굳혀 기사 댓글 0개 전체보기 0/300 등록 첫번째 댓글을 남겨주세요. 여백 여백 소비자보호/이슈 LG생활건강 '유아용 물티슈'서 가습기 살균제 성분 검출…'늦장 고지' 논란 LG생활건강 '유아용 물티슈'서 가습기 살균제 성분 검출…'늦장 고지' 논란 안전기준 위반 수입품 72만 점 적발 안전기준 위반 수입품 72만 점 적발 여백 지역사회와 함께 볼보자동차코리아, 제주 올레길서 ‘클린 올레’ 플로깅 캠페인  볼보자동차코리아, 제주 올레길서 ‘클린 올레’ 플로깅 캠페인 난민 구호 활동 앞장선 인추협…“미얀마 난민들 생존 위기” 호소 난민 구호 활동 앞장선 인추협…“미얀마 난민들 생존 위기” 호소 여백 소중한 환경 천혜 자연이라더니…세종 고복 자연생태공원 '녹초·악취' 몸살 천혜 자연이라더니…세종 고복 자연생태공원 '녹초·악취' 몸살 세종에 오래전 사라졌던 반딧불이  출현…"되찾은 수질 등 환경 좋아진 탓" 세종에 오래전 사라졌던 반딧불이  출현…"되찾은 수질 등 환경 좋아진 탓" 여백 여백 신문사소개 언론윤리 신문윤리강령 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 에스알미디어그룹  |   (우)04334 서울특별시 용산구 한강대로 102길 11-3 (용산구 동자동 41-6) 5층 SR타임스  |  대표전화 : 02-572-0451  |  팩스 : 02-572-0452 제호 : SR타임스  |  발행일 : 2014년 07월 07일  |  등록번호 : 서울 아 03041  |  등록일 : 2014년 03월 11일  |  편집인/발행인 : 장의식  |  편집국장 : 김두탁  |  청소년보호책임자 : 이정우 SR타임스의 모든 컨텐츠(기사)는 저작권법의 보호를 받습니다. 무단 전재·복사·배포 등을 금지합니다. Copyright © 2022 SR타임스. All rights reserved.  mailto : srtimes0311@daum.net Back to Top</t>
-  </si>
-  <si>
-    <t>KT, 빅데이터로 본 제주도 '생태 관광지'로 회복세 닫기 Search #글로벌 #시승기 #애플 #삼성전자 #유럽 #카드뉴스 닫기 전체기사 글로벌비즈 종합 금융 증권 산업 ICT 부동산·공기업 유통경제 ESG경영 오피니언 GETV 전체기사 글로벌비즈 미국·북미 중국 일본 아시아·호주 유럽 중남미·중동·아프리카 국제 글로벌CEO 종합 정치 경제 사회 전국 인물동정·인사·부고 기타 금융 은행 보험 카드 제2금융 금융일반 증권 해외증시 시황·전망 해외증시 특징주 해외증시 일반 국내증시 시황·전망 국내증시 특징주 국내증시 일반 암호화폐 산업 경제단체 전기·전자 자동차 중화학 항공·조선 반도체·디스플레이 철강 산업일반 ICT 통신·뉴미디어 IT일반 과학일반 게임 부동산·공기업 건설·부동산 분양 공기업 부동산일반 유통경제 식음료 패션∙뷰티 소비자 제약·바이오 유통일반 생활일반 ESG경영 기업지배구조 ESG일반 오피니언 기고 데스크칼럼 기자수첩 GETV 시승기 증권 메뉴 KT, 빅데이터로 본 제주도 '생태 관광지'로 회복세 글로벌모터즈 온타임즈 PDF지면보기 English 中文 ICT facebook twitter youtube 검색 메뉴 통신·뉴미디어 IT일반 과학일반 게임 공유 0 KT, 빅데이터로 본 제주도 '생태 관광지'로 회복세 연못인 혼인지, 화순곶자왈생태탐방숲길, 한라생태숲 및 제주마방목지 등 인기 한현주 기자 입력2020-07-12 09:11 KT, 빅데이터로 본 제주도 '생태 관광지'로 회복세이미지 확대보기제주도 여행 패턴 분석. 자료=KT 코로나19 여파로 급감한 해외여행과 달리 제주 여행은 빠른 회복세를 보이고 있는 것으로 나타났다. 코로나19에 대한 영향으로 기존 실내 인기 관광지보다는 오름, 휴양림 등 생태 관광지가 인기를 얻고 있는 것이다. KT가 올해 제주도 주요 관광지와 방문객을 빅데이터로 분석한 결과 제주도 내 생태 관광지의 관광객수가 큰 폭으로 증가했다고 12일 밝혔다. KT 빅데이터 분석 결과에 따르면, 오름, 휴양림 등 생태관광이 각광을 받고 있다. 전월과 비교해 5월에는 수국으로 유명한 카멜리아힐(202.98%), 롯데스카이힐CC 일대(168.11%), 수백 개의 기암괴석으로 구성된 오백나한(157.80%), 제주돌문화공원 및 에코랜드(155.33%), 제주 항파두리 항몽 유적지(154.21%) 등지가 방문객 수가 크게 늘었다. 6월에는 제주도의 대표적인 연못인 혼인지(368.18%), 화순곶자왈생태탐방숲길(204.01%), 한라생태숲 및 제주마방목지 일대(134.79%), 엉또폭포(130.26%), 비치미오름(121.36%) 순으로 전월 대비 관광객 수가 큰 폭으로 늘어난 여행지로 집계됐다. KT, 빅데이터로 본 제주도 '생태 관광지'로 회복세이미지 확대보기제주도 여행 패턴 분석. 자료=KT 연령대별로 인기가 높은 제주도 관광지도 차이를 보였다. 6월 방문객을 기준으로 20대가 가장 많이 찾은 관광지는 이중섭 문화거리, 30대는 쌍용굴 및 협재굴이었다. 40대 및 50대는 서귀포매일올레시장을 많이 찾았으며, 60대는 우도 성산포유람선, 70대는 중문관광단지에서 관광을 목적으로 방문한 인구가 제일 많은 것으로 분석했다. 이밖에 코로나19 확산 이후 제주 여행객의 연령대도 변화가 일어났다. 코로나19가 본격화된 2월 제주도를 찾는 방문객 중 20대는 전월 대비 42.52% 줄어 가장 큰 감소 폭을 보였다. 또한 5월 제주도 방문객 중에서 30대는 전월 대비 44.99% 늘어 가장 큰 증가 폭을 보였다. 6월에는 30대는 전월 대비 5.77% 증가했다. 한편, KT가 발표한 빅데이터 통계에 따르면 국내선 탑승객들이 이용하는 김포공항 및 제주공항은 방문객 수가 빠르게 회복 중인 것으로 나타났다. 김포공항의 경우 코로나19가 본격화된 올해 2월 이용자 수가 전월 대비 39.28%, 전년 동기 대비 25.35% 급감했다. 하지만 3월 이후 회복하기 시작해 5월에는 전월 대비 20% 정도 회복됐다. KT 빅데이터 자료에 대한 상세한 내용은 KT 빅사이트와 KT 통신 빅데이터 플랫폼에서 확인할 수 있다. KT AI/BigData사업본부장 김채희 상무는 “코로나19로 인해 변화한 여행 트렌드를 빅데이터 통계를 통해 확인할 수 있었다”면서 “KT는 빅데이터 통계를 기반으로 고객과 국민들에게 유익한 정보를 지속적으로 제공하겠다”고 말했다. 한현주 글로벌이코노믹 기자 kamsa0912@g-enews.com [관련기사] KT, 화상회의 솔루션 '미디어박스 라이브' 출시 예정 KT 광화문사옥 코로나19 확진자 2일이어 1명 추가…재택근무 재연장 이란 뉴스 기본정보 무역 투자 비즈니스 여행 이란, 의약품 수입정책 변경 2020.07.21 이란 물가상승률 2021년 부터 잡힌다 2020.07.18 이란, 산업보호에 43억 달러 투입 2020.06.12 이란, 현지생산 가능한 IT제품 수입 금지 발표 2020.05.09 전통 이슬람 금융과 다른 방식 고수하던 이란, 변화 조짐 2020.02.01 헤드라인 뉴스 [초점] ﻿美, 이번주 '역대 최강' 중국 반도체 수출 규제 [뉴욕증시] 국채 수익률 하락 나스닥 2.27% 급등 [뉴욕 e종목] 테슬라 투매 나왔나…주가 8.6% 폭락 글로벌비즈 러시아, 이탈리아에 러시아산 천연가스 3일부터 공급중단 日 미쓰비시중공업, 보다 안전한 원자로 개발 착수 일본제철, 아르셀로미탈과 손잡고 인도 철강 생산 확대에 74억달러 투자 G-Ship Story 대선조선, 수은으로부터 RG 발급 받았다…6500만달러 상당 대우조선해양, 건조 중인 LNG선 화물창 실시간 관리한다 현대글로비스, 물류부터 해운까지 新사업 착착...지배구조 개편 신호탄 G-Military 폴란드, SNT모티브 K4 고속유탄기관총 구매 공식 발표…지상군 화력강화 美, 濠와 공기흡입식 극초음속 미사일 공동개발 루마니아, 한국의 K9자주포와 K2흑표전차 구매 희망 미래의 한류 스타 내로라하는 국내외 유명 안무가 총출동…춤의 진수 선보인다 양소영, 저돌적 추진력과 가공할 연습량 소지한 연기자…연기는 난생처럼 '잘하고 싶은 일' 봉다룬, 판소리·현대무용 연기에 심취…항상 목말라하는 공연계의 '히딩크' 오늘의 주요뉴스 크레딧스위스 CDS 치솟고 주가 폭락 삼성전자, 테슬라에 공급될 반도체 놓고 TSMC와 격돌…TSMC에 물... 日 엔화, 달러당 145엔 돌파…이전 개입 수준에 근접 [초점] 중국, 'AI굴기' 가시화…인재교육·재정지원 강화 일본맥도널드, 7일부터 전매장 종이 빨대·목재 식기 순차 도입 Hot 포토 김보라, '핀란드 파파' 여주인공 발탁…김우석과 호흡 블랙핑크 케이팝 최초 '빌보드 200' 메인 1위 석권 아이유·수지, 수해복구 성금 1억원씩 기부 우주소녀 '엠카' 출격…'라스트 시퀀스' 무대 많이 본 기사 1 日 건담 에볼루션 '혹평'…"오버워치보다 나을 게 없다" 2 10월 1주차, '테라리아' 10위 입성 3 '혁신 아이콘' 애플 어디로 갔나…전작과 차이점 없어 4 '제53회 한국전자전' 코엑스서 개막 5 네이버 "포쉬마크 인수로 美 패션 리커머스 1위 사업자 등극" 글로벌 슈퍼리치 제프 베조스 전처 매켄지 스콧, 756억원 상당 비벌리힐스 저택 자선단체에 기부 할리우드 스타 소피아 베르가라, 비벌리힐스 맨션 257억원에 매각 예정 프로골퍼 비제이 싱, 300억 원 상당 하와이 저택 매각 예정 카메론 디아즈x벤지 메이든 커플, 몬테시토 맨션 1267만 달러에 구입 리얼시승기 아이오닉6 "수려한 디자인에 잘 다듬어진 주행성능 갖춰" 기아 셀토스 부분변경 "이미 완벽한데, 더 좋아졌네?" 벤츠 C200 4매틱 "젊어진 S클래스" 포르쉐 마칸 GTS "강렬한 존재감에 도로위 시선 집중" ICT 실시간 뉴스 2분전 파수, 악성메일 모의훈련 ‘마인드 셋’에 보안교육 서비스 결합 네이버 "포쉬마크 인수로 美 패션 리커머스 1위 사업자 등극" KT IPTV '지니tv'로 개편…AI 기반 '미디어포털' 개편 1시간전 KT엠모바일, e심 특화 요금제 7종 출시 웨이브, 카카오TV 오리지널 콘텐츠 26편 공개 '제53회 한국전자전' 코엑스서 개막 2시간전 네이버, 美 최대 패션 커뮤니티 '포쉬마크' 2조3천억에 인수 10월 1주차, '테라리아' 10위 입성 글로벌이코노믹 패밀리 사이트 온타임즈 글로벌모터즈 신문사소개 윤리강령 기사제보 광고문의 이메일무단수집거부 개인정보취급방침 청소년보호 및 고충처리인 불편신고 (우)04004 서울특별시 마포구 월드컵로62 서교동 한림빌딩 2층 (주)그린미디어 | 제호 : 글로벌이코노믹 | 대표전화 : 02-323-7474 등록번호 : 서울 아 02232 | 등록·발행일자 : 2012년 8월 9일 | 발행·편집인 : 박형준 | 편집국장 : 진성기 | 청소년보호책임자 : 이인수 글로벌이코노믹을 통해 제공되는 모든 콘텐츠(기사 및 사진)를 무단 사용·복사·배포시 저작권법에 저촉되며, 법적 제재를 받을 수 있습니다. Copyright © 2011 글로벌이코노믹. All rights reserved. mail to webmaster@g-enews.com</t>
-  </si>
-  <si>
-    <t>KT, 빅데이터 분석 결과 발표…제주도 생태 관광지 방문 관광객수 큰 폭 증가 &lt; 전자/IT &lt; 산업 &lt; 기사본문 - 이코노뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 UPDATE : 2022-10-04 11:13 (화) 기사검색 검색 홈 로그인 회원가입 전체기사보기 rss 기업포커스 글로벌비즈 기업 정책 산업 전자/IT 자동차/항공/운송 건설/부동산 조선/철강/기계 유통 에너지/화학 연재 남영진 최성범 남경우 이동준 이현우 최충현 김홍국 이민주 김선태 박병호 하응백 한필이 김미영 김광신 창업 창업 고용 경제 정책 증권 금융 산업 증시 인물광장 오피니언 기자칼럼 인성교육 커피&amp;티 기고 화폐로 떠나는 세계여행 박병호의 중국견문록 신선윤의 당구이야기 카드뉴스 오늘의 명언 카드뉴스 그래픽 전체메뉴 버튼 본문영역 이전 기사보기 다음 기사보기 KT, 빅데이터 분석 결과 발표…제주도 생태 관광지 방문 관광객수 큰 폭 증가 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 산업 전자/IT KT, 빅데이터 분석 결과 발표…제주도 생태 관광지 방문 관광객수 큰 폭 증가 기자명 최아람 기자 입력 2020.07.12 09:00 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 제주도 여행 패턴 분석 인포그래픽 (사진=KT)[이코노뉴스=최아람 기자] KT는 올해 제주도 주요 관광지와 방문객을 빅데이터로 분석한 결과 제주도 내 생태 관광지의 관광객수가 큰 폭으로 증가했다고 12일 밝혔다.KT 빅데이터 분석 결과에 따르면, 오름, 휴양림 등 이른바 생태관광이 각광을 받고 있었다. 전월과 비교해 5월에는 수국으로 유명한 카멜리아힐(202.98%), 롯데스카이힐CC 일대(168.11%), 수백 개의 기암괴석으로 구성된 오백나한(157.80%), 제주돌문화공원 및 에코랜드(155.33%), 제주 항파두리 항몽 유적지(154.21%) 등지가 방문객 수가 크게 늘었다.6월에는 제주도의 대표적인 연못인 혼인지(368.18%), 화순곶자왈생태탐방숲길(204.01%), 한라생태숲 및 제주마방목지 일대(134.79%), 엉또폭포(130.26%), 비치미오름(121.36%) 순으로 전월 대비 관광객 수가 큰 폭으로 늘어난 여행지로 집계됐다. 연령대별로 인기가 높은 제주도 관광지도 차이를 보였다. 6월 방문객을 기준으로 20대가 가장 많이 찾은 관광지는 이중섭 문화거리, 30대는 쌍용굴 및 협재굴이었다. 40대 및 50대는 서귀포매일올레시장을 많이 찾았으며, 60대는 우도 성산포유람선, 70대는 중문관광단지에서 관광을 목적으로 방문한 인구가 제일 많은 것으로 분석했다.이밖에 코로나19 확산 이후 제주 여행객의 연령대도 변화가 일어났다. 코로나19가 본격화된 2월 제주도를 찾는 방문객 중 20대는 전월 대비 42.52% 줄어 가장 큰 감소 폭을 보였다. 또한 5월 제주도 방문객 중에서 30대는 전월 대비 44.99% 늘어 가장 큰 증가 폭을 보였다. 6월에는 30대는 전월 대비 5.77% 증가했다.한편, KT가 발표한 빅데이터 통계에 따르면 국내선 탑승객들이 이용하는 김포공항 및 제주공항은 방문객 수가 빠르게 회복 중인 것으로 나타났다.김포공항의 경우 코로나19가 본격화된 올해 2월 이용자 수가 전월 대비 39.28%, 전년 동기 대비 25.35% 급감했다. 하지만 3월 이후 회복하기 시작해 5월에는 전월 대비 20% 정도 회복됐다.KT 빅데이터 자료에 대한 상세한 내용은 KT 빅사이트와 KT 통신 빅데이터 플랫폼에서 확인할 수 있다.KT AI/BigData사업본부장 김채희 상무는 “코로나19로 인해 변화한 여행 트렌드를 빅데이터 통계를 통해 확인할 수 있었다”며, “KT는 빅데이터 통계를 기반으로 고객과 국민들에게 유익한 정보를 지속적으로 제공하겠다”고 말했다. 최아람 기자 e5@econonews.co.kr 다른기사 보기 저작권자 © 이코노뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 소이비랩 저당두유 ㅂㄹㄱㄴㅎ…캐시워크 퀴즈는 “OOOOO 뚜껑” [띠별로 보는 주간운세] 10월 2일 - 10월 8일 원숭이띠 "일거양득의 운세" [오늘의 운세] 9월23일 범띠 “공적으로나 사적으로 바쁠 것” 뱀띠 “계획한대로 밀어붙여라” 로코초코 ㄷㄱㅅㅅ…캐시워크 퀴즈는 “OOOO보다” 신한마이카 ㅅㄱㅁㅎ…캐시워크 퀴즈는 “OOOO” [오늘의 운세] 9월29일 소띠 “간절히 원하던 것을 이룰 수 있게 된다” 용띠 “좋은 찬스를 잡을 수 있는 기회가 온다” [오늘의 운세] 9월25일 소띠 “기대하지도 않았던 것에서 희망이 보인다” 용띠 “통쾌하고 시원함을 느낄 것” 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 주요기사 [오늘의 주요 사회 일정] 부산(10월4일 화요일) [오늘의 주요 경제 일정] 금융·증권(10월4일 화요일) [오늘의 주요 사회 일정] 제주(10월4일 화요일) 경기경제자유구역청, ‘제53회 한국전자전’ 홍보관 운영…“전방위 투자유치 활동 전개” [오늘의 주요 사회 일정] 사회(10월4일 화요일) [오늘의 주요 사회 일정] 충북(10월4일 화요일) 최신뉴스 [오늘의 주요 사회 일정] 부산(10월4일 화요일) [오늘의 주요 경제 일정] 금융·증권(10월4일 화요일) [오늘의 주요 사회 일정] 제주(10월4일 화요일) 경기경제자유구역청, ‘제53회 한국전자전’ 홍보관 운영…“전방위 투자유치 활동 전개” [오늘의 주요 사회 일정] 사회(10월4일 화요일) 포토뉴스 경기경제자유구역청, ‘제53회 한국전자전’ 홍보관 운영…“전방위 투자유치 활동 전개” 프롬바이오 ㅁㅅㅌ…캐시워크 퀴즈는 “OOO검” 한국도자재단, 17일까지 경기도자미술관 소장용 ‘한국 현대 도예 작품’ 공개 구입 경기도, ‘더 큰 평화’ 위한 힘찬 출발 2022 ‘DMZ 평화 마라톤 대회’ 개최 인기뉴스 1 소이비랩 저당두유 ㅂㄹㄱㄴㅎ…캐시워크 퀴즈는 “OOOOO 뚜껑” 2 [띠별로 보는 주간운세] 10월 2일 - 10월 8일 원숭이띠 "일거양득의 운세" 3 [오늘의 운세] 9월23일 범띠 “공적으로나 사적으로 바쁠 것” 뱀띠 “계획한대로 밀어붙여라” 4 로코초코 ㄷㄱㅅㅅ…캐시워크 퀴즈는 “OOOO보다” 5 신한마이카 ㅅㄱㅁㅎ…캐시워크 퀴즈는 “OOOO” 6 [오늘의 운세] 9월29일 소띠 “간절히 원하던 것을 이룰 수 있게 된다” 용띠 “좋은 찬스를 잡을 수 있는 기회가 온다” 7 [오늘의 운세] 9월25일 소띠 “기대하지도 않았던 것에서 희망이 보인다” 용띠 “통쾌하고 시원함을 느낄 것” 8 [오늘의 운세] 9월28일 토끼띠 “시간관리를 철저히 해야겠다” 원숭이띠 “너무 큰 것을 바라지 마라” 하단메뉴 신문사소개 조직도 개인정보처리방침 청소년보호정책 이메일무단수집거부 매체정보 서울특별시 마포구 백범로 235 , 5층(신공덕동, 신보빌딩) 대표전화 : 070 7817 0177 팩스 : 02-464-5958 대표법인 : 이코노뉴스 등록번호 : 서울, 아03530 등록일 : 2015-01-19 발행인 : 이종수 편집인 : 조희제 청소년보호책임자 : 조희제 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 조희제 070-7817-0177 hjcho1070@naver.com © 이코노뉴스. All rights reserved. 위로 전체메뉴 전체기사 기업포커스 글로벌비즈 전체 기업 정책 산업 전체 전자/IT 자동차/항공/운송 건설/부동산 조선/철강/기계 유통 에너지/화학 연재 전체 남영진 최성범 남경우 이동준 이현우 최충현 이종수 이민주 김선태 박병호 하응백 한필이 김미영 김광신 민족미래연구소 창업 전체 창업 고용 경제 전체 정책 증권 금융 산업 증시 인물광장 오피니언 전체 기자칼럼 인성교육 커피&amp;티 기고 화폐로 떠나는 세계여행 박병호의 중국견문록 신선윤의 당구이야기 카드뉴스 전체 오늘의 명언 카드뉴스 그래픽 전체메뉴닫기</t>
+    <t>제주도관광협회, 코로나19 위기 극복 인사·재무 컨설팅 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도관광협회, 코로나19 위기 극복 인사·재무 컨설팅 파이낸셜뉴스입력 2020.07.28 19:38수정 2020.07.28 19:38 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 8월부터 연말까지 관광사업체 상대로 맞춤형 지원 제주도관광협회가 추진하고 있는 관광사업체 경쟁력 강화를 위해 컨설팅 지원사업 /사진=fnDB [제주=좌승훈 기자] 제주도관광협회(회장 부동석)는 8월부터 연말까지 도내 관광사업체 경쟁력 강화를 위해 컨설팅 지원사업을 추진한다. 이번 사업은 코로나19 사태 장기화로 경영난을 겪고 있는 관광사업체들의 경영 능력 강화를 위한 것이다. 협회는 찾아가는 맞춤형 컨설팅을 통해 사업체의 애로사항과 문제점을 점검하고 해결 방안을 제시하기로 했다. 컨설팅 내용은 인사노무와 재무회계 분야로 나눠 전문 업체로부터 컨설팅 지원을 받게 된다. 지원 참여업체 모집은 내달 5일까지다. 자세한 내용은 협회 홈페이지를 참고하면 된다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>해외 대신 제주도 찾는 관광객들, 서귀포 펜션에서 힐링 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업산업일반재계전기전자자동차산업에너지ㆍ중공업유통생활경제중기ㆍ창업패션뷰티호텔ㆍ관광의료식음료헬스케어제약ㆍ바이오취업ㆍ채용지방국제생활/문화연예스포츠여행TVBBC 홈 &gt; 산업 &gt; 호텔ㆍ관광 해외 대신 제주도 찾는 관광객들, 서귀포 펜션에서 힐링 제주도 펜션 아이로제주, 여름철 물놀이 펜션으로 예약 쇄도 (서울=뉴스1) 김수정 기자					| 2020-07-28 16:11 송고 | 2020-07-28 17:20 최종수정 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 © 뉴스1 최근 국제적인 보건 이슈로 여름휴가로 해외여행 대신 국내 여행을 선택하는 이들이 늘어나는 추세다. 이에 국내 대표 관광지인 제주도는 어느 때보다 분주한 시기를 맞이하고 있다.  많은 이들이 제주도 여행 시 공기가 맑은 청정지역을 찾아 여행을 떠나거나 단독형 펜션이나 호텔을 예약하는 등 타인과 접촉을 최대한 피하는 여행을 계획하고 있다. 이러한 추세에 따라 제주도 내에서 전망이 좋기로 유명한 대평리에 위치한 아이로제주(IRO Jeju)가 제주의 자연 경관을 개별적으로 누릴 수 있는 제주도 숙소로 주목받는다.  아이로제주는 중문근처의 조용한 마을에 위치해 자연의 정취를 느끼며 힐링을 할 수 있는 중문펜션이다.   '구가의 서' 촬영지인 안덕계곡에서도 멀지 않은 곳에 있으며, 올레길 8번 종점 및 9번 시작점에 자리 잡고 있어 주변을 여행하며 아름다운 제주의 풍경을 제대로 누릴 수 있다. 또한 관광 명소인 중문 관광 단지에서도 10분 거리에 위치해 관광 목적의 여행 시에도 적합하다.  펜션이지만 호텔 느낌의 깔끔한 분위기의 내부 시설도 주목받는다. 객실 내에는 거위 솜털이불로 호텔식 침구를 제공해 편안함과 고급스러움을 더하며, 각 객실에는 전객실 시스템에어컨이 설치되어 있어 여름철 습한 바다 공기를 피하면서도 경치를 즐기기에 좋아 골프텔로도 인기가 좋다.  또한 개별 테라스에는 비장탄 숯 바비큐와 물놀이 시설이 마련되어 있어, 가족 또는 연인끼리 개별 바비큐 파티와 물놀이를 즐기며, 즐거운 시간을 보낼 수 있다.  아이로제주 관계자는 “훌륭한 입지와 호텔식 숙소 내부 시설로 제주도 숙박 및 숙소를 찾는 많은 관광객의 사랑을 받고 있다. 이 결과 최근에는 손예진이 출연한 영화 ‘나쁜 놈은 죽는다’의 촬영지로도 이용되기도 했다”며 “여름철 제주도로 피서를 계획 중이라면 자연과 함께 편안한 쉼을 누릴 수 있는 아이로제주를 추천한다”고 말했다. © 뉴스1 nohsm@news1.kr &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 "연하 남편·여직원, 시댁서 동거…시모는 며느리 대접" 선우은숙 "만난지 석달…유영재 '나 믿고 함께하자' 말에 결혼" 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" '음주운전' 신혜성, 측정 거부해 체포 "죄송…차량 절도는 아냐" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 대통령실까지 행진하는 배민 라이더 정진석 "이재명 '日軍 주둔설' 文 '김정은 비핵화 약속'…양대 망언 취업, 그 간절한 마음 'K패션의 미래가 한자리에' [국감]유병호 "문자 송구스러워…소통은 정상적" 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 탭메뉴 스포츠 연예 스타일 스포츠 9부 능선 넘었어도 긴장 풀지 않은 홍명보 감독 "아직 우승 아닌데…" 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 14:45 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N2 이전 다음 제주도관광협회, 관광사업체 컨설팅 추진 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 경제 제주도관광협회, 관광사업체 컨설팅 추진 김형훈 기자 승인 2020.07.29 15:03 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도관광협회가 8월부터 12월까지 도내 관광사업체를 대상으로 ‘관광사업체 컨설팅 지원을 통한 경쟁력 강화사업’을 추진한다. 이번 사업은 코로나19 사태 장기화로 경영난을 겪고 있는 관광사업체의 경영능력 및 경쟁력 강화를 위해 추진된다. 제주도관광협회는 선정된 업체를 대상으로 인사노무, 재무회계 등 두 분야로 나눠 전문 컨설팅 업체로부터 컨설팅을 진행한다. 인사노무 컨설팅은 인사노무지식, 근로계약, 임금체계 등에 대한 컨설팅 지원이 이뤄진다. 재무회계 컨설팅은 재무진단, 세무·회계 관리 등을 내용으로 한다. 컨설팅 지원 참여업체 모집은 8월 5일까지이며 자세한 내용은 관광협회 홈페이지(www.visitjeju.or.kr) 공고란에서 확인이 가능하다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 김형훈 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 6코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>м ңмЈјлҸ„ мҳ¬н•ҙ м ңмЈјкөӯм ңкҙҖкҙ‘л§ҲлқјнҶӨм¶•м ң м·ЁмҶҢн•ҳкё°лЎң | м„ңмҡёмӢ л¬ё м „мІҙ м„ңмҡёмӢ л¬ёкіөмӢқ SNS мұ„л„җкө¬лҸ… &amp; мўӢм•„мҡ”!! м„ңмҡёмӢ л¬ё лёҢлһңл“ң мӢ л¬ёкө¬лҸ… м§Җл©ҙ PDF лЎңк·ёмқё кіөмӢқSNS Since 1904.7.18 кё°мӮ¬м ңліҙл¶ҲнҺёмӢ кі лүҙмҠӨлёҢлһңл“ң м„ңмҡёмӢ л¬ё лӮҳмҡ°лүҙмҠӨ м„ңмҡёPn м„ңмҡёEye м„ңмҡёTV м„ңмҡёEn м„ңмҡём»¬мІҳ кіөмғқкіөмӮ¬ кіөмқө/л¬ёнҷ”/мӮ¬м—… м„ңмҡёл§Ҳмј“ м„ңмҡёк°Өлҹ¬лҰ¬ лҚ”л¶Ҳм–ҙмғҒмЎ° н•ҳн”„л§ҲлқјнҶӨ м»ӨлІ„лҢ„мҠӨ лҜёлһҳм»ЁнҚјлҹ°мҠӨ мғқлӘ…кіөн•ҷмә н”„ нҸүнҷ”м—°кө¬мҶҢ м„ңл№„мҠӨ/л¬ёмқҳ мӢ л¬ёкө¬лҸ… PDF м§Җл©ҙліҙкё° л””м§Җн„ёмҙҲнҢҗ ліҙлҸ„мһҗлЈҢ м§Җл©ҙкҙ‘кі мҳЁлқјмқёкҙ‘кі мҳҘмҷёкҙ‘кі м„ңмҡёл§ҲлӢ№ лҢҖкҙҖ м •м№ҳ мӮ¬нҡҢ кІҪм ң көӯм ң мҳӨн”јлӢҲм–ё м •мұ…В·мһҗм№ҳ л¬ёнҷ”В·кұҙк°• кё°нҡҚВ·м—°мһ¬ мҠӨнҸ¬мё м—°мҳҲ н”јн”Ң мӢӨмӢңк°„ мҶҚліҙ м „мІҙкё°мӮ¬/мӮ¬мқҙнҠёл§ө нҷҲм§Җм—ӯлі„лүҙмҠӨ м ңмЈјлҸ„ мҳ¬н•ҙ м ңмЈјкөӯм ңкҙҖкҙ‘л§ҲлқјнҶӨм¶•м ң м·ЁмҶҢн•ҳкё°лЎң мһ…л Ҙ :2020-07-23 11:31г…Ј мҲҳм • : 2020-07-23 11:31 в–І м ңмЈјкөӯм ңкҙҖкҙ‘л§ҲлқјнҶӨм¶•м ң лӘЁмҠө(м ңмЈјлҸ„кҙҖкҙ‘нҳ‘нҡҢ) м ңмЈјлҸ„мҷҖ м ңмЈјлҸ„кҙҖкҙ‘нҳ‘нҡҢлҠ” мҪ”лЎңлӮҳ 19 м§Җм—ӯмӮ¬нҡҢ нҷ•мӮ° л°©м§Җ л°Ҹ м „ көӯлҜјм Ғ л°©м—ӯнҷңлҸҷ лҸҷм°ёмқ„ мң„н•ҙ м ңмЈјкөӯм ңкҙҖкҙ‘л§ҲлқјнҶӨм¶•м ңлҘј м—ҙм§Җ м•Ҡкё°лЎң кІ°м •н–ҲлӢӨкі  23мқј л°қнҳ”лӢӨ.25нҡҢмқҳ м—ӯмӮ¬лҘј к°Җм§„ м ңмЈјкөӯм ңкҙҖкҙ‘л§ҲлқјнҶӨм¶•м ңк°Җ м·ЁмҶҢлҗң кІғмқҖ 1997л…„ IMFмӮ¬нғңм—җ мқҙм–ҙ мқҙлІҲмқҙ л‘җ лІҲм§ёлӢӨ.лӢ№мҙҲ 5мӣ” 24мқј м—ҙлҰҙ мҳҲм •мқҙм—ҲлҚҳ м ңмЈјкөӯм ңкҙҖкҙ‘л§ҲлқјнҶӨм¶•м ңлҠ” 9мӣ” 6мқјлЎң м—°кё°н•ҳл©ҙм„ң н–үмӮ¬ к°ңмөңлҘј мӨҖл№„н•ҙмҷ”мңјлӮҳ, кҙ‘мЈјВ·м „лӮЁ м§Җм—ӯ мӮ¬нҡҢм Ғ кұ°лҰ¬л‘җкё° 2лӢЁкі„ мӢңн–үм—°мһҘ, мҲҳлҸ„к¶Ң м§Җм—ӯ к°җм—јмһҗ нҷ•мӮ°, лҸ„лӮҙ 3м°Ё к°җм—јмһҗ л°ңмғқ л“ұ мҪ”лЎңлӮҳ19 мғҒнҷ©мқҙ м•…нҷ”лҸј л¶Ҳк°Җн”јн•ҳкІҢ н–үмӮ¬ м·ЁмҶҢлҘј кІ°м •н•ҳкІҢ лҗҗлӢӨ.м ңмЈјкөӯм ңкҙҖкҙ‘л§ҲлқјнҶӨм¶•м ң м°ёк°ҖмӢ мІӯмһҗмқҳ м°ёк°Җл№„ нҷҳкёү л“ұмқҖ л§ҲлқјнҶӨм¶•м ң нҷҲнҺҳмқҙм§Җм—җм„ң нҷ•мқён•ҳкұ°лӮҳ м ңмЈјлҸ„кҙҖкҙ‘нҳ‘нҡҢ л§ҲлқјнҶӨ мӮ¬л¬ҙкөӯ(064-741-8771)лЎң л¬ёмқҳн•ҳл©ҙ лҗңлӢӨ.м ңмЈј нҷ©кІҪк·ј кё°мһҗ kkhwang@seoul.co.kr м„ңмҡёмӢ л¬ё м¶”мІң мқёкё°кё°мӮ¬ вҖҳлӢӨмӢң, мқјліём—¬н–үвҖҷвҖҰл¬ҙл№„мһҗ кҙҖкҙ‘ мһ¬к°ң вҖңм—үлҚ©мқҙ л§Ңм§„ з”· кі мҶҢвҖқ к°•лӮЁ л№„нӮӨлӢҲеҘі л§ҲмқҢ л°”кҫј мқҙмң вҖңл°•мҲҳнҷҚ, жҜҚмҷҖ кҙҖкі„ нҡҢліө мӣҗн•ңлӢӨвҖқ л°ңм–ё, м •л§җ мһҲм—ҲлӮҳ нҷ©кёҲліҖкё°м—җ м•үмқҖ лІҢкұ°лІ—мқҖ н‘ёнӢҙвҖҰм№ мҲң көҙмҡ• м„ л¬ј [лӢЁлҸ…] мҡ°лҰ¬ көӯл Ҙм—җ 3л§Ңtкёү н•ӯкіөлӘЁн•ЁмқҖ м Ғм •н•ңк°Җ вҖңмЈҪмқҢмқҳ кіөнҸ¬вҖқвҖҰлӢ¬лҰ¬лҠ” нғқмӢңм„ң кё°мӮ¬ 70нҡҢ нҸӯн–үн–ҲлӢӨ KнҢҢмқј вҖңм—¬мһҗлҠ” лЁ№мһҮк°җвҖқ пҰҒВ·мҳҒм•„ м„ұнҸӯн–ү лҹ¬кө°, лҚ” м§җмҠ№ к°ҷм•„м§„ л°ҖлҰ¬н„°лҰ¬ мқёмӮ¬мқҙл“ң мҡ°лҰ¬ көӯл Ҙм—җ 3л§Ңtкёү н•ӯкіөлӘЁн•ЁмқҖ м Ғм •н•ңк°Җ лӢ¬мҪӨн•ң мӮ¬мқҙм–ёмҠӨ мӨ‘л…„м—җ кјӯ вҖҳмҳӨл©”к°Җ3вҖҷ мұҷкІЁлЁ№м–ҙм•ј н•ҳлҠ” мқҙмң , м•Ңкі ліҙлӢҲ. мҲ  мқҙм•јкё° мһ¬мҠӨлҜјн–Ҙ к°Җл“қ, мӨ‘мӢқм—җ л”ұ нҸ¬нҶ  лӢӨнҒҗ лӮҙ л°ңкіј лӣҙлӢӨ, л„Ө л°ңмқҳ м „мҡ° кёҖлЎңлІҢ мқёмӮ¬мқҙнҠё вҖңн•ңкөӯмқҙ л°ҳмӨ‘м „м„  м„ л‘җ лӮҳнҢ”мҲҳ м•ҲлҸјм•ј, л°ҳ кұёмқҢ лҠҰкІҢ к·ёлҰјкіј и©© м Җл¬ҙлҠ” нҷ©нҳј/м„ңм •мЈј лүҙмҠӨлҘј л¶ҖнғҒн•ҙ м№ҳм—ҙн•ҙм§„ лҜёл””м–ҙ м„ кұ°м „вҖҰм—¬м•ј лҢҖм„  вҖҳмһ…вҖҷл“Өмқҳ м „мҹҒ мқҙ мӮ¬лһҢмқҙ мӮ¬лҠ” лІ• м§Җкө¬мҙҢ вҖҳмӢ мӢ  м»Өн”ҢвҖҷ 1л§Ң 4000мҢҚ вҷЎ 100м„ёл¶Җн„° к°Җ к№Җнғңк· мқҳ JлЎңк·ё вҖңмқјліёмқҳ мҮ лқҪмқ„ мқјліёмқёл“ӨмқҖ лӘ°лқјвҖҰм—¬м „нһҲ к°•лҢҖкөӯмқҙлһҖ л§қмғҒвҖқ мҳҒмғҒ м·Ёмһ¬ лІ„мҠӨм—җ л‘җкі  лӮҙлҰ° 350л§Ңмӣҗ л“  к°Җл°© м°ҫм•„мӨҖ кІҪм°°кҙҖ вҖңк¶ҢнҲ¬лҠ” н•ң л°©мқҙ мһҲм§Җл§Ң мқёмғқмқҖ н•ң л°©мқҙ м—ҶмЈ вҖқ, м „м„Өмқҳ вҖңмҲҳмғҒн•ҳл„ӨвҖқ кІҪм°°кҙҖ лҲҲмҚ°лҜём—җ л”ұ кұёлҰ° л¬ҙл©ҙн—Ҳ мҡҙм „мһҗ ліҙмқҙмҠӨн”јмӢұлІ” мһЎмқҖ м№ҙнҺҳ мЈјмқёмқҳ кё°м§Җ к°ҖмһҘ л§Һмқҙ ліё лүҙмҠӨ 1~5 6~10 н‘ёнӢҙ, лҜёмӮ¬мқј ліҙліө мқём •вҖҰвҖңн…Ңлҹ¬, к°Җнҳ№н•ҳкІҢ лҢҖмқ‘вҖқ вҖҳмӢ мқҳ м§ҒмһҘвҖҷ л§һл„ӨвҖҰкіөкё°м—… м§Ғмӣҗ м§‘мӮҙ л•Ң 1%лҢҖ м ҖкёҲлҰ¬ м–өлҢҖ лҢҖм¶ң вҖңмқјліёмқҖ м ңмқј мўӢмқҖ кІҢ лҸҷмҳҒмғҒвҖқвӢҜн•ҙкі лҗң көҗмӮ¬, вҖҳм„ мІҳвҖҷ мқҙмң лҗҗлӢӨ м„ мҡ°мқҖмҲҷ, вҖҳ4мӮҙ м—°н•ҳвҖҷ мң мҳҒмһ¬ м•„лӮҳмҡҙм„ңмҷҖ кІ°нҳј мӢ нҳңм„ұ мёЎ вҖңмқҢмЈјмҡҙм „ мқём •, лҸ„лӮң м°Ёлҹү нғ‘мҠ№н•ң мқҙмң лҠ”вҖҰвҖқ вҖҳн’ҖмҶҢмң вҖҷ л…јлһҖ нӣ„ мӮ¬лқјм§„ нҳңлҜјмҠӨлӢҳ, 2л…„л§Ңм—җ нҸ¬м°©лҗң к·јнҷ© вҖҳмӮјм„ұм „мһҗ мһ…мЈјвҖҷ нӮӨмқҙмҡ° л№Ңл”©, лҹ¬ кіөмҠө н”јн•ҙ(мҳҒмғҒ) к№Җм •мқҖ, лӢ№м°Ҫкұҙмқјм—җ мҳЁмӢӨлҶҚмһҘ мӨҖкіөмӢқ м°ём„қ н‘ёнӢҙ вҖҳн”јмқҳ ліҙліөвҖҷвҖҰ мҡ°нҒ¬лқј мӢңлҜј л•Ңл ёлӢӨ м—¬м„ұ мӢ мІҙ л§Ңм§Җкі  лҸ„мЈјвҖҰмһЎкі ліҙлӢҲ 6кёү көҗмңЎкіөл¬ҙмӣҗ м„ңмҡёEye : нҸ¬нҶ лүҙмҠӨ лӮҳмҡ°лүҙмҠӨ : м§Җкө¬мҙҢ лі„лі„ мқҙм•јкё° [STOP н‘ёнӢҙ] нҒ¬лҰјлҢҖкөҗ нҸӯл°ңмқҙ н•өм „мҹҒмңјлЎң? [мөңнҳ„нҳёмқҳ л¬ҙкё°мқёмӮ¬мқҙл“ң] лҹ¬мӢңм•„ н•ҙкө°мқҳ ліҙліө мҲҳлӢЁ вҖҳ [нҸ¬м°©] нҒ¬лҰјлҢҖкөҗ нҸӯл°ңмқҖ мҡ°нҒ¬лқј мҶҢн–ү? вҖҳмқҳл¬ёмқҳ л¬јкІ° м–ҙлҰ°мқҙ 350лӘ… мӮҙн•ҙн•ң нқ¬лҢҖмқҳ мӮҙмқёл§Ҳ вҖҳм•ҲлҚ°мҠӨ кҙҙл¬јвҖҷ [м§Җкө¬лҘј ліҙлӢӨ] мҡ°мЈјм—җм„ң ліё мҡ©м•”кіј м—°кё°вҖҰдјҠ мҠӨнҠёлЎ¬ліј м„ңмҡёEn : л°©мҶЎВ·м—°мҳҲ мӢ нҳңм„ұ мёЎ вҖңмқҢмЈјмҡҙм „ мқём •, лҸ„лӮң м°Ёлҹү нғ‘мҠ№н•ң мқҙмң лҠ”вҖҰвҖқ [м „л¬ё] мҮјн•‘лӘ° лҢҖл°•лӮң к°•лҜјкІҪ, 65м–ө л№Ңл”© кіөк°ң л§ҲлҸҲлӮҳ, кіјлҸ„н•ң м„ұнҳ• нғ“? л„Ҳл¬ҙлҸ„ лӢ¬лқјм§„ м–јкөҙ м„ мҡ°мқҖмҲҷ, вҖҳ4мӮҙ м—°н•ҳвҖҷ мң мҳҒмһ¬ м•„лӮҳмҡҙм„ңмҷҖ кІ°нҳј вҖҳ60м„ёвҖҷ нҶ° нҒ¬лЈЁмҰҲ, мҡ°мЈјм„ң мҳҒнҷ” м°ҚлҠ” мөңмҙҲ л°°мҡ° лҗҳлӮҳ мҳӨн”јлӢҲм–ёВ·мӮ¬м„Ө м„ңмҡёкҙ‘мһҘ көӯк°Җліҙм•ҲлІ•мқҳ мҡҙлӘ…, м°Ёл¶„нһҲ м§Җмјңліҙмһҗ мӢңлЎ мҠӨнҶ нӮ№лІ”мЈ„, мқҙм ңлҠ” көӯнҡҢк°Җ мқ‘лӢөн•ҙм•ј н•ңлӢӨ м—ҙлҰ°м„ёмғҒ мқјлЎ  лЁёмҠӨнҒ¬мқҳ лҜёмҷ„м„ұ ліҙкі мӮ¬м„Ө мІӯл…„ кҝҲ м§“л°ҹмқҖ мқҙмҠӨнғҖн•ӯкіө мұ„мҡ© мІӯнғҒл№„лҰ¬ кІҪм ңВ·м•Ҳліҙ мң„кё°ліҙлӢӨ м •м№ҳ мң„кё°к°Җ лҚ” л¬ҙм„ӯлӢӨ еҢ— н•өнғҖкІ© лӘ©н‘ң м ҒмӢң, л©ҙл°Җн•ң лҢҖл№„нғңм„ё к°–м¶°м•ј м„ңмҡёPn : м •мұ…/мһҗм№ҳ/кі мӢң вҖҳл°°лҳҗлЎұвҖҷ, мҳ¬ м•„лҰ„лӢӨмҡҙ мҡ°лҰ¬л§җ мғҒн‘ң м„ м • мқҙлҙүм°Ҫ мқҳмӮ¬ мҲңкөӯ 90мЈјкё° м¶”лӘЁмӢқ вҖңлҜјмӣҗ вҖҳм ңлЎңвҖҷ лҗ  л•Ңк№Ңм§Җ кө¬м„қкө¬м„қ лҲ„лІјм•јмЈ вҖқ мҪ”лЎңлӮҳлЎң м§Җм№ң мЈјлҜјл“Ө мқјмғҒ лӢӨмӢң м°ҫм•„ мӨҖ м„ңмҙҲ м•„лҸҷл“Өм—җкІҢ нқ¬л§қ м „н•ҳлҠ” вҖҳкҙҖм•… мҶҢл§қ л°°лӢ¬л¶ҖвҖҷ м„ңмҡёмӢ л¬ё кіөмӢқ SNS мұ„л„җ кө¬лҸ… &amp; мўӢм•„мҡ”!! мӢ л¬ёкө¬лҸ… н–үмӮ¬ м•ҲлӮҙ м•ҢлҰјВ·мӮ¬кі м Җмһ‘л¬ј кө¬л§Ө лҸ…мһҗк¶Ңмқөмң„ кі м¶©мІҳлҰ¬В·м •м •ліҙлҸ„ м ңнңҙ л°Ҹ л¬ёмқҳ нҡҢмӮ¬мҶҢк°ң мұ„мҡ© мқҙмҡ©м•ҪкҙҖ к°ңмқём •ліҙм·Ёкёүл°©м№Ё мІӯмҶҢл…„ліҙнҳём •мұ…(мұ…мһ„мһҗ:мқҙм§Җмҡҙ) м Җмһ‘к¶Ң к·ңм•Ҫ мЈјмҶҢ : м„ңмҡёмӢң мӨ‘кө¬ м„ёмў…лҢҖлЎң 124 (нғңнҸүлЎң1к°Җ) l мқён„°л„·мӢ л¬ёл“ұлЎқлІҲнҳё : м„ңмҡё м•„03681 л“ұлЎқмқјмһҗ : 2015.04.20 l л°ңн–үмқё : кіҪнғңн—Ң В· нҺём§‘мқё : мқҙмў…лқҪ l мӮ¬мқҙнҠёл§ө Copyright в“’ м„ңмҡёмӢ л¬ёмӮ¬ All rights reserved. l Tel (02)2000-9000</t>
+  </si>
+  <si>
+    <t>원희룡 "코로나19 이후 관광산업 제주도가 선도" :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 원희룡 "코로나19 이후 관광산업 제주도가 선도" 등록 2020.07.21 14:23:33 작게 크게 도 주간정책회의서 "코로나로 안전관광이 추세" [제주=뉴시스] 원희룡 제주지사. [제주=뉴시스] 강정만 기자 = 원희룡 제주지사는 “신종 코로나 바이러스 감염증(코로나19) 장기화에 따라 안전관광이 시대적인 추세가 될 것”이라며 "신종 코로나 바이러스 감염증(코로나19) 이후 관광산업을 제주도가 선도해 나가야 한다”고 20일 밝혔다. 원 지사는 이날 오전 도청 4층 탐라홀에서 열린 ‘폭염 등 재난대책 및 2021년도 국비 사업 절충상황 점검’ 주제의 주간정책 조정회의에서 “코로나19로부터 도민과 관광객을 보호하고 다양한 관광 콘텐츠 개발을 통해 제주의 청정하고 안전한 관광 브랜드를 강화해야 한다"며 이같이 밝혔다. 그는 “제주는 성공적인 방역을 통해 청정·안전 브랜드를 강화하는 과정에 있다”며 “제주의 방역이 국가적·세계적인 표준으로 앞서간다는 이미지를 통해 제주관광이 재도약하는 힘을 축적할 수 있는 기회로 삼아야 한다”고 말했다. 특히 “코로나 장기화에 따라 안전관광이 시대적인 추세가 될 것”이라며 “분산형·비대면·비접촉 관광과 프로그램·콘텐츠 등의 발굴을 적극 지원하고, 이와 관련된 규제를 과감하게 풀면서 코로나 이후 관광산업을 제주도가 선도해 나가야 한다”고 덧붙였다. 또 “코로나19 상황을 고려해 경로당 운영을 부분적으로 재개할 예정임에 따라 철저한 방역이 필요하다”면서 “어르신이나 장애인 등 취약계층이 코로나19 상황 속에서 폭염·자연재해에 무방비로 노출되지 않도록 에너지 바우처 사업 등에 대한 홍보를 강화하라”고 지시했다. ◎공감언론 뉴시스 kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 33분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 4국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 [부고]박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 의정부 행복로서 14일 뷰티 페스티벌 열린다 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 브이원텍, LG전자와 33억 규모 공급계약 체결 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 광주 물 관리-지하시설물 중복 관리 "대책 시급"(종합) 정무위 국감… 野, 김건희 도이치 의혹에 "이복현 입장 내놔야" 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 브이원텍, LG전자와 33억 규모 공급계약 체결 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 이복현 금감원장, 우리은행 횡령에 "있을 수 없는 일" 씨아이에스, 195억 규모 2차전지 전극공정 장비 공급계약 체결 국내외 식품안전정보, 조건 제약 없이 검색한다 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, 빵빠레 샌드 카스타드 아이스크림 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 울산 청년 여성 10명 중 2.4명 매년 떠나…학업·취업 기회 부족 '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 의정부 행복로서 14일 뷰티 페스티벌 열린다 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 대구폴리텍대, 대구옥외광고·울산옥외광고 대상전 잇따라 수상 청도군 "가을밤 코미디와 함께 반시 맛 즐겨보세요" "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도의회 문화관광체육위원회 회의 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 하단 메뉴 바로가기 국가기간뉴스통신사 연합뉴스 배너 검색 영역 뉴스, 포토, 영상, 그래픽을 검색하실 수 있습니다. GO 비주얼 뉴스홈 영상 영상홈 영상뉴스 사건재구성 한반도N 많이본영상 날짜별영상 포토 포토홈 정치 북한 경제 산업 사회 전국 세계 문화 연예 스포츠 모멘트 화보 #D 그래픽 검색 열기 검색 닫기 포토홈 제주도의회 문화관광체육위원회 회의 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 변지철 기자 기자 페이지 (서울=연합뉴스) 20일 제주도의회에서 문화관광체육위원회 회의가 열리고 있다. 제주도의회 문화관광체육위원회는 이날 열린 제385회 임시회에서 신종 코로나바이러스 감염증(코로나19) 위기대응을 위해 긴급편성된 제2회 추가경정예산안을 심사했다. 2020.7.20 [제주도의회 제공. 재판매 및 DB 금지] photo@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2020/07/20 14:39 송고 '프로농구 개막 미디어데이'…기념촬영하는 선수와 감독들 10-11 12:35 '감사원 국감, 시작 9분만에 파행'…비어있는 의원석 10-11 10:45 '깊어가는 가을'…안산 갈대습지공원 10-11 12:02 '간절한 마음으로'…면접 대기하는 구직자들 10-11 12:04 '오늘부터 개량백신 접종 시작'…60세미만도 잔여백신 접종가능 10-11 09:57 댓글쓰기 맨위로 전체메뉴 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 사람들 인사 부고 동정 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 이슈돋보기 주요신문톱뉴스/사설 이 시각 헤드라인 날씨/재난 날씨 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이 본 뉴스 모바일 뉴스 모바일앱 모바일웹 비주얼뉴스 #흥 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷 맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 유튜브 연합뉴스 통통컬처 Korea Now 한반도N 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로2길 25 | 등록번호 문화, 나00009 | 등록일자 1980.12.29 | 발행일자 1980.12.29 | Tel. 02-398-3114 (C) Yonhapnews [대표이사] 성기홍 [편집인] 조채희 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 카카오스토리 서비스안내 전체보기 서비스안내 전체보기 닫기 연합뉴스 연합뉴스TV 인포맥스</t>
+  </si>
+  <si>
+    <t>제주도 지가변동률 0.62% 하락...관광객 감소 영향 &lt; 부동산 &lt; 부동산 &lt; 기사본문 - 서울와이어 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 모바일웹 2022-10-11 14:50 (화) 경제/산업 금융/증권 정치/사회 글로벌 부동산 핫이슈 ESG 포토뉴스 영상뉴스 보도자료 인사·부고 더보기 기사검색열기 기사검색 검색 검색닫기 본문영역 이전 기사보기 다음 기사보기 제주도 지가변동률 0.62% 하락...관광객 감소 영향 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 부동산 부동산 제주도 지가변동률 0.62% 하락...관광객 감소 영향 기자명 김상준 기자 승인 2020.07.24 13:22 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도 전경 [사진=김상준 기자] [서울와이어 김상준 기자] 올해 2분기 지가변동률이 전국 시·도 중 유일하게 제주만 하락한 것으로 나타났다. 24일 국토교통부의 올해 2분기(4∼6월) 지가변동률 발표에 따르면 제주도는 지가변동률이 0.62％ 하락으로 나타났다. 서귀포시가 0.66％ 하락해 전국에서 가장 큰 폭의 지가 하락률을 기록했고, 제주시도 0.59％가 떨어져 서귀포시에 이어 두 번째의 지가 하락률을 보였다. 국토부는 신종 코로나바이러스 감염증 영향으로 제주를 방문하는 관광객이 감소하고 부동산 매수심리가 위축돼 땅값이 하락한 것으로 분석했다. 또 제2공항 등의 개발사업이 부진하고 주택 미분양 물량이 적체되는 등 지역 경기 침체의 영향으로 부동산 가격이 내려간 것으로 봤다. 국토부의 이번 조사에서 올해 2분기 전국 평균지가는 0.79% 상승했다. 지가변동률 상위지역은 ▲서울(1.02%)▲경기(0.93%)▲인천(0.91%) 순이었다. 김상준 기자 kimsjun@seoulwire.com 다른기사 보기 저작권자 © 서울와이어 무단전재 및 재배포 금지 Sponsored AD 당신만 안 본 뉴스 출근길 서울지하철 5호선 또 먹통...장애인단체 시위 마약 최근 손댔다던 돈스파이크… 10년전부터 상습 투약 영국 패션쇼에 오른 한복… '예비신부' 김연아가 디자인 유튜브 댓글 의심이 사실로… 가수 돈스파이크 필로폰 투약 다가온 콘서트 시즌… '히어로' 임영웅 실물 보려면 대전 현대아울렛 직원 보상...매니저 350만원, 판매사원 250만원 [CEO투데이] '두 번째 혁신' 준비하는 김슬아 마켓컬리 대표 출근길 서울지하철 5호선 또 먹통...장애인단체 시위 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 에어버스, KAI와 협력해 첫 소형민수헬기 인도 셀트리온헬스케어 "램시마SC 치료지속성 92.3%" 대우건설, 우즈베키스탄 인프라 개발사업 진출 추진 [부고] 지영흔(하나은행 홍보팀장)씨 부친상 "시중은행 잡아라"… 저축은행 예금금리, 10년 만에 4%대 뷰노, 가정용 심전도 측정 의료기기 'Hativ P30' 식약처 인증 획득 최신뉴스 에어버스, KAI와 협력해 첫 소형민수헬기 인도 셀트리온헬스케어 "램시마SC 치료지속성 92.3%" 대우건설, 우즈베키스탄 인프라 개발사업 진출 추진 [부고] 지영흔(하나은행 홍보팀장)씨 부친상 "시중은행 잡아라"… 저축은행 예금금리, 10년 만에 4%대 핫이슈 나주시, 대한민국 평생학습대상 우수상 쾌거 광주시, 안전대전환 집중안전점검 최종보고회 개최 해남군‘어르신이 행복한 해남 만들기’맞춤형 노인복지 강화 무안군, 고품질 돌김 생산 위한 김 양식어장 예찰지도 실시 인기뉴스 1 임영웅, 6일만에 유튜브 1000만 조회수 달성… 17억뷰 고지 목전 2 [산업 이슈 픽] 국정감사 앞둔 한전, 여야 집중타깃 되나? 3 김주형 PGA 최연소 2승...레전드 타이거 우즈 기록 갈아치웠다 4 숨을 곳 없어진 루나 권도형 '불법 체류자' 되나… 19일 비자 만료 5 러, 우크라 주요도시 미사일 타격… 크림대교 폭파 보복 추정 6 풀소유 논란에 자취 감췄던 혜민스님… 무소유로 다시 등장? 7 서울 공원서 50대 권총에 맞아… 극단적 선택 추정 8 중국, 반도체 때리기에 희토류 수출 통제로 대응 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 서비스 전체보기 매체정보 서울특별시 마포구 만리재로 15 (제일빌딩) 10층 1011,1012호 대표전화 : 02-6952-0992 청소년보호책임자 : 김숙영 법인명 : 이슈앤비즈미디어(주) 제호 : 서울와이어 등록번호 : 서울 아 03747 등록일 : 2015-05-21 발행일 : 2015-04-01 발행인 : 편집인 : 김종현 서울와이어 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 서울와이어. All rights reserved. mail to sw@seoulwire.com 한국인터넷신문협회 회원사 위로 전체메뉴 전체기사 경제/산업 전체 생활경제 공유경제 브랜드경제 정치 정상회담 산업 IT 업사이클 금융/증권 전체 금융 증권 정치/사회 글로벌 전체 글로벌 부동산 전체 부동산 핫이슈 전체 정치 정상회담 사회 패션/뷰티 문화 오피니언 인사·동정 사회적기업 인터뷰 정책 방송/연예/스포츠/라이프 전체 방송/연예/스포츠 스타트업 생생! 톡 전체 생생! 주부톡 생생! 알람톡 생생! 푸드톡 생생! 아이톡 생생! 엔터톡 영상뉴스 증시 공시 기획특집 긴급진단 기자수첩 ESG 보도자료 인사·부고 CEO 투데이 메타센서 글렌다박의 블루오션 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제23회 제주도관광기념품 공모전 일반인 심사위원 모집 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 14:38 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제23회 제주도관광기념품 공모전 일반인 심사위원 모집 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제23회 제주도관광기념품 공모전 일반인 심사위원 모집 기자명 김봉철 기자 입력 2020.07.22 19:56 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도가 주최하고 제주특별자치도관광협회가 주관하는 '제23회 제주특별자치도 관광기념품 공모전'에서는 일반인 심사위원으로 활약할 50여명을 모집한다.이번 모집은 1·2차 모두 전문가가 심사했던 기존 방식에서 심사의 객관성과 공정성 확보를 위해 일반인 심사위원을 처음 도입한 것이다. 이에 따라 이번 심사는 1차 전문가 심사 → 2차 일반인 심사 → 3차 전문가 심사의 3단계로 진행되며 3차에서 최종 19점을 선정한다. 일반인 심사위원은 19세 이상 관심 있는 누구나 신청이 가능하며 20대, 30대, 40대, 50대 이상 등 연령별로 나눠 선발할 예정이다. 일반인 심사는 오는 31일 제주첨단과학기술단지내 제주종합비즈니스센터 1층에 위치한 제주관광기념품홍보관에서 열리며 심사에 참여한 일반인 심사위원에게는 심사 후 우수 관광기념품을 제공한다. 23일부터 29일까지 제주도관광협회 홈페이지(www.visitjeju.or.kr), 탐나오(www.tamnao.com), 제주관광기념품공모전 수상작 홈페이지(souvenir.visitjeju.or.kr)에서 참가 신청 가능하며, 선정된 일반인 심사위원 대상자에게는 30일 전화나 이메일, 문자메시지를 통해 개별 통보할 예정이다. 김봉철 기자 bckim@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 제주대병원 권역정신응급의료센터 개소 [본사내방] 2022년 10월 11일 한경농협, 취약계층 주택용 소방시설 기증 제주, 서울대 지역균형전형 비율 2.4%...전국 최하위 제주타요렌터카, 매월 국·내외 아동에 정기 후원 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [제민포럼] 테슬라와 한라산소주 5 일본시장 활짝 제주관광 기대감속 우려도 6 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 7 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 8 장 발장 이야기 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도의회, “관광산업 벼랑 끝” 산업위기 특별지역 지정 촉구 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도의회, “관광산업 벼랑 끝” 산업위기 특별지역 지정 촉구 파이낸셜뉴스입력 2020.07.22 00:03수정 2020.07.22 00:03 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 문화관광체육위, 21일 결의안 채택 지역경제 근간…코로나19로 직격탄 21일 열린 제주도의회 제385회 임시회 문화관광체육위원회 제2차 회의 [제주=좌승훈 기자] 제주도의회(의장 좌남수)가 정부와 국회에 코로나19 사태 장기화로 직격탄을 맞은 관광산업 회생을 위해 제주지역을 산업위기 대응 특별지역으로 지정해줄 것을 촉구하고 나섰다. 국가차원의 지원을 해달라는 의미다. 도의회 문화관광체육위원회(위원장 안창남)는 21일 제385회 임시회 제2차 회의를 갖고 '코로나19 극복을 위한 산업위기 대응 특별지역 지정 촉구 결의안'을 채택했다. 문광위는 “코로나19가 장기화되면서 관광객 수 급감은 물론이고, 소비·건설·고용 등 주요 실물지표의 부진이 지속되면서 제주경제의 하강속도가 더욱 빨라지고, 전국에서 제주지역 경제지표가 가장 악화되고 있는 것으로 나타나고 있다”면서 “특히 올해 1분기 서비스업생산지수·소매판매지수·고용율·소비자물가지수 등은 코로나19 집단감염이 확산된 대구지역보다 더욱 심각한 상황”이라고 지적했다. 또 “2002년부터 도입된 무사증 입국제도까지 18년 만에 중단된 가운데, 입도 관광객 수 감소가 언제 회복될지 알 수 없는 상황”이라며 “관광산업은 지역 내 총생산의 33%를 차지하는 기간사업으로서 제조업에 버금갈 만큼 지역경제 전반에 미치는 영향이 매우 커 국가 차원의 지원 없이는 회복이 불가능한 상태”이라고 설명했다. 문광위는 따라서 “제주를 조속히 산업위기대응 특별지역으로 지정해 국가 차원에서 지원이 가능하도록 특단의 대책을 마련해야 한다”고 촉구했다. 결의안이 오는 28일 제2차 본회의를 통과하면, 국회와 산업통상자원부·제주도에 전달될 예정이다. 한편 산업위기 대응 특별지역은 2017년 6월 국가균형발전 특별법 개정을 통해 도입된 제도다. 특별지역으로 지정되면, 해당 지역은 실직자 재취업·이직 알선을 포함한 창업·고용안정 지원을 받을 수 있으며, 소상공인은 자금 보조와 융자 등을 확대 지원받을 수 있게 된다. 해당 지역 기업들도 신용보증기금·기술보증기금 등을 통한 특별보증을 받을 수 있다. 산업위기 대응 특별지역은 2018년 4월 한국지엠이 공장 폐쇄를 결정한 전북 군산이 처음 지정됐다. 같은 해 5월에는 울산 동구, 거제, 통영·고성, 창원 진해구, 영암·목포·해남 등 5곳이 조선업 위기로 지역 경제가 큰 어려움에 빠지자 산업위기 대응 특별지역으로 지정됐다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>"해외여행 막히자 제주도에 몰린다"…'청정' 생태관광지 인기 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학모바일통신ㆍ뉴미디어인터넷ㆍ플랫폼IT일반보안ㆍ해킹컴퓨터게임ㆍ리뷰과학일반금융/증권산업지방국제생활/문화연예스포츠여행TVBBC 홈 &gt; IT/과학 &gt; 통신ㆍ뉴미디어 "해외여행 막히자 제주도에 몰린다"…'청정' 생태관광지 인기 제주공항·김포공항 이용객 2월 급감 후 3월부터 회복세 (서울=뉴스1) 이창규 기자					| 2020-07-12 09:20 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 KT가 올해 제주도 주요 관광지와 방문객을 빅데이터로 분석한 결과 제주도 내 생태 관광지의 관광객수가 큰 폭으로 증가했다고 12일 밝혔다. © 뉴스1 KT가 올해 제주도 주요 관광지와 방문객을 빅데이터로 분석한 결과 신종 코로나바이러스 감염증(코로나19)으로 급감했던 해외여행과 달리 제주 여행은 빠른 회복세를 보이고 있는 것으로 나타났다.12일 KT 빅데이터 분석 결과에 따르면, 오름과 휴양림 등 제주도 내 생태 관광지의 관광객 수가 큰 폭으로 증가했다. 지난 5월 수국으로 유명한 카멜리아힐과 롯데 스카이힐CC 일대를 찾은 방문객은 전월 대비 각각 202.98%, 168.11% 증가했다. 수백 개의 기암괴석으로 구성된 오백나한과 제주돌문화공원 및 에코랜드, 제주 항파두리 항몽 유적지를 찾은 방문객도 각각 157.8%, 155.33%, 154.21% 늘었다. 6월에는 제주도의 대표적인 연못인 △혼인지(368.18%) △화순곶자왈생태탐방숲길(204.01%) △한라생태숲 및 제주마방목지 일대(134.79%) △엉또폭포(130.26%) △비치미오름(121.36%) 순으로 관광객 수가 큰 폭으로 증가했다. KT가 올해 제주도 주요 관광지와 방문객을 빅데이터로 분석한 결과 제주도 내 생태 관광지의 관광객수가 큰 폭으로 증가했다고 12일 밝혔다. © 뉴스1 연령대별로는 인기 관광지가 차이를 보였다. 6월 기준으로 20대가 이중섭 문화거리를 가장 많이 찾았고, 30대는 쌍용굴 및 협재굴을 많이 찾았다. 40대와 50대는 서귀포매일올레시장, 60대는 우도 성산포 유람선, 70대는 중문관광단지를 가장 많이 방문했다.아울러 신종 코로나바이러스 감염증(코로나19) 확산 이후 제주도를 찾는 연령대에도 변화가 나타났다. 코로나19가 본격화된 2월 제주도를 찾는 방문객 중 20대가 전월 대비 42.52% 급감해 가장 큰 감소폭을 기록했다. 5월에는 제주도 방문객 중 30대가 전월 대비 44.99% 늘어 가장 많이 증가했다. 6월 제주를 찾은 30대 방문객은 전월 대비 5.77% 증가했다. 한편 국내선 탑승객들이 이용하는 김포공항과 제주공항을 찾는 방문객 수도 빠르게 회복 중인 것으로 나타났다. 김포공항은 코로나19가 본격화된 2월 이용자 수가 전월 대비 39.28% , 전년 동기 대비 25.35% 줄었으나 3월 이후 회복되기 시작해 5월에는 전월 대비 20% 정도 회복했다. KT가 올해 제주도 주요 관광지와 방문객을 빅데이터로 분석한 결과 제주도 내 생태 관광지의 관광객수가 큰 폭으로 증가했다고 12일 밝혔다. 코로나19 이후 김포공항과 제주공항을 찾는 방문객 수도 빠르게 회복 중인 것으로 나타났다. © 뉴스1 yellowapollo@news1.kr &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 김수미 "김용건 늦둥이 아들 지 아범 딱 닮아" 공효진♥케빈오, 뉴욕서 결혼식…정려원 참석 클럽 앞 멈춘 소방차 '비키니 여성' 하차…왜? 강민경, 65억 건물로 쇼핑몰 이사 "직원 눈물" 유명 래퍼, 객석 다이빙…땅바닥 '툭' 굴욕 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 대통령실까지 행진하는 배민 라이더 정진석 "이재명 '日軍 주둔설' 文 '김정은 비핵화 약속'…양대 망언 취업, 그 간절한 마음 'K패션의 미래가 한자리에' [국감]유병호 "문자 송구스러워…소통은 정상적" 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 탭메뉴 스포츠 연예 스타일 스포츠 9부 능선 넘었어도 긴장 풀지 않은 홍명보 감독 "아직 우승 아닌데…" 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도, 휴가철 관광지 등 환경정비 실시 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 제주도, 휴가철 관광지 등 환경정비 실시 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 휴가철 관광지 등 환경정비 실시 김지우 기자 승인 2020.07.27 13:55 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도는 여름 휴가철을 맞아 제주를 찾는 관광객들에게 쾌적하고 깨끗한 휴식공간을 제공하기 위해 관광지 등을 대상으로 대대적인 환경정비에 나선다고 27일 밝혔다. 제주도는 또 관광지 외에 하천·오름 등 쓰레기 불법투기 취약지역에 대해 수시 점검 활동과 함께 불법 행위에 대해서는 관련 법령에 따라 과태료를 부과하는 등 적극적으로 조치할 예정이다. 이와 함께 관광객을 대상으로 재활용품 요일별 배출제, 클린하우스 이용 방법 등 제주 폐기물 정책을 홍보해 쓰레기 처리에 따른 불편을 해소할 방침이다. 제주도 관계자는 “코로나19 장기화로 인한 몸과 마음을 치유하기 위해 제주를 찾는 관광객이 증가하고 있다”며 “제주의 청정·안전 이미지를 높이기 위해서도 쾌적한 환경 조성은 필수이다”고 말했다. 김지우 기자  jibregas@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김지우 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>[fn포토] 돌문화공원 찾은 제주도의회 문화관광체육위 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; [fn포토] 돌문화공원 찾은 제주도의회 문화관광체육위 파이낸셜뉴스입력 2020.07.17 17:56수정 2020.07.17 19:29 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 17일 설문대할망 전시관 건립사업 추진 현장 점검 [제주=좌승훈 기자] 제주도의회 문화관광체육위원회(위원장 안창남)는 제385회 임시회 회기 중인 17일 제주시 조천읍 교래리 제주돌문화공원 설문대할망 전시관 건립사업 추진 현장을 방문했다. 안창남 위원장은 “현재 제주의 로컬 색채를 잘 담아내고 있으며 하드웨어적인 면은 돌문화공원이 최고”라며 “이에 덧붙여 제주문화 관련 콘텐츠 개발 등 소프트웨어적인 영역에 대한 보완작업이 필요하다”고 지적했다. 이어 “이곳에 많은 예산이 투입 된 만큼 제주의 귀한 보물을 많은 사람이 같이 공유하며 느낄 수 있도록 홍보활동에 주력을 다해 달라"고 주문했다. 한편 설문대할망 전시관 건립사업은 2011년 9월 예비 타당성조사를 착수한 후 2016년 4월 공사에 들어가 현재 60%의 공정률을 보이고 있다. 총사업비는 908억원이다. 현재 건축공사와 부대시설은 완료돼 전시시설 제작·설치작업이 진행되고 있다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>관광 성수기 맞은 제주도 물가 잡기 총력전 최종편집 2022년 10월 11일 14시 52분 제보 문의 회원가입 로그인 홈 정치 경제 사회 세계 문화 Books 전국 스페셜 협동조합 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 홈 정치 경제 사회 세계 문화 Books 전국 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 스페셜 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 협동조합 관광 성수기 맞은 제주도 물가 잡기 총력전 정기후원 관광 성수기 맞은 제주도 물가 잡기 총력전 제주 관광 긍정이미지 확산 위해 협업 강화 구축 현창민 기자(=제주) | 기사입력 2020.07.13. 14:20:12 페이스북 트위터 카카오스토리 밴드 URL복사 제주도가 여름철 성수기를 맞아 물가 잡기 총력전에 나섰다. 제주도는 제주관광 이미지 개선을 위해 ‘청정제주, 공정가격, 착한여행’을 위한 휴가철 바가지요금 등 불공정 행위에 대한 관리 체계를 구축했다. ▲제주도가 여름철 성수기를 맞아 국내 관광객 수요가 증가함에 따라 도내 물가 잡기 총력전에 나섰다.&lt;제주국제공항&gt;ⓒ프레시안(현창민) 도는 지난 8일 제주도청 회의실에서▲관광숙박업, 관광지 ▲음식점 및 일반숙박업 ▲렌터카 ▲농어촌민박 ▲해수욕장 ▲생활물가 및 상거래질서 ▲관광부조리 지도․단속 분야 등 성수기 관련 부서별 추진 방향을 논의했다. 원희룡 지사는 지난 1일 열린 소통과 공감의 날 영상회의를 통해 “제주경제를 생각하면 밀려드는 여행객이 반갑지만 잘 지켜온 청정방역이 한 순간에 무너질 수 있는 위기이고 제주 관광의 가격과 품질 때문에 이미지가 흐려질 위기이기도 하다”며 “청정하고 안전한 제주의 지속과 포스트 코로나 대전환 시기의 능동적인 적응과 기회로 활용될 수 있도록 최선을 다해달라”고 당부한 바 있다. 이에 따라 민관협력을 통해 휴가철 제주도 여행비용에 대한 부정적인 이미지를 쇄신하고 각 부서 간 협력체계를 유지해 공동대응한다는 전략이다. 우선 관광협회를 중심으로 관광숙박업, 관광지 분야에 민간 중심의 가격정보 제공을 유도하고 공정가격을 받기 위한 자정운동을 전개한다. 건전관광질서 계도반을 활용해 불공정 영업행위에 대한 현장 계도와 불법영업 행위에 대한 모니터링도 추진한다. 주요 관광지 주변의 음식값, 숙박료 등에 대한 불공정 행위에 대해 계절음식점 이용객 편의를 위한 가격 게시 및 적정가격 받기를 유도하고 식중독 등 식품안전사고 예방을 위한 계절음식점, 생선회 취급업소 등을 집중 점검중이다. 위생단체별 자율지도원 및 소비자식품위생감시원, 공중위생감시원 활동도 강화하고 있다 렌터카 요금에 대한 안정 대책도 추진된다. 도는 지난 6월 29일 렌터카 조합과 간담회를 통해 차종별 신고요금 범위에서 요금 안정화에 대한 협조를 요청했다. 성수기 주말 신고요금 이상으로 대여행위를 하는 업체에 대해서는 60만원의 과징금을 부과하고 운행정지(차량대수 2배, 30일) 등의 조치를 취할 계획이다. 도는 이외에도 농어촌민박사업자에 대해 과도한 숙박요금을 요구하지 않도록 계도하고 여름철 해수욕장을 찾는 방문객 이용 요금에 대한 지도‧점검을 강화한다 또한 착한가격업소 이용 촉진을 위해 지금까지 선정된 도내 착한가격업소 157군데를 소개하는 책자를 제작해 공항과 항만 등에 비치했다. 한편 제주자치경찰단은 지난 6일 관광성수기를 맞아 관광부조리를 근절하고 공정관광질서 확립을 위해 자치경찰단 내 '공정제주관광 특별대책본부'를 설치해 관광불편 민원 발생 즉시 현장 대응체계를 구축했다. 이 기사의 구독료를 내고 싶습니다. 3,000 5,000 10,000 30,000 50,000 +1,000 원 추가 +10,000 원 추가 -1,000 원 추가 -10,000 원 추가 매번 결제가 번거롭다면 CMS 정기후원하기 10,000 원 결제하기 일부 인터넷 환경에서는 결제가 원활히 진행되지 않을 수 있습니다. 343601-04-082252 [예금주 프레시안협동조합(후원금)]으로 계좌이체도 가능합니다. 기사 후원에 참여해 주셔서 감사합니다. 후원기사 관광 성수기 맞은 제주도 물가 잡기 총력전 익명으로 후원하기 이름 핸드폰번호 이메일 @ 직접입력 naver.com hanmail.net nate.com korea.com gmail.com 금액 결제방법 휴대폰소액결제 신용카드 계좌이체 ※입력하신 개인정보는 후원 관련 문의시 식별정보 이외의 목적으로 활용되지 않습니다. ※익명으로 후원하시면 프레시안은 개인정보를 수집하지 않으나, 향후 결제를 취소할 때 처리가 지연될 수 있습니다. 계좌이체는 신청 할 수 없습니다. 취소 확인 현창민 기자 pressianjeju@gmail.com 제주취재본부 현창민 기자입니다. 최근글보기 NAVER 에서 현창민 기자 를 구독·응원해주세요 프레시안에 제보하기 프레시안에 CMS 정기후원하기 전체댓글 0 등록 최신순 조합소개 기사제보 저작권 정책 이메일 무단수집거부 개인정보취급방침 청소년보호방침 RSS 프레시안협동조합 | 사업자번호 101-81-69524 | 대표 박인규 제호: 프레시안 | 신문사업·인터넷신문사업 등록번호 서울아00083 | 창간 2001.9.24 | 등록 2005.10.12 | 발행인·편집인 박인규 | 청소년보호책임자 김우정 (04043) 서울시 마포구 서교동 395-73 BK빌딩 101호(양화로 10길 49 BK빌딩 101호) | 02-722-8494 | FAX 02-6008-8400 Copyrightⓒ Pressian Coop. All rights reserved.</t>
+  </si>
+  <si>
+    <t>관광객 접촉자 잇단 확진...비상 걸린 제주도 : 서울경제 주 메뉴 바로가기 본문내용 바로가기 시그널 디센터 라이프점프 서울경제TV 미주한국일보 서울경제골프 전종목시세 e-Paper 구독안내 마이페이지 로그인 이전 다음 전체메뉴 검색 전체메뉴 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 사회 사회일반 전국 사회이슈 피플 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 오피니언 사설 사내칼럼 사외칼럼 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 영상 · 포토 영상 포토 서경 TV·방송 영화 가요 포토 검색 닫기 검색 #송현동 부지, 시민 품으로 #취득세 쇼크 #가장 쎈 독감 온다 #여가부 폐지 #벼랑 끝 이준석 #눈 먼 돈 된 태양광 대출 #실외 마스크 전면 해제 #노벨상 #김정은 딸 김주애 #어썸머니 닫기 전체서비스 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 사회 사회일반 전국 사회이슈 피플 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 오피니언 사설 사내칼럼 사외칼럼 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 영상 · 포토 영상 포토 카드뉴스 서경스타 TV·방송 영화 가요 포토 회사소개 회사소개 CEO 인사말 서울경제가 걸어온 길 행사 및 시상 약도 및 연락처 업무문의 구독안내 광고안내 이용안내 개인정보취급방침 이용약관 청소년 보호정책 고충처리인 제보 이메일 뉴스레터 텔레그램 뉴스채널 소식 공지사항 이벤트 알립니다 스페셜 컨텐츠 All Headline Awesome Money 기자채널 이슈 연재 e-Paper 뉴스아카이브 전체기사 스타즈 클럽 백상경제연구원 아웃링크 서경골프 이달의과학기술인상 서울포럼 존경받는 기업·기업인 대상 구독 l Subscription 구독신청 이용약관과 개인정보취급방침을 읽었으며, 이에 동의합니다. (필수) 이메일을 통한 서울경제의 서비스 및 이벤트 정보 수신에 동의합니다. (선택) 팝업창 닫기 공유하기 facebook twitter kakao email 복사 이메일보내기 사회일반 urlhttps://www.sedaily.com/NewsView/1Z5C7GZ6XY 보내는 사람 받는 사람 ※ 여러명에게 보낼 경우 콤마(,)로 구분하세요. 확인 취소 홈 사회 사회일반 관광객 접촉자 잇단 확진...비상 걸린 제주도 입력2020-07-17 17:30:57 수정 2020.07.17 17:30:57 한동훈 기자 facebook 공유 twitter kakao email 복사 뉴스듣기 가 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 기사저장 저장된기사목록 기사프린트 viewer 제주시 한림읍 주민들이 17일 한림체육관 운동장에 마련된 임시 진료소에서 코로나19 검사를 위해 대기하고 있다. 최근 코로나19 확진자로 판명된 서울 광진구 70대 여성과 접촉한 한림읍 지역주민 4명도 잇따라 확진 판정을 받아 제주도민들이 바짝 긴장하고 있다./제주=연합뉴스 &lt; 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지 &gt; ※ 본 사이트에 게재되는 정보는 오류 및 지연이 있을 수 있으며, 그 이용에 따르는 책임은 이용자 본인에게 있습니다. 구독 한동훈 기자 사회부 hooni@sedaily.com 킹달러 폭주 속 'K담배' 웃는다 고추장 11.7%·콜라 9.6% ↑…가공식품 인상 지속 기자채널로 이동 오늘의 핫토픽 # 송현동 부지, 시민 품으로 # 취득세 쇼크 # 가장 쎈 독감 온다 # 여가부 폐지 # 벼랑 끝 이준석 오늘의 이슈 #이준석 추가 징계 유승민 "정진석, 이재명 덫에 놀아나…비대위원장 사퇴해야" #국감 초점 "민간인 사찰"…국토위 국감장에서도 '감사원' 도마 위에 #감사원 '文 서면조사' 논란 박홍근 “감사원, 前정부인사 민간인 시절기록 사찰…공수처 고발할 것” #마약민국 묻지마 폭행하고 "마약 했다"는 남성…경찰이 돌려보냈다 #尹, 비속어 논란 "키스 5단계는" "치마 짧으면 좋다"…중학교 선생님이 건넨 농담 이시간 주요 뉴스 영상 뉴스 생방송 중 러 미사일 '쾅'…BBC 특파원 긴급 대피 '아찔' '컴백홈' 지금의 날 만들어 준 고향, 구수하고 정겹다 도로 위 '모세의 기적'…경찰·택시기사, 환자 생명 구했다 한미, 北 대응 사격중 미사일 오발…강릉서 '폭발 화재' 넷상 초밀착 웹드라마 '밈의 생활화', 손우민♥김도림 커플 싸움 직관…결말은? 인기 포토 뉴진스 목격! 든든하軍 심장에 한 발! 양조위의 화양연화 샤넬♥제니 저항하라 부산 찾은 스타들 프로스트! 오늘의 연재 SE★시리즈 드림캐쳐 다미, 그룹의 중심이 바로 나야 [SE★포토] 한입뉴스 CU×미래에셋페이 ‘편털’ 이벤트 진짜 ‘편털’에 조기종료[한입뉴스] 주식 초고수는 지금 "지금 사면 손해 안 본다?"…삼성전자·NAVER 줍줍[주식 초고수는 지금] 뒷북비즈 4C 덫에 걸린 K반도체…“국가대항전서 낙오될 수도” [뒷북비즈] 서경 디지털 38개의 포토 든든하軍 23개의 포토 양조위의 화양연화 18개의 포토 저항하라 76개의 포토 샤넬♥제니 EBITDA 마진율 회계기준에 따른 차이를 제거한 현금기준 실질 수익성 판단 지표로, 매출을 통해 어느정도의 현금이익을 창출 했는가를 의미한다. 즉, EBITDA마진율은 매출액 대비 현금창출능력으로 볼 수 있으며, 일반적으로 마진율이 높을수록 기업의 수익성이 좋다고 판단할 수 있다. EBITDA마진율 = (EBITDA ÷ 매출액)*100% 1. 코주부 코인, 주식, 부동산 투자 정보만 쏙쏙! 코주부와 성투해요. 2. 지구 나랑 상관 있는 친환경 뉴스. 매주 화·목요일에 만나요. 3. Daily Brief 매일 아침, 데일리브리프가 핵심 경제 뉴스를 전해드립니다. 4. 연재기사 서울경제의 모든 연재기사를 메일함에서 받아보실 수 있습니다. 5. 스타기자 서울경제의 스타기자를 구독하세요. 기사가 출고되면 이메일로 알려드려요. 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 오피니언 사설 사내칼럼 사외칼럼 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 사회 사회일반 전국 사회이슈 피플 영상 · 포토 영상 포토 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 서경스타 TV·방송 영화 가요 포토 공지 [알립니다] 서울경제 개인정보취급방침 변경 공지 회사소개 광고안내 개인정보취급방침 이용약관 청소년보호정책 제보 고충처리인 초판보기 전체기사 뉴스아카이브 관련사이트 미주한국일보 서울경제TV 시그널 레이디스클래식 디센터 라이프점프 더폴리틱스 서울경제골프 백상경제연구원 이달의 과학기술인상 서울포럼 주소 : 서울특별시 종로구 율곡로 6 트윈트리타워 B동 14~16층 대표전화 : 02) 724-8600 상호 : 서울경제신문사업자번호 : 208-81-10310대표자 : 이종환등록번호 : 서울 가 00224등록일자 : 1988.05.13발행 ·편집인 : 이종환 인터넷신문 등록번호 : 서울 아04065 등록일자 : 2016.04.26발행일자 : 2016.04.01 서울경제의 모든 콘텐트는 저작권법의 보호를 받는 바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다. Copyright ⓒ Sedaily, All right reserved 서울경제를 팔로우하세요! 서울경제신문 텔레그램 뉴스채널 서울경제 어썸머니 모바일 버전 보기</t>
+  </si>
+  <si>
+    <t>제주도서 확진자 통한 n차 감염… 여름휴가철 관광지 비상 | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 제주도서 확진자 통한 n차 감염… 여름휴가철 관광지 비상 관련이슈 디지털기획 입력 : 2020-07-17 12:00:00 수정 : 2020-07-17 10:56:59 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 제주국제공항 도착하는 곳에서 공항 관계자들이 열화상 카메라를 이용해 승객 발열 검사를 하고 있는 모습. 연합뉴스 제주도 여행을 다녀온 70대 여성이 신종 코로나바이러스 감염증(코로나19) 확진을 받은 뒤 접촉자 4명이 추가로 확진됐다. 가족 외 현지 접촉자들로 N차 감염이 나타난 것이다. 여름휴가철 휴가지에서 비슷한 일이 발생할 수 있어 비상이다. 17일 제주시 등에 따르면 지난 9∼14일 제주에 사는 가족을 방문한 서울 광진구 70대 A씨가 코로나19 환자로 확인됐다. A씨는 제주도에 머문 동안 증상이 이미 나타난 상태였던 것으로 알려졌다. 이후 A씨의 가족 2명이 추가 확진판정을 받았다. 또 A씨 가족이 근무하는 해빈사우나(목욕관리사) 1명, 일반음식점(정다운사랑방) 손님 1명도 검사 결과 양성으로 나왔다. 도 역학조사 결과 A씨의 제주지역 접촉자는 현재까지 20명으로 파악됐으며 검사가 진행 중이다. 대표적 관광지 제주도에서처럼 다른 주요 관광지에서도 코로나19 전파가 발생할 가능성이 작지 않다. 여행의 즐거움에 방역수칙 준수가 느슨해질 우려가 크기 때문이다. 여행에서 많이 이용하는 식당이나 사우나는 마스크를 쓰고 있기 힘들어 감염 위험이 큰 곳이다. 휴게소 등은 사람이 붐비게 마련이다. 방역 당국은 안전한 여름휴가를 위해 여행지에서도 반드시 마스크 착용, 사회적 거리두기, 손 씻기 등 방역수칙을 철저히 지켜야 한다고 강조한다. 또 단체여행보다는 가족 단위로 소규모로 여행하는 것을 권한다. 이진경 기자 ljin@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20200717507651 0101080100000 0 2020-07-17 12:0:0 2020-07-17 10:56:59 0 제주도서 확진자 통한 n차 감염… 여름휴가철 관광지 비상 세계일보 이진경 4e479407-7252-47ca-95f1-c09f004adce4 ljin@segye.com 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 "바위야 호박이야?" 1.1t 넘는 초대형 호박 수확 2 23층 지붕 위 기인…양복 입고 활보, 왜? 3 머스크, 440억달러에 트위터 인수…계약파기 철회 4 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 5 에펠탑 아래 숲, 하마터면 사라질뻔∼ 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>사우나·해열제·노마스크…제주도 민폐 관광객에 보건당국 '비상' - 머니투데이 본문영역 바로가기 로그인 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 포토 더차트 더그래픽 영상 MT 영상 더영상 전체기사 증권 뉴스 시세/공시 코스피 코스닥 코넥스 상승/하락 상하한가 시가총액 거래량상위 신규상장 주요공시 포인트&amp;전략 펀드 펀드IR 국내펀드 해외펀드 유형종합 종목대해부 베스트리포트 MY스톡 정치 법률 유니콘팩토리 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 전체핫이슈 이슈키워드 연중기획 실시간급상승 베스트클릭 사람&amp; 피플 MT초대석 인터뷰 대표선배 인사 부고 MT리포트 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 속보 나희승 코레일 사장 "KTX 이용 유출 대상 민간인에 사과" "왜 신고했어" 앙심에 지인 때린 60대 구속…피해자는 시력잃어 포스코홀딩스, 아르헨티나 염수 리튬 2단계 투자 결정 롯데제과 '빵빠레 샌드 카스타드' 회수, 세균수 기준 초과 "'연준 피벗' 없이는 증시 상황 안 바뀔 것…현금 비중 높여라" "용돈 줄게"…여고생 2명 집으로 유인해 추행한 40대 수세 몰리자 '무차별 미사일'…푸틴의 선택이 키운 우려, 다음은? 웰바이오텍, 매니 파퀴아오 vs D.K. YOO 매치 후원 "우크라이나 지원 나선다" 北 저수지 아래 잠수함 없었다…'전대미문 SLBM', 왜 '러브 액추얼리'처럼 메모 써서 보이스피싱 구출…은행원 감사패 나희승 코레일 사장 "KTX 이용 유출 대상 민간인에 사과" "왜 신고했어" 앙심에 지인 때린 60대 구속…피해자는 시력잃어 포스코홀딩스, 아르헨티나 염수 리튬 2단계 투자 결정 롯데제과 '빵빠레 샌드 카스타드' 회수, 세균수 기준 초과 "'연준 피벗' 없이는 증시 상황 안 바뀔 것…현금 비중 높여라" "용돈 줄게"…여고생 2명 집으로 유인해 추행한 40대 수세 몰리자 '무차별 미사일'…푸틴의 선택이 키운 우려, 다음은? 웰바이오텍, 매니 파퀴아오 vs D.K. YOO 매치 후원 "우크라이나 지원 나선다" 北 저수지 아래 잠수함 없었다…'전대미문 SLBM', 왜 '러브 액추얼리'처럼 메모 써서 보이스피싱 구출…은행원 감사패 검색창 열기 통합검색 검색 닫기 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 사우나·해열제·노마스크…제주도 민폐 관광객에 보건당국 '비상' sns공유 더보기 사우나·해열제·노마스크…제주도 민폐 관광객에 보건당국 '비상' 머니투데이 이미호 기자 기자 더보기 sns공유 더보기 2020.07.17 10:09 글자크기 글자크기조절 가나다라마 가나다라마 가나다라마 가나다라마 가나다라마 의견 남기기 제주도내 11개 해수욕장이 일제 개장한 지난 1일의 모습 열이 나 해열제를 먹으면서도 제주여행을 한 뒤 코로나 확진 판정을 받는 사례가 끊이질 않고 있다. 누리꾼들 사이에선 "굳이 해열제까지 먹어가며 제주도에 가야 하냐"는 원성이 커지고 있다. 특히 여름 휴가철을 앞두고 제주도 여행객들이 증가할 것으로 보여 보건당국에 '비상'이 걸렸다. 17일 제주도에 따르면 전날 오후 7시쯤 서울 광진구 20번 환자 A씨(70대)의 제주시 한림읍 거주 가족 2명과 A씨를 응대했던 제주시 한림읍 해빈사우나 직원 1명이 코로나19 확진판정을 받았다. 도에 따르면 A씨는 지난 9일 오후 2시40분쯤 김포국제공항에서 제주항공 7C121편을 타고 같은 날 오후 3시30분쯤 제주국제공항에 도착했다. 이후 제주시 한림읍 해빈사우나와 정다운사랑방 등을 들렸다. 증상은 11일부터 나타났다. 오한과 기침증상이 이어졌다. 그럼에도 A씨는 13일에도 해빈사우나와 정다운사랑방을 또 다시 들렸고, 오후 6시30분부터는 인근 흑돈본가에서 식사를 했다. 특히 이날 A씨는 가족이 사다준 해열제를 복용했다. 또 가족 차량을 타고 다녔지만 마스크는 착용하지 않았던 것으로 나타났다. 이에 누리꾼들은 "상식 이하" "민폐" 라며 비판했다. 열이 생기면 곧장 자가격리하고 보건당국에 연락하는게 상식인데, 해열제를 먹으면서까지 여행하는 것은 이해할 수 없다는 반응이다. 한 누리꾼은 "구상권을 청구하고 사법처리 해야 한다"고 요구했다. 다른 누리꾼은 "열나는 걸 숨기고 해열제까지 먹어가면서 여행을 하고 싶은지 이해가 되질 않는다"면서 "이런 사람은 강력 처벌해야 하는 것 아니냐"고 했다. 무엇보다 여름휴가철을 앞두고 제주도편 항공권을 끊어놓은 누리꾼 사이에서도 불만이 자자하다. 서울 금천구에 거주하는 직장인 이모씨(40·여)는 "17일 오후에 제주도로 출발하는 비행기 티켓을 끊어놨다"면서 "남편과 아이와 함께 여름휴가를 가는데 너무 심난하다"고 토로했다. 이에 제주도와 방역당국 등은 본격적인 휴가철이 시작됨에 따라 코로나19 확산 방지를 위해 여름휴가를 분산해 사용해달라고 당부했다. 휴가 인파가 몰리는 7월말~8월초에 전국적으로 집단감염이 확산될 수 있어 바짝 긴장하고 있다. &lt;저작권자 © ‘돈이 보이는 리얼타임 뉴스’ 머니투데이, 무단전재 및 재배포 금지&gt; 공감 0% 비공감 0% 이미호 best@mt.co.kr 정치부(the300)와 사회부 법조팀을 거쳐 2020년 7월부터 디지털뉴스부 스토리팀에서 사회분야 기사를 맡고 있습니다. 기자의 다른기사 "매일 밤 아내가 보챕니다" 결혼 10년차 남편의 비결은? 머니투데이 댓글 작성을 위해 JavaScript를 활성화해주세요 머니투데이 주요뉴스 "코스피 바닥 근접, 팔지 마라…반등은 내년 2분기 이후" 연준 "4.5% 위에서 금리 인상 중단"…급격한 경기 둔화 위험 언급 미국 연준(연방준비제도)의 주요 인사 2명이 지난달 예고한 대로 금리를 올릴 계획이라고 밝히면서 향후 금리 인상에 주의할 필요가 있다는 점을 인정했다.10일(현지시간) 월스트리트 저널(WSJ)에 따르면 라엘 브레이너드 연준 부의장과 찰스 에반스 시카고 연방준비은행 총재는 이날 시카고에서 열린 전미 실물경제협회(NABE) 연레회의에 참석해 이같이 밝혔다.이들은 인플레이션을 연준의 목표치인 2%로 끌어내리는 데는 시간이 걸리고 지난달 공개된 연준의 금리 전망치에 따라 내년 초까지 금리를 4.5% 위로 올릴 것이라는 입장에는 변함이 없었... 52주 신저가만 470개…코스피 2%대·코스닥 4%대 급락 한은, 내일 빅스텝 유력…기준금리 3% 시대 온다 中 '반도체 굴기' 때린 미국…삼성·SK하이닉스 '호재' 단독 세계 최대 '교육계 다보스포럼', 처음으로 한국서 열린다 "주식 팔고 OO 샀다"…개미도 외국인도 몰려간 곳 단독 맞춤 패키지로 K원전 수출한다 '의문의 죽음' 英 신생아 7명의 공통점은… '아이폰14 프로' 들고 놀이기구 탔더니 911 출동 "삽시간에 쓸어" 베네수엘라 대규모 산사태 실시간 급상승 9.9 베스트클릭 종합 사회 "걸리면 절반 사망, 백신도 없다"…코로나 잠잠해지자 '에볼라 주의보' "횡령 내가 했다" 큰아들 감싼 박수홍 父, 계좌 비밀번호도 몰라 '풀소유 논란'에 사라진 혜민스님, 2년 만에 포착된 근황 "9억 아파트·11억 주택 있다" 대리기사 말에 격분해 폭행한 60대 "돈 많으면 때려" 말에 35차례 종업원 폭행 사망…업주 '징역 7년' '만취' 신혜성 왜 도난車 운전?…"발레파킹 직원이 열쇠 줘서 착각" "클럽서 따라 놓은 술 마셨다가…" 마약의 늪에 빠진 사람들 "이번주 금리 0.5%p 더 올린다"...전문가 10명 만장일치 [속보]사실상 일제고사 부활, 尹 "줄 세우기 비판에 아이들 방치, 미래 어두워" "日지배로 韓 발전했다"던 美하버드대…항의하자 돌아온 답변 이전 다음 박수홍 인터넷뱅킹 ID '조카 이름+생일'…"父 횡령 말도 안된다" "흉기가 없어 아쉽다" 박수홍 父가 오후 조사에서 한 말 '116억 횡령혐의' 박수홍 친형, 구속기한 D-1…석방 가능성은 박수홍 가장 원하는 것은 "어머니와 관계 회복"…父, 추가 폭행 우려 "박수홍, 母와 관계회복 원한다" 발언 사실 아니었나 박수홍, 父폭행 충격에 실신→다음날 녹화…뜻밖의 현장 분위기 '유퀴즈' 출연 전 그알PD, 주가조작 혐의 구속영장 청구 "박수홍, 응급실 실려 갈때…폭행한 父·형수는 식사하러 갔다" 박수홍, 폭행 당한 후 '4자통화'로 7시간 조사…"내가 돈 관리" 父 고성 "횡령 내가 했다" 큰아들 감싼 박수홍 父, 계좌 비밀번호도 몰라 이전 다음 MT리포트 '여가부 폐지' 약속 지킨 尹정부…"오히려 기능 강화" 기대와 우려 이슈패키지 2022 국정감사 "농진청 쌀 생산량 예측 능력 정확도 높여야" 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" 그린비즈니스위크 2022 K-탄소중립 현재·미래 한 눈에, GBW 2022 D-5.."등록하세요" 탄소중립 미래도 보고 일자리도 잡을 기회…그린 전환 잡콘서트 D-7 기후협상 산증인부터 벽안 석학, 글로벌기업까지..GBW 개막총회 총출동 2023년 예산안 "허리띠 졸라매고"...尹정부 첫 예산안, '역대 최대' 24조 칼질 尹대통령은 반도체 초강대국 주문했는데…'기재부' 벽 못넘은 지원 예산 장관 없어도 '100조 부처' 등극한 복지부·교육부 이전 다음 최신뉴스 사회 마켓 "왜 신고했어" 앙심에 지인 때린 60대 구속…피해자는 시력잃어 "용돈 줄게"…여고생 2명 집으로 유인해 추행한 40대 '러브 액추얼리'처럼 메모 써서 보이스피싱 구출…은행원 감사패 동서대 '대전 비주얼아트테크 어워즈' 대상 수상 "키스 5단계는"…성희롱 발언 중학교 교사 해임 처분 정당 "주식 팔고 OO 샀다"…개미도 외국인도 몰려간 곳 노장 성장호르몬의 '회춘'…동아에스티 바이오 성장 이끈다 일시적 2주택 미처분 가산세 없애고 하이브리드車 취득세 면제 연장 한올바이오파마 HL161 중국사업권, 하버바이오에서 CSPC로 이전 주가 70% 빠진 카카오…"4만원대로 추락" 장초반 신저가도 오늘의 꿀팁 많이 본 뉴스 일주일 1개월 6개월 1년 유혜영, '옥중 이혼' 나한일과 재결합했지만…"따로 산다" 왜? 츄, 오은영 충격 진단→단톡방 왕따 논란…"콘서트 공지 못받아" 역술가도 한숨 쉰 박수홍 사주 "아들 죽고 母 일어선다" 공감 "김신영 첫 녹화인데 서럽다"…'전국노래자랑' 대구서 불만 터진 이유 비공감 '방송 퇴출' 조형기, 한국 떠났나…美 한인타운서 찍힌 사진 보니 '방송 퇴출' 조형기, 한국 떠났나…美 한인타운서 찍힌 사진 보니 "곽도원, 술상 엎고 후배 배우 비하·폭언…가족까지 괴롭혀" 주장 나와 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" 공감 '사별' 엄앵란, 5살 연하 의사와 '썸' 타나…"10년간 매주 만나" 비공감 [기자수첩] 판교에 나타난 '피해 호소인' 이승윤, '자연인' 거액 출연료 왜주나 했더니 "썩은 생선도 먹어" 고명환, 교통사고로 시한부 판정→"연매출 13억원" 사업가 변신 정선희 "장례 치르는데 김건모 오빠가 김영철 쫓아냈다"… 왜? 공감 '16살' 정동원, 벌써 한강뷰 집서 자취…"부동산에 직접 전화" 비공감 조형기는 어디에…방송 퇴출→유튜브마저 중단 후 소식 끊겨 이휘재, 데뷔 30년만에 활동 중단→가족과 캐나다행…무슨 일? '쇼미' 출신 래퍼, 다이빙 사고로 전신마비…"대소변도 혼자 못봐" 고명환, 교통사고로 시한부 판정→"연매출 13억원" 사업가 변신 공감 김연아, 예비 시아버지 '정치성향'도 시끌…무슨 활동했길래 비공감 '故안재환과 사별' 정선희 "나 정도면 미혼…문란하게 살고파" 오피니언 '복합경제위기' 해법은 없어도 돌파구는 있다 광화문 원희룡, '집값 너무 높다'고 말했을 뿐인데 우리가 보는 세상 포켓몬, 열풍이 역풍 된다? 기자수첩 더리더 '여야 동수' 경기도의회 … 염종현 의장이 그리는 '협치' 스타일M 선미 vs 모델, 어깨 드러낸 오프숄더 룩…같은 옷 다른 느낌 스타뉴스 음주 재범+상습도박 재조명..신혜성, 하루아침에 날벼락[★NEWSing] MoneyS [르포] 제약바이오 채용박람회… 인사담당자가 강조한 '이것'은? IZE “내 맘이다!” 시원하게 외치는 개성만점 여성버디... the300 나희승 코레일 사장 "KTX 이용 유출 대상 민간인에 사과" theL 故 이예람 특검, 수사 결과 13일 오후 발표…전익수 기소 여부 주목 티타임즈 [30년 개발자의 애플 주식강의] 누가 차를 장악할까? 테슬라의 자율주행 vs 애플의 자동차 OS? 포토 / 영상 7 올가을 최저 기온에 목도리 패딩 등장 6 오늘부터 무비자 일본 관광 재개 9 전여빈 '4차원 미모' 15 '주먹 쥔 파퀴아오' 킹받게 매운 고추, 맵찔이도 외국인도 맛있게 먹을 수 있는 요리법 1020 울리는 댈입 댈구, 연 이자가 무려... '이 번호'로 로또 1등 433명 나온 필리핀 4K 시대에 게임 방송은 720p로 봐야 한다고?! 16 '아이폰14' 국내 출시 6 코스닥 700선 회복, 환율 1402.4원 마감 9 레드벨벳 예리 '패딩+미니스커트 귀여운 공항패션' 45 화려한 'TMA 레드카펫' 커피 없는 일상, 현실이 될 수 있다고? 할머니도 놀란다는 요즘 애들 입맛 요즘 명품 로고들이 다 똑같아 보이는 이유 Q. 어제는 900원 오늘은 1000원인 것은? 7 '여가부 폐지·보훈부 격상·재외동포청 신설' 6 北, 이틀만에 또 탄도미사일 발사 20 부산국제영화제 찾은 이지은 9 김유정 'BIFF 반가워요' '아이폰14' 공개 동시에 조롱거리 된 이유 포토카드 하나가 20만원? 팬덤이 키운 포카 시장 '진짜 한국 같아!' 도한놀이에 빠진 일본 MZ들 찍었다하면 인생샷! 핫플레이스의 정체는? 이전 다음 머니투데이 SERVICE 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; MT리포트 시세판 속보창 전문지·서비스 VIP 머니투데이 스타뉴스 스타일M 스포탈코리아 OSEN 키플랫폼 티타임즈 MnB창업 MT해양 자전거 the300 thebell theL 유니콘팩토리 MTN 노트펫 앱어워드 이로운넷 PIXTA 매거진 머니S 더리더 대학경제 로피시엘 레옹 IZE 캠페인 U클린 쿨머니 머니투데이 공식 SNS 채널 SNS MT 페이스북 MT 인스타그램 MT 트위터 MT 틱톡 MT 네이버포스트 MT 유튜브 싱글파이어 유튜브 부릿지 유튜브 부꾸미 유튜브 MT 비즈센터 머니투데이 회사소개 구독신청 개인정보처리방침 청소년보호정책 이용약관 광고안내 제휴안내 저작권규약 기사제보 고충처리 주소 서울특별시 종로구 청계천로 11 청계한국빌딩 (서린동)   제호 머니투데이   등록번호 서울 아 01084   등록일 2009.12.24사업자등록번호 101-81-50419   발행일 2020.01.01   ISSN 2636-0055대표이사/발행인/편집인 박종면   대표번호 02-724-7700   청소년 보호책임자 신택균 머니투데이의 모든 기사(콘텐츠)는 저작권법의 보호를 받으며, 무단 전재 복사 배포 등을 금지합니다.COPYRIGHT © MONEYTODAY ALL RIGHTS RESERVED. [인증범위]온라인 뉴스 서비스 운영(머니투데이)[유효기간]2020.11.04~2023.11.03</t>
+  </si>
+  <si>
+    <t>제주도-도의회 문화관광 추경 예산안 신경전 촉각 &lt; 제주도의회 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 14:38 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도-도의회 문화관광 추경 예산안 신경전 촉각 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 제주도의회 제주도-도의회 문화관광 추경 예산안 신경전 촉각 기자명 김용현 기자 입력 2020.07.19 17:48 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 문광위 20일 2차 심사예정 삭감된 문화행사 등 예산 쟁점될 듯감액예산 부활 촉각 도의회 증액권한 없고, 도 동의 여부 미지수2020년도 제2회 추가경정예산안 심사를 놓고 제주도와 도의회가 신경전이 예상된다. 특히 제주도가 코로나19 대응을 명분으로 문화예술 및 관광 관련 예산을 삭감한 것을 두고 도의회가 반발한 상황에서 예산안 조정을 놓고 갈등도 우려되는 상황이다.제주도의회는 제385회 임시회가 16일부터 28일까지 진행중인 가운데 20일 문화관광체육위원회와 농수축위원회가 '2020년도 제2회 추가경정예산안'을 심의한다.제주도는 1회 추경예산보다 975억원이 증가한 6조1513억원 규모의 2회 추경예산안을 제출했다.도는 이번 추경예산안에 문화예술분야의 경우 286억원을 감액 편성했다. 문화예술 행사나 축제 개최를 취소하고, 관련 보조금이나 예산을 삭감하는 과정에서 제주도와 도의회가 마찰을 빚었다.20일 열리는 문관위 추경예산안 심사에서도 문화예술 분야 예산삭감이 도마에 오를 것으로 보인다.도의원들은 문화예술·관광 분야가 코로나19로 큰 피해를 입고 있지만 도는 관련 예산을 삭감했고, 정작 코로나19 대응예산 비중은 크기 않다고 지적하고 있다.문관위를 포함한 예산결산위원회가 2020년도 예산안에서 삭감된 문화·관광예산을 회생시킬지도 관심사다. 도의회는 예산 증액권한이 없는 등 한계가 있고, 감액예산을 복원시킨다는 명복으로 조정한다고 해도 제주도가 동의하지 않을 가능성도 있다.더구나 도의회 2회 추경안 예산안 심사가 마무리되지 않은 상황에서 도가 4·3관련 행사 예산 반납고지서를 발송해 도의회를 무사한 처사라는 지적도 받고 있다.농수축경제위원회도 20일 추경예산안을 심의하면서 포스트코로나에 따른 경제부양 관련 예산이 제대로 편성됐는지 등에 대해 면밀히 심사할 것으로 전망된다. 특히 제주형 뉴딜 계획과 관련한 예산편성을 주문할 것으로 보인다. 김용현 기자 김용현 기자 noltang@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 제주대병원 권역정신응급의료센터 개소 [본사내방] 2022년 10월 11일 한경농협, 취약계층 주택용 소방시설 기증 제주, 서울대 지역균형전형 비율 2.4%...전국 최하위 제주타요렌터카, 매월 국·내외 아동에 정기 후원 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [제민포럼] 테슬라와 한라산소주 5 일본시장 활짝 제주관광 기대감속 우려도 6 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 7 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 8 장 발장 이야기 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>"‘관광객 붐비는’ 제주도, 코로나19 전파 우려 현실화"- 헤럴드경제 기후위기시계 × News 정치 경제 사회 국제 IT/과학 생활/문화 연예/스포츠 오피니언 지역뉴스 호남취재본부 대구&amp;경북 PR Newswire Special Section D;Con HeMil(밀리터리) Global Insight ●실시간 뉴스 기획기사 포토 신문구독 뉴스레터 사회일반 ‘관광객 붐비는’ 제주도, 코로나19 전파 우려 현실화 2020.07.17 10:59 [헤럴드경제DB][헤럴드경제=뉴스24팀] 여름 관광 성수기를 맞은 제주에서 방문객에 의한 신종 코로나바이러스 감염증(코로나19) 전파 우려가 현실이 됐다.제주도는 여름철 관광 성수기 하루 3만명 안팎의 관광객이 제주를 찾고 있는 가운데 관광객이 즐겨 찾는 유명 관광지인 한림읍에서 새로운 코로나19 감염자들이 속속 나타나면서 긴장의 끈을 바짝 죄고 있다.초기에는 확진자 수가 소규모지만 이른바 'n차 감염'의 고리를 타고 관광지 등으로 전파되면 순식간에 확진자가 불어날 수 있어서다.17일 방역 당국에 따르면 n차 감염은 확진자가 다른 접촉자에게 바이러스를 전파해 2차 감염이 발생하고, 또 2차 감염자가 다른 접촉자를 3차 감염시키는 연쇄적인 감염을 말한다.다만 n차 감염은 방역 당국이 감염원을 파악하고 관리하는 사례로, 방역 당국의 통제를 벗어나 지역에서 감염자가 속출하는 지역감염 사례와는 다르다.증상 발현 상태서 지난 9∼14일 제주에 사는 가족을 방문한 뒤 서울시 광진구에서 코로나19에 확진된 70대 A씨로 인해 이날 현재까지 제주에서 4명의 추가 확진자가 발생했다.이들 추가 확진자 4명 중 2명은 A씨 가족이며, 다른 2명은 A씨 가족이 근무하는 해빈사우나 직원(목욕관리사) 1명, 일반음식점(정다운사랑방) 손님 1명이다.도는 특히 사우나 목욕관리사가 확진되자 사우나 손님을 중심으로 n차 감염이 발생하지 않도록 조기 방역을 하고 접촉자 및 이동 동선 파악에 애를 쓰고 있다.2차 감염자 중 1명의 가족이 수산업에 종사하고 있어 한림수협을 중심으로 수산업계도 방역을 강화하고 있다.도는 한림지역 주민들이 코로나19 검사를 이른 시일 내 받을 수 있도록 기존 1곳의 진료소 외에 한림종합경기장에 별도로 선별진료소를 마련했다.도는 또 한림지역 관광지인 재래시장과 협재해수욕장 등에서 마스크 착용 등 방역 수칙을 준수하도록 관리를 강화했다.협재해수욕장에 대해서는 야간에 음주 및 취식을 금지하는 집합제한 명령도 발동했다.도교육청은 한림음 관내 모든 학교에서 원격수업을 하고 돌봄 및 방과후 학교도 중단키로 했다.제주에서는 남미를 다녀온 20대에 의해 가족 1명(도내 11번)이 지난 4월 코로나19에 감염돼 2차 감염 첫 사례가 나왔다.당시 도 방역 당국은 2차 감염된 11번째 확진자를 곧바로 격리 조치하고 접촉자들을 자가 격리하도록 해 또 다른 감염인 3차 감염을 막았다.도는 여름 관광 성수기를 앞둔 지난달부터 관광지에 대한 방역과 관광객에 대한 방역 수칙 준수 등을 강조해 왔다.해열제를 먹으면서까지 제주 관광을 한 강남구 모녀와 안산 시민 등을 대상으로 1억원대의 손해배상 소송도 제기했다.원희룡 도지사는 지난 1일 여름철 관광 성수기를 맞아 담화문을 통해 "제주는 70만 도민들의 생활 터전이자 국민들의 힐링을 위한 곳이지, 코로나19 도피처가 아니다"며 제주 관광객들에게 방역 수칙 준수를 당부했다.원 지사는 "제주를 찾는 모든 분은 환영하지만, 개념도 가지고 오셔야 한다"며 "도는 지역감염이 현재까지 전혀 없는 곳이지만 이것이 감염 우려로부터 완전히 안전하다는 뜻은 아니라"라고 말했다.또 "증상이 있음에도 마스크를 쓰지 않는 등 방역수칙을 제대로 지키지 않고 제주 여행을 강행하다 확진된 경우 그에 상응하는 책임을 반드시 묻겠다"고 말했다.onlinenews@heraldcorp.com 맞춤 정보 당신을 위한 추천 정보 많이 본 정보 오늘의 인기정보 이슈 &amp; 토픽 비즈 링크 회사소개 광고 및 제휴 안내 구독신청 인재채용 개인정보취급방침 이용약관 저작권규약 고충처리인제도 이메일수집거부 FAMILY SITE FAMILY SITE 코리아헤럴드 헤럴드POP K-POP헤럴드 리얼푸드 헤럴드에코 헤럴드디자인 더인베스터 (주)헤럴드 주소:서울시 용산구 후암로4길 10 헤럴드스퀘어 제호:헤럴드경제 인터넷신문등록번호:서울 아03710 발행인ㆍ편집인:전창협 청소년보호책임자:홍승완 대표전화:02-727-0114 | 독자문의 : 1588-0533 Copyright Herald Corporation. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 코로나19 발생 후 대대적 관광객 유치 돌입 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 코로나19 발생 후 대대적 관광객 유치 돌입 등록 2020.07.02 10:38:32 작게 크게 [제주=뉴시스] 양영전 기자 = 제주도 내 11곳 해수욕장이 정식 개장한 1일 제주시 곽지해수욕장을 찾은 피서객들이 해수욕을 즐기고 있다. 이날 주로 가족 단위 관광객과 젊은 연인 관광객이 해수욕장을 찾아 더위를 식혔다. 2020.07.01 0jeoni@newsis.com [제주=뉴시스] 강정만 기자 = 제주도가 신종 코로나 바이러스 감염증(코로나19)으로 직격탄을 맞은 관광산업을 되살리기 위해 내국인 관광객 유치를 재개한다. 제주특별자치도는 관광업계와 함께 코로나19에 의해 침체된 관광을 살리기 위해 관광지 방역 및 관광객 예방수칙 이행 등 안전관광을 전제로 한 자율적인 내국인 관광객 유치 활동에 돌입한다고 2일 밝혔다. 특히 해외로 가지 못한 여행객들이 제주를 찾음에 따라 성수기를 맞으면서 제주관광공사·제주관광협회 공식 SNS 채널을 통해 '제값하는 착한가게'공정 관광 캠페인을 대대적으로 전개한다. 도는 2020년 특별 여행주간에 대비한 관광 핫라인을 구축하고 제주관광공사·관광협회와 함께 ‘코로나19 극복‘제주형 방역-관광 윈윈’프로젝트‘를 추진할 계획이다. 여행 소비의 주력세대인 20대와 30대를 대상으로 제주여행 체험 온라인 포스팅 공모전, 유튜버 활용 제주체류 영상제작 지원사업, 온라인 페스티벌 등도 계획 중이다. 유튜버, SNS, 여행커뮤니티, 포털배너광고 등과 연계해 집중적 마케팅도 펼친다. [제주=뉴시스]지난 5월 초 황금연휴 기간 제주국제공항 3층 국내선 출발장이 귀경길에 나선 관광객들로 붐비로 있다.도는 이 캠페인을 진행하면서도 코로나19의 철저한 방역을 위해 공항·항만·렌트카·전세버스업체를 통한 ‘여행자 방역 5대 핵심수칙’홍보에 나섰다. 여행자방역 5대 핵심수칙은 ▲아프면 여행 일정 미루기 ▲여행 내내 마스크 착용하기  ▲타인 접촉 최소한으로 줄이기  ▲ 방역수칙을 꼭 지키며 여행하기 ▲증상이 나타나면 즉시 신고하기(1339)다. 강영돈 도 관광국장은 “ 안전관광, 청정제주를 위해 관광업체 등 민관 협력으로 더욱 철저하게 방역하고, 여행객 예방수칙 이행 캠페인을 펼치며 관광객을 맞을 준비를 하고 있다"며  “제주를 찾는 모든 분들이 코로나19 방역 수칙 준수에 동참해 달라”고 당부했다. ◎공감언론 뉴시스 kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 33분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 4국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 [부고]박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 의정부 행복로서 14일 뷰티 페스티벌 열린다 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 브이원텍, LG전자와 33억 규모 공급계약 체결 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 광주 물 관리-지하시설물 중복 관리 "대책 시급"(종합) 정무위 국감… 野, 김건희 도이치 의혹에 "이복현 입장 내놔야" 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 브이원텍, LG전자와 33억 규모 공급계약 체결 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 이복현 금감원장, 우리은행 횡령에 "있을 수 없는 일" 씨아이에스, 195억 규모 2차전지 전극공정 장비 공급계약 체결 국내외 식품안전정보, 조건 제약 없이 검색한다 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, 빵빠레 샌드 카스타드 아이스크림 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 울산 청년 여성 10명 중 2.4명 매년 떠나…학업·취업 기회 부족 '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 의정부 행복로서 14일 뷰티 페스티벌 열린다 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 대구폴리텍대, 대구옥외광고·울산옥외광고 대상전 잇따라 수상 청도군 "가을밤 코미디와 함께 반시 맛 즐겨보세요" "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>가성비·가심비 ‘끝판왕’ 제주도 관광지·숙소·맛집은? - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 가성비·가심비 ‘끝판왕’ 제주도 관광지·숙소·맛집은? 파이낸셜뉴스입력 2020.07.06 16:25수정 2020.07.06 16:26 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 제주관광공사, 관광객 대상 ‘제값 하는 착한가게 추천 캠페인’ 나서 [제주=좌승훈 기자] 제주관광공사는 비짓제주 플랫폼과 SNS채널을 통해 6일부터 8월31일까지 ‘제값 하는 착한가게 추천 캠페인’에 나섰다. 관광객들은 실제 방문했던 제주도내 음식점과 카페·관광지·숙박업소 가운데 가성비·가심비를 충족하는 곳을 비짓제주 또는 SNS 채널에 추천해 공유하면 된다. 가성비는 가격 대비 성능(맛·품질·서비스)을, 가심비는 가격 대비 심리적 만족도를 말한다. 본인 SNS 채널에는 '#제값 하는 착한가게' 해시태그와 함께 올려야 한다. 응모자에게는 추첨을 통해 소정의 다양한 모바일 기프티콘을 증정하게 되며, 당첨 결과는 8월과 9월 2차례에 걸쳐 제주관광공사 비짓제주와 페이스북·인스타그램을 통해 발표된다. 캠페인을 통해 참여자들로부터 추천 받은 관광업체는 제주관광공사가 직접 현장을 방문해 우수성을 확인하고 비짓제주 테마 콘텐츠로 제작해 온라인 채널로 적극 홍보할 예정이다. 문성환 공사 관광산업처장은 “공정하고 청정한 제주관광 이미지 구축을 위해 지속적으로 우수 관광업체를 발굴하고, 비짓제주 플랫폼과 SNS 채널을 통한 온라인 홍보를 확대해 나가겠다"고 말했다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>[fn+레저] '코로나 블루' 날려버릴 제주도 웰니스관광 15선 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; [fn+레저] '코로나 블루' 날려버릴 제주도 웰니스관광 15선 파이낸셜뉴스입력 2020.07.02 12:12수정 2020.07.02 12:17 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 제주관광공사, 포스트 코로나 시대 국내 웰니스관광 선도 자연·숲, 힐링·명상, 뷰티·스파, 만남·즐김 명소 15곳 발표 [자연/숲 치유] 한남 머체왓 숲길 [사진=제주관광공사 제공] [제주=좌승훈 기자] 청정 제주는 섬 전역 자체가 웰니스 관광 클러스터다. 제주도와 제주관광공사(사장 박홍배)는 2일 제주 웰니스관광 15선을 발표하고, 포스트 코로나 시대 관광산업을 선도해 나가기로 했다. 웰니스는 참살이(웰빙, wellbeing)와 행복(해피니스, happiness)을 더한 개념이다. 관광·여행을 통해 심신 회복과 삶의 질 향상을 추구한다. 특히 최근 코로나19로 지친 몸과 마음을 치유하고 휴식할 수 있는 삶의 질 증진이 각광 받는다는 점에서 웰니스관광의 성장세는 더욱 가파를 것으로 전망된다. [자연/숲 치유] 비체올린 [사진=제주관광공사 제공] 이번에 공모를 통해 선정된 제주 웰니스 관광지는 ▷자연·숲 치유 ▷힐링·명상 ▷뷰티·스파 ▷만남·즐김 치유 4개 주제로 구성됐다. 웰니스 관련 학계와 유관기관, 관광업계, 여행전문가의 의견과 심사를 거쳐 최종 15곳을 선정했다. [만남/즐김 치유] 수목원테마파크(야시장길 &amp; LED공원) [사진=제주관광공사 제공] 제주 웰니스관광 15선은 먼저 자연·숲 치유 분야로 ▷한남 머체왓 숲길 ▷비체올린 ▷파파빌레 ▷붉은 오름자연휴양림 ▷관음사 야영장이 선정됐다. 힐링·명상 분야에는 ▷제주힐링명상센터 ▷물뫼 힐링팜 ▷취다선리조트 ▷제주통나무휴양펜션이, 뷰티·스파 분야에는 ▷WE호텔 웰니스센터 ▷환상숲곶자왈 담앙 족욕 ▷씨에스호텔 프라이빗 스파가 포함됐다. 만남·즐김 치유 분야로는 ▷가뫼물 ▷수목원테마파크(수목원 야시장길 &amp; LED 공원) ▷옷귀 편백숲 승마가 포함됐다. 제주 웰니스관광 15선은 제주도 공식 관광정보포털 ‘비짓제주’에서 보다 자세한 내용을 확인할 수 있다. [만남/즐김 치유] 옷귀 편백숲 승마 [사진=제주관광공사 제공] 문성환 공사 관광산업처장은 “제주 웰니스관광 15선은 코로나19로 지친 국민들에게 제주의 힐링· 치유 여행지를 새롭게 선보이고 이를 통해 제주 관광시장에 활력을 불어 넣기 위해 기획됐다” "코로나19를 계기로 치유와 건강에 대한 국내외 관심이 높아지는 만큼, 관광 인프라가 가장 잘 갖춰진 제주도를 웰니스 관광 명소로 본격 육성해 나갈 계획“이라고 밝혔다. [힐링/명상] 제주힐링명상센터 [사진=제주관광공사 제공] jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>해외여행 부럽지 않은 제주도여행지추천 ‘제주이야기’ 천연 꽃 향수 만드는 실내체험관광지 - CCTV뉴스 - 김범규 기자 × 전체기사 특집 모아보기 News Focus On People Inside Product Zoom In D-Trend 스토리지 안전산업특집 OT보안특집 UPDATE : 2022-10-11 13:20 (화) 로그인 전체기사 정기구독신청 고객센터 광고문의 스토리지 OT보안 안전산업 News Focus On People Inside Product Zoom In D-Trend 검색 기사검색 검색 회원 로그인 회원가입 이전 다음 해외여행 부럽지 않은 제주도여행지추천 ‘제주이야기’ 천연 꽃 향수 만드는 실내체험관광지 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 조이뉴스 해외여행 부럽지 않은 제주도여행지추천 ‘제주이야기’ 천연 꽃 향수 만드는 실내체험관광지 김범규 기자 승인 2020.07.18 10:00 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 코로나19가 해외관광에서 국내관광으로, 단체여행에서 가족·개별여행으로, 즐기는 관광에서 힐링·치유 관광으로 뉴노멀 여행 트렌드를 만들어내고 있다. 이러한 가운데 과거 신혼여행의 메카였던 제주도가 다시 인기 신혼여행지로 부상하고 있다. 매년 1500만 명이 넘는 관광객이 찾는 우리나라 대표 관광지 제주도는 우도, 한라산 백록담, 쇠소깍, 비자림, 천지연 폭포 등 천혜의 자연환경과 함덕해수욕장, 협재해수욕장, 이호테우해수욕장, 곽지해수욕장, 김녕해수욕장, 중문색달해수욕장 등 해외 부럽지 않은 아름다운 해변이 밀집돼 있다. 이처럼 유명 관광지가 곳곳에 위치한 제주도에서 날씨에 구애 받지 않고 쾌적한 실내 체험을 즐길 수 있는 ‘제주이야기’ 행원본점에서 신혼부부를 위한 무료 체험 이벤트를 마련해 눈길을 모으고 있다. ‘제주이야기’의 무료이벤트는 7월부터 8월 31일까지 제주도로 신혼여행을 온 신혼부부에 한해 체험비 전액 무료로 제공하며 방문 전 제주이야기 행원본점으로 전화 상담을 하면 된다. ‘제주이야기’는 제주도 체험 실내관광지로, 동백, 수국, 수선화, 장미 등 제주자생 꽃으로 천연향수와 천연 화장품을 만들어 볼 수 있으며 구좌읍 월정리 해변 인근 행원본점과 비자림 근처 풍림다방 바로 앞 송담점 두 군데를 운영하고 있다. 금번 신혼부부 체험비 무료이벤트를 마련한 ‘제주이야기’ 행원 본점은 시설이 커서 회사 워크숍 등 단체 체험이 이어지고 있으며, 여기저기 예쁘게 꾸민 포토존이 많아 월정리가볼만한곳으로  추천되고 있다. 체험상품으로는 △천연오일 베이스와 천연왁스를 첨가한 ‘천연꽃 립글로즈’ △자신이 좋아하는 향의 냉동 건조된 천연꽃을 골라 나만의 스타일대로 넣어 데코 할 수 있는 ‘천연꽃 롤향수’가 있다. 제주도의 자연을 담은 천연향수는 보존제가 전혀 들어가지 않고 천연꽃과 천연오일 등 천연원료로 만들어 어린이도 부담 없이 만들어보고 사용도 가능하다. 특히 제주도에서 나고 자란 천연꽃과 원료로 내 손으로 직접 만들어 세상에 단 하나뿐인 화장품과 향수는 특별한 기념품이 되고 의미가 더해져 선물용으로도 만족도가 높은 편이다. 또한 제주도의 청정지역에서 직접 재배한 꽃과 한라봉 등 천연 재료를 가공한 액상차, 립오일 등 기능성 화장품과 예쁜 젤 캔들 등 다양한 제주도 기념품까지 구매할 수 있다. 뿐만 아니라 대부분의 실내체험이 연령대 제한이 있지만 5세 이상부터 체험이 가능하다는 것이 장점으로, 어린 자녀를 동반한 가족여행지로 선호도가 높다.. 업체 측은 “제주도에 오신  신혼부부들에게 호텔 패키지나 알려진 명소 뿐만 아니라 제주도의 아름다움을 더욱 다양하게 느끼고 가시길 바라며 무료 체험 이벤트를 준비했다”고 말했다. 이어 “제주이야기 송당점에서도 체험비 할인 및 화산송이 볼방향제 만들기 체험(1만원 상당)을 무료로 제공하고 있다.”고 전했다. 한편, ‘제주이야기’브랜드를 만든 (주)제주사랑농수산(대표 양경월)은 제주 최초로 화산석 화장품을 개발해 국내 굴지의 화장품회사에 납품하고 한라봉을 원료로 하는 액상 차 및 꽃을 이용한 티백 및 향료개발 등 지역 고유의 자연 환경과 문화적인 특성을 활용한 제품을 개발하고 있다. 저작권자 © CCTV뉴스 무단전재 및 재배포 금지 김범규 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 가장 많이 본 뉴스 1[IT트렌드] 출입부터 결제까지, 무인 매장 지키는 보안 기술 각광 2[IT트렌드] 교통사고, 이제 AI·빅데이터로 막는다 3[기고] 빠르게 진화하는 사이버 보안 위협 요인의 진단 및 정보 보안 핫 이슈 4윈도우-리눅스 노리는 멀웨어 ‘카오스’ 주의 5안랩, 컴퓨터 드라이버 취약점 이용한 사이버 공격 사례 발표 6LGU+ 등 개인정보 보호법 어긴 8개 사업자에 3120만 원 벌금 부과 7인섹시큐리티, 디지털포렌식 ‘랜섬웨어-가상자산 분석 추적 세미나’ 연다 8스패로우, 연례 고객 초청 행사 ‘PUC 2022’ 성공적 개최 9비자, 코로나19 이후 온라인 금융 사기 양상 보고서 공개 10개인정보 보호법 어긴 바로고-누리집에 약 8600만 원 벌금 부과 이 시각 주요뉴스 세종시, ‘시민 참여로 지속 가능한 국제 안전 도시 만들기 대회’ 개최 세종시, ‘시민 참여로 지속 가능한 국제 안전 도시 만들기 대회’ 개최 독일 IT 보안청장, 러 정보 기관 접촉 혐의로 해임 수순 독일 IT 보안청장, 러 정보 기관 접촉 혐의로 해임 수순 러 해커 킬넷, 美 주요 공항에 디도스 공격 러 해커 킬넷, 美 주요 공항에 디도스 공격 매체소개 광고문의 기사제보 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 법인명 : (주) 테크월드 제호 : CCTV뉴스 08507 서울특별시 금천구 가산디지털1로 168, 1012-1호 (가산동, 우림라이온스밸리 C동) 대표전화 : 02)2026-5700 팩스 : 02)2026-5701 이메일 : webmaster@techworld.co.kr 등록번호 : 서울, 아 03078 등록일 : 2008-06-27 발행일 : 2009-02-19 발행·편집인 : 박한식 청소년보호책임자 : 박지성 Copyright © CCTV뉴스 All rights reserved. 위로</t>
+  </si>
+  <si>
+    <t>제주도, 여름철 관광객 급증에 코로나19 방역 총력 Internet Explorer 지원 종료 안내 사용 중이신 인터넷 익스플로러(Internet Explorer)에서는 일부 기능 사용에 제한이 발생할 수 있습니다.크롬(Google Chrome), 엣지(Microsoft Edge) 등 최신 브라우저에 최적화되어 있습니다. 오늘 하루 열지 않기 메뉴 바로가기 본문 바로가기 푸터 바로가기 KBS NEWS 제보 ON AIR 재난포털 로그인 마이페이지 유튜브 페이스북 인스타그램 kbs 찾기 전체메뉴 분야별 뉴스9 TV뉴스 디지털K 스포츠 시사다큐 지역뉴스 어떤 기사를 찾으시나요? 뉴스 검색 검색어 입력 검색 버튼 많이 본 뉴스 동영상 - 검색창 숨기기 분야별 분야별- 대분류타이틀 전체 정치 경제 사회 문화 IT·과학 국제 생활·건강 스포츠 연예 날씨 특보 이슈 TV뉴스 1TV 뉴스 06:00 뉴스광장 1부 07:00 뉴스광장 2부 09:30 930뉴스 12:00 뉴스 12 14:00 뉴스 2 16:00 사사건건 17:00 뉴스 5 19:00 뉴스 7 21:00 뉴스 9 23:30 뉴스라인 2TV 뉴스 09:00 아침뉴스타임 10:40 지구촌뉴스 15:00 뉴스타임 17:50 통합뉴스룸ET 1TV 경인 뉴스광장(경인) 930 뉴스(경인) 뉴스7(경인) 뉴스9(경인) 디지털K 취재K 취재후·사건후 여심야심 데이터룸 팩트체크K 탐사K 스포츠K 글로벌K 특파원 리포트 세계는 지금 영상K 현장영상 속보영상 친절한뉴스K 기타 제대로 보겠습니다 크랩 용감한라이브 속고살지마 News Today(영어뉴스) 시사·다큐 시사 시사기획 창 일요진단 라이브 남북의 창 시사멘터리 추적 특파원 보고 세계는 지금 재난방송센터 인사이드 경인 라디오 최경영의 최강시사 주진우 라이브 최영일의 시사본부 성공예감 김방희입니다 지역뉴스 지역별- 대분류 부산 울산 창원 진주 대구 안동 포항 광주 목포 지역별- 대분류 순천 전주 대전 청주 충주 춘천 강릉 원주 제주 바로가기 바로가기 메뉴 좋아요 클립 제보 재난포털 ON AIR 뉴스 아카이브 정치합시다 글로벌 돋보기 경제한방 2022 지방선거 질문하는 기자들Q 2022 대통령선거 2022 베이징올림픽 2022 베이징패럴림픽 2020 도쿄올림픽 2020 도쿄패럴림픽 4·7 재보궐선거 저널리즘 토크쇼 J 박광식의 건강 365 한국언론 오도독 GO현장 고봉순 여의도 책방 2020 총선 2019 북미정상회담 3.1운동 100년 2018 남북정상회담 2018 북미정상회담 6.13 지방선거 러시아 월드컵 [특집] 평창동계올림픽 [특집] 평창동계패럴림픽 지진대피요령 뉴스 검색 검색어 입력 검색 버튼 기사 본문 영역 상세페이지 제주도, 여름철 관광객 급증에 코로나19 방역 총력 입력 2020.07.06 (22:10) 수정 2020.07.06 (22:10) 뉴스9(제주) 댓글 좋아요 공유하기 인쇄하기 글씨 크게보기 가 글씨 작게보기 고화질 표준화질 자동재생 키보드 컨트롤 안내 동영상영역 시작 동영상 시작 동영상영역 끝 동영상 고정 취소 이전기사 다음기사 고화질 표준화질 자동재생 키보드 컨트롤 안내 동영상영역 시작 동영상 시작 동영상영역 끝 동영상설명 동영상 고정 취소 제주도는 여름철 관광객 급증에 대비해 고위험 시설에 대한 코로나19 방역 실태를 불시에 점검한다고 밝혔습니다.제주도는 다음 달 31일까지 숙박업소와 관광식당 등 840여 곳의 종사자 위생 관리 등을 점검하고, 11개 지정 해수욕장에는 공무원과 민간안전요원 등 270여 명을 배치해 합동 지도에 나섭니다.또, 여름 성수기가 시작되는 17일까지 수영장을 갖춘 숙박시설도 점검할 계획입니다.오늘 있었던 이중환 제주도 도민안전실장의 브리핑, 직접 들어보시겠습니다. 제주도, 여름철 관광객 급증에 코로나19 방역 총력 입력 2020-07-06 22:10:19 수정2020-07-06 22:10:20 뉴스9(제주) 제주도는 여름철 관광객 급증에 대비해 고위험 시설에 대한 코로나19 방역 실태를 불시에 점검한다고 밝혔습니다.제주도는 다음 달 31일까지 숙박업소와 관광식당 등 840여 곳의 종사자 위생 관리 등을 점검하고, 11개 지정 해수욕장에는 공무원과 민간안전요원 등 270여 명을 배치해 합동 지도에 나섭니다.또, 여름 성수기가 시작되는 17일까지 수영장을 갖춘 숙박시설도 점검할 계획입니다.오늘 있었던 이중환 제주도 도민안전실장의 브리핑, 직접 들어보시겠습니다. 기자 정보 문준영 기자 문준영 기자의 기사 모음 댓글 좋아요 공유하기 제주-주요뉴스 오늘의 HOT클릭! 동영상 Ai pick 맞춤 뉴스 8개 더보기 이 시각 헤드라인 배너 많이 본 뉴스 푸터영역 KBS소개 주소/연락처 수신료 채용 About KBS KBS소개 시청자권익센터 사이버 감사실 광고 이용약관 법적고지 개인정보처리방침 KBS N 채널 KBS Drama KBS W KBS Kids KBS N Sports KBS Joy KBS N 채널 KBS WORLD Global KBS WORLD KBS WORLD KBS / 07235 서울특별시 영등포구 여의공원로 13(여의도동) / 대표전화 02-781-1000 / 기사배열 책임자, 청소년보호책임자 : 윤상 KBS뉴스 인터넷 서비스 / 서울특별시 마포구 매봉산로 45 KBS미디어센터 / 시청자상담실 02-781-1000 / 등록번호 서울 자00297 (2010년 6월 23일) Copyright © KBS All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>코로나19로 닫힌 하늘길 열려 이달 제주도에 ‘중국인 관광객’ 쏟아진다 - 인사이트 Insight 정치 경제 핫이슈 엔터 라이프 문화·스포츠 사람들 산업 헬스 증권·금융 16℃ 서울 13℃ 인천 15℃ 춘천 16℃ 강릉 15℃ 수원 15℃ 청주 16℃ 대전 16℃ 전주 17℃ 광주 17℃ 대구 17℃ 부산 16℃ 제주 코로나19로 닫힌 하늘길 열려 이달 제주도에 '중국인 관광객' 쏟아진다 코로나19로 막혔던 제주-중국 하늘길이 일부 재개됨에 따라 카지노 등 관광 업계를 찾는 중국인 관광객이 대폭 늘어날 것으로 예측된다. 김동현 기자 입력 2020.07.13 11:15 글자크기 설정 가 가 가 가 가 공유 카카오톡 페이스북 트위터 카카오스토리 밴드 핀터레스트 URL 복사 메일 기사와 관련 없는 자료 사진 / 사진 = 인사이트[인사이트] 김동현 기자 = 코로나19 확산 예방을 위해 닫혀 있던 제주지역 국제선 운항이 조만간 재개될 것으로 보인다.지난 12일 국토교통부는 지난달 4일 중국의 운항 제한 완화조치 발표 후 양국 항공 당국 간 협의를 거쳐 항공노선을 최대 20회까지 확대하기로 합의했다고 밝혔다.이날부터 인천-난징(아시아나) 노선 운항을 시작으로 인천-광저우(대한항공), 인천-선전(에어부산), 제주-시안(진에어) 노선 또한 이달 중 양국 항공 당국에 운항 허가를 거쳐 운항을 재개할 예정이다.중국은 지난 3월 말부터 중국행 국제 항공편을 항공사 1곳당 1개 도시·주 1회로 제한하는 '1사 1노선' 정책을 시행해왔다.기사와 관련 없는 자료 사진 / gettyimagesBank이에 한·중 항공편은 인천-선양(대한항공), 인천-창춘(아시아나), 인천-웨이하이(제주항공) 3개 노선에 각 주당 1회씩 운항해 왔다.제주지역은 지난 4월 6일부터 제주와 해외를 잇는 직항 항공노선이 끊긴 상태다. 국토교통부가 국제선 항공기 도착지를 인천국제공항으로 일원화하면서, 제주국제공항의 국제선 운항이 중단됐다.중국인 관광객의 수도 급감했다. 올해 들어 지난 10일까지 제주를 찾은 중국인은 3,258명으로, 지난해 같은 기간의 38만3431명보다 99.7%나 감소한 수치다.제주도에 중국인 관광객이 끊기면서 이들이 주 고객이었던 카지노 업계는 직격탄을 맞았다. 도내 8개 카지노 가운데 4개 업체가 아예 휴업에 들어갔다.기사와 관련 없는 자료 사진 / 뉴스1코로나19로 막혔던 제주-중국 하늘길이 재개됨에 따라 카지노 등을 찾는 중국인 관광객이 대폭 늘어나 관광 업계의 불황이 일부 해결될 것으로 예측된다.이와 관련해 제주도 방역 당국은 국경 수준의 검역체계를 시행하고 있다. 현재 제주국제공항에는 첫 항공편이 도착하는 오전 7시부터 마지막 항공편이 도착하는 오후 11시까지 워크스루 선별진료소와 함께 다목적 음압·양압 검체 채취 부스를 설치 운영하고 있다.해외 직항편이 없는 기간에 인천국제공항을 통해 들어오는 해외 방문 이력자가 제주지역을 찾을 땐, 37.5°C 이상 발열 증상자는 공항 워크스루 선별진료소를 거치도록 했다.제주지역에선 그동안 20명의 코로나19 환자가 발생한 가운데 7명의 확진자 모두 해외 방문 이력을 지닌 이들이다. 이들은 방역 당국이 자체적으로 추진하고 있는 특별 입도 절차에 따라 공항 워크스루 선별진료소를 통해 검체 채취 후 격리 중 확진 판정을 받았다.특히 무증상 감염자 5명에 대해 입도 직후 곧바로 코로나19 진단검사와 격리·병원 이송조치가 이뤄지면서 지역 내 2차 감염 확산을 차단하는 성과를 낸 바 있다. 김동현 기자 · webmaster@insight.co.kr 베스트클릭 국제 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 자동차 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 스타 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 스포츠 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 국제 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 연예 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 스타 이게 현실에서 가능한 여자 몸매?...반응 터진 몸짱 인플루언서 실제사진 사회 BTS 병역특례 두고 공방...더민주 “국가적 손실” vs 국힘당 “나훈아도 갔다왔다” 국제 “앗 뜨거!” 손목에 차고 있던 애플워치 ‘펑’ 폭발...애플, 누설 말라 강요 스포츠 ‘피겨 프린스’ 차준환, 드디어 세계 정상 우뚝 섰다...“20점차 이상 압도적 스코어” 국제 노출의상 입은 댄서들 공연 후 요양원서 벌어진 충격 상황...“할머니 한 명은 심장마비로 쓰러져” 방송·드라마 엄지원에 살해당했던 추자현, 살아있었다...‘작은 아씨들’ 충격 엔딩 사회 확 달라진 군 교육자료...文 정부가 삭제한 ‘문구’, 다시 추가됐습니다 문화·예술 22년 동안 ‘평일’이었던 한글날, 역시 ‘이 대통령’ 때 빨간날 됐다 사회 2500만원이면 가는 인도 출장, 김정숙 여사 때문에 국민혈세 ‘3억’ 더 썼다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 서울특별시 강남구 논현로99길 23, 인사이트빌딩 (주)인사이트컴퍼니 | 사업자번호: 119-86-62226 | 02-6734-2207 | 등록번호: 서울 아 02953 | 등록일자: 2014.01.02 | 발행・편집인: 안길수 | 편집국장: 이유리 인사이트의 모든 콘텐츠(기사·사진)는 저작권법의 보호를 받은 바, 무단 전재, 복사, 배포 등을 금합니다. 이를 어길 시 법적 제재를 받을 수 있습니다. Copyright ⓒ 인사이트, Ltd. All Rights Reserved. Insight 정치 정치일반 사회 청와대 국회·정당 전국 경제 생활경제 소비자 정책 외환 부동산 핫이슈 이슈 과학 국제 환경 사건사고 스토리 동물 엔터 연예 방송·드라마 영화 비디오 스타 라이프 라이프 패션 여행 음식·맛집 쇼핑 연애 건강 문화·스포츠 문화·예술 코믹 책·서평 스포츠 공연·전시 게임 사람들 사람들 인사 동정 부음 산업 기업 CEO IT·전자 자동차 모바일·통신 항공·물류 중기·벤처 헬스 제약 의료 뷰티 증권·금융 증시 금융 보험·카드 베스트클릭 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 Copyright ⓒ 인사이트, Ltd. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 해열제 먹고 여행한 경기도 관광객에 손해배상 제기 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 해열제 먹고 여행한 경기도 관광객에 손해배상 제기 등록 2020.07.09 14:53:53 작게 크게 [제주=뉴시스]우장호 기자 = 제주도가 해열제를 복용하며 관광을 하고 돌아간 경기 안산시 거주자 A씨를 상대로 손해배상 소송을 제기하기로 한 가운데 변덕승(오른쪽) 제주도 법무담당관이 9일 오후 소장을 제출하기 위해 제주지방법원 민원실에 들어서고 있다. A씨는 제주 여행 이틀째인 지난달 16일 코로나19 증상 발현이 있었지만 이틀 동안 해열제 10알을 복용하며 유명 관광지와 맛집 등을 방문해 총 56명이 격리되기도 했다. 2020.07.09. woo1223@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 33분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 4국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 [부고]박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 의정부 행복로서 14일 뷰티 페스티벌 열린다 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 브이원텍, LG전자와 33억 규모 공급계약 체결 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 광주 물 관리-지하시설물 중복 관리 "대책 시급"(종합) 정무위 국감… 野, 김건희 도이치 의혹에 "이복현 입장 내놔야" 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 브이원텍, LG전자와 33억 규모 공급계약 체결 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 이복현 금감원장, 우리은행 횡령에 "있을 수 없는 일" 씨아이에스, 195억 규모 2차전지 전극공정 장비 공급계약 체결 국내외 식품안전정보, 조건 제약 없이 검색한다 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, 빵빠레 샌드 카스타드 아이스크림 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 울산 청년 여성 10명 중 2.4명 매년 떠나…학업·취업 기회 부족 '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 의정부 행복로서 14일 뷰티 페스티벌 열린다 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 대구폴리텍대, 대구옥외광고·울산옥외광고 대상전 잇따라 수상 청도군 "가을밤 코미디와 함께 반시 맛 즐겨보세요" "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도 관광객 1일 3만명↑ '출렁'...코로나 방역대응 '비상' - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 관광객 1일 3만명↑ '출렁'...코로나 방역대응 '비상' 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도 관광객 1일 3만명↑ '출렁'...코로나 방역대응 '비상' 홍창빈.윤철수 기자 headlinejeju@headlinejeju.co.kr 승인 2020.07.06 11:22 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 7월 여름성수기 시작, 내국인관광객 예년 90% 수준 회복제주도, 방역 총력...QR코드 전자출입명부 도입, 안전수칙 강화 이중환 제주특별자치도 도민안전실장과 임태봉 보건복지여성국장이 6일 여름 휴가시즌에 대비한 코로나19 대응책을 발표하고 있다. ⓒ헤드라인제주 [종합] 본격적 여름 휴가시즌이 시작된 7월들어 제주도를 찾는 관광객이 1일 3만명대를 기록하면서 예년 90% 수준을 회복한 것으로 나타났다. 신종 코로나바이러스감염증(코로나19) 위기상황이 심각단계로 격상된 2월 이후 5개월만이다. 본격적 여름 성수기에 돌입하면서 밀려드는 관광객에 제주도 방역당국은 비상체제 대응에 나섰다. 6일 제주특별자치도와 제주도관광협회에 따르면, 이달들어 제주도를 찾는 내국인관광객은 주말과 주중 모두 하루 3만명 수준을 보이고 있다. 일별 입도객 추이를 보면, △1일(수) 3만 2464명 △2일(목) 3만 2316명 △3일(금) 3만 3229명 △4일(토) 3만 1335명 △5일(일) 3만 1495명을 기록했다. 5일간 이어진 7월 누적 내국인관광객은 총 16만 840명으로 집계됐다. 이는 지난해 같은 기간(17만 8042)명 보다 9.7% 감소한 것이기는 하나, 코로나19 심각단계 이후 감소폭이 최저 수준으로 줄어든 것이어서 주목된다. 역으로, 입도 관광객 수가 전년의 90% 이상 수준 회복됐음을 보여준다. 여름 시즌을 맞아 내국인 관광객들이 급증하고 있는 것은 코로나19 사태로 해외여행이 제한되는 상황에서 코로나19 청정지역으로 평가받는 제주도로 발길을 돌리고 있기 때문으로 풀이된다. 외국인 관광시장의 '개점휴업'이 장기화되는 가운데, 내국인 입도객의 이러한 추이는 최대 불황기를 맞고 있는 관광업계에서는 매우 고무적으로 받아들이고 있다. 불과 한달 전만 하더라도 코로나19 지역사회 전파 위험성 때문에 '여행 자제'를 호소해 온 제주특별자치도는 코로나19 방역대책을 완벽하게 추진함 속에서 안전관광을 전제로 한 '내국인 관광객 유치활동'을 재개하기로 했다. 제주도 방역당국은 6일 이와 관련한 브리핑을 갖고, 여름 휴가철 많은 관광객들이 제주도를 찾을 것으로 예상됨에 따라 도내 전역에 방역을 강화하는 등 코로나19 확산 방지를 위해 비상적 대응에 나선다고 밝혔다. 제주도 입도 단계에서부터 출도까지 안전한 휴가 환경을 제공한다는 계획이다. 이를 위해 제주도는 각 방역 접점에서의 시설 방역을 강화하고, QR코드 전자출입명부를 도입해 운영하기로 했다. 또 안전하고 청정한 제주로 여행을 오려는 관광객들에게 안전수칙 이행을 전제로 관광을 즐길 수 있도록 홍보를 강화한다. 이와 함께 지난 5월 27일 대중교통 마스크 착용 의무화 개선명령 시행 이후 버스, 택시의 마스크 의무 착용사항을 공항 내 안내방송, TV 자막방송, 영화관 영상홍보, 현수막, BIS버스정보 시스템, 재난문자 등으로 지속적으로 안내하기로 했다. 렌터카 대여 전후로 세차와 방역을 추진하고 버스와 택시에 대한 수시 소독 및 점검도 강화한다. 앞서, 제주도는 지난 2일 제주도청 탐라홀에서 제5차 제주형 생활방역 위원회를 개최하고, 41개 유형 분야별로 생활 속 거리두기 추진 상황과 여름철 성수기 방역 대응책을 논의했다. 최승현 행정부지사 주재로 열린 이날 회의에서는 유흥주점, 실내집단운동, 뷔페식당 등의 고위험시설과 해수욕장, 관광지, 종교단체, 건설현장 등 불특정 다수가 몰리는 환경에 대한 단계별 대응책이 집중적으로 거론됐다. 제주도는 우선 1단계로 시설관리주체 대표와의 면담 또는 비대면 간담회를 통해 각 분야별 방역지침을 포함한 공문을 발송하고 방역수칙에 대한 안내를 요청하고 있다. 이를 통해 도내 전 지역 시설과 단체, 집단 등에 대해 자율적인 방역 체계를 유도하고 긴장의 고삐를 늦추지 않도록 독려한다는 계획이다. 2단계로 유형별 도·행정시 합동점검반을 구성하고, 자체 세부계획을 수립한 뒤 각 분야별 방역수칙 이행 실태를 점검한다. 방역수칙 미 이행 사업장에 대해서는 준수명령 조치 등 행정 지도를 이전보다 강화하고 불시 점검도 보다 강화해 실시한다. 3단계로 행정지도 사항에 대해서도 미 이행 시에는 고발 등 행정조치를 진행할 방침이다. 더불어 수도권 등 타 지역 산발적 집단 감염과 감염경로를 알 수 없는 환자 비율이 증가되는 상황을 고려해 △방문판매업소 운영 제한 △극장 등 실내 문화시설에 대한 방역강화 및 불시 점검 △공공기관 직원 마스크 착용 의무화 △집중 점검기간(7월 1일~8월 31일) 운영 등을 결정했다. 이날 회의에서는 김만덕 기념관, 예래생태체험관, 서귀포시 평생학습관자기수도학습센터, 고산리 유적 안내센터, 돌 문화공원 오백장군 갤러리 공연장 등 5개소에 대해 제한적 개방 운영을 허용하도록 결정했다. 한편, 제주도 입도관광객은 코로나 사태가 확산되기 직전인 지난 1월만 하더라도 외국인관광객을 포함해 1일 4만명 수준이었다. 그러나 코로나19로 인해 2월 초 무비자 입국제도가 일시 중단되면서 국제선 운항이 중단돼 외국인관광객들의 발길이 완전히 끊겼고, 심각단계 격상 이후에는 내국인 관광객도 절반 이하 수준으로 떨어졌다. 2월과 3월에는 하루 2만명 내외 수준으로 급격히 떨어졌다. 4월 일평균 관광객이 1만 8000명이었다. 그러던 것이 5월 첫째주 황금연휴(부처님오신날~어린이날)을 맞아 4만명 수준이 일시적으로 회복됐다. 이후 다시 2만명 내외 수준으로 떨어졌다. 그러다가 여름 휴가시즌을 앞둔 지난달 말부터는 관광객수가 다시 늘기 시작했고, 7월 들어서는 예년 90% 이상 수준의 회복세를 보이고 있다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈.윤철수 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 제주도 1일 관광객 '3만명↑' 회복...내국인 유치활동 재개 제주 해수욕장, 코로나 방역 강화...'거리두기', '일지작성' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>외국인 관광객 98%↓…코로나19에 제주도 카지노 ‘벼랑 끝’ - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 외국인 관광객 98%↓…코로나19에 제주도 카지노 ‘벼랑 끝’ 파이낸셜뉴스입력 2020.07.06 21:36수정 2020.07.07 06:32 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 카지노 8곳 중 4곳 휴업 상태…나머지 4곳도 단축영업·유급휴직4월6일부터 제주공항 국제선 운항 중단…중국인 관광객 99.7%↓ 제주신화월드에 있는 랜딩카지노 /사진=fnDB 코로나19 사태 장기화로 제주지역 외국인 전용 카지노업계가 벼랑 끝 경영에 직면했다. 제주와 해외를 잇는 직항 항공노선이 모두 끊긴 탓이다. 6일 제주도에 따르면, 도내 8개 카지노 가운데 4개 업체가 아예 휴업에 들어갔다. 나머지 4개 업체도 단축 영업과 고용유지 지원금을 받아 유급 휴직의 고육책을 쓰고 있다. 지난해 도내 8개 카지노 매출액은 1903억900만원이다. 2018년 매출액 5111억7000만원에 비해 무려 62.8%나 급감했다. 2018년에는 제주신화월드로 영업장을 옮긴 랜딩카지노의 매출이 대폭 늘면서 총매출이 급증했다. 하지만 지난해 랜딩카지노 매출액은 624억원으로 전년의 16%에 그쳤다. ■ 관광정책 돈줄 ‘관광진흥기금’ 조성도 직격탄 더욱이 올 들어 코로나19 사태가 본격화되면서 카지노 매출이 더욱 급격하게 떨어지고 있다. 특히 지난 4월6일부터 국토교통부가 국제선 항공기 도착지를 인천국제공항으로 일원화하면서 제주국제공항의 국제선 운항이 중단됐다. 올 들어 지난 7일까지 제주를 찾은 외국인 관광객은 1만3337명이다. 지난해 같은 기간의 62만3176명에 비해 무려 97.9%나 감소했다. 이 가운데 카지노 주 고객이었던 중국인 관광객은 1127명으로, 지난해 같은 기간의 36만9160명에 비해 99.7% 급감했다. 일본인 관광객도 725명으로, 지난해 같은 기간의 4만3059명 보다 98.3% 떨어졌다. 도내 카지노는 내국인이 입장할 수 없는 외국인 전용이기 때문에 외국인 없으면 매출이 있을 수 없다. 이에 따라 제주도 관광정책의 돈출인 제주관광진흥기금 조성도 직격탄을 맞았다. 제주관광진흥기금은 정부와 제주도 출연금에 도내 카지노 매출액의 10% 이내, 출국납부금으로 조성된다. 이 가운데 카지노 비중이 절대적이다. 지난해 조성된 제주관광진흥기금은 590억원 수준이다. 하지만 올해는 70%나 떨어진 140억원 안팎에 그칠 것으로 전망되고 있다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 해수욕장 개장, 여름 즐기는 관광객들 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 최신포토인기포토해외포토분야별포토연예스포츠슬라이드펫카드그래픽뉴스 홈 &gt; 포토 &gt; 지방 &gt; 제주 최근 슬라이드 선택 이전 다음 제주도 해수욕장 개장, 여름 즐기는 관광객들 2020/07/01 13:51 송고 이전 다음 정지 자동넘김 시작 자동넘김 멈춤 (제주=뉴스1) 오현지 기자 = 제주도내 11개 해수욕장이 일제 개장한 1일 오후 제주시 함덕해수욕장에서 관광객들이 해수욕을 즐기고 있다.2020.7.1/뉴스1		ohoh@news1.kr 기사원문보기 댓글보기 인기 화보 갤러리 [연예가화제] 3년 만에 관객 품으로 돌아온 BIFF [국회ㆍ정당] 윤석열 정부 첫 국감 시작..여야 전방위 격돌 [국방ㆍ외교] '바다 위 군사기지' 美 핵항모 로널드 레이건호, 부산 입항 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>성수기 맞은 제주도 ‘관광 vs 방역' 딜레마 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 14:20 (화) 본문영역 이전 기사보기 다음 기사보기 성수기 맞은 제주도 ‘관광 vs 방역' 딜레마 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 성수기 맞은 제주도 ‘관광 vs 방역' 딜레마 기자명 진순현 기자 입력 2020.07.06 13:29 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 내달 31일까지 유관기관 합동 도내 848개소 관광사업체 점검해수욕장·수영장서도 2m 간격 유지 지도방역사항·이행수칙 준수 계도…불법 관광시설 집중 단속 제주시 협재해수욕장여름 성수기를 맞은 제주지역이 관광과 방역 두 마리 토끼를 놓고 딜레마에 빠졌다.제주경제를 생각하면 밀려드는 여행객이 반갑지만, 자칫 잘 지켜온 방역이 한 순간에 무너질 수 있다는 우려의 목소리가 공존하고 있다.제주특별자치도는 여름철 관광 성수기를 맞이해 다음달 31일까지 유관기관과 합동으로 관광사업체 방역 현장 점검에 나선다고 6일 밝혔다.19개조 38명(도․행정시 22명, 관광공사 6명, 관광협회 10명)으로 구성된 현장 점검팀은 도내 848개소(관광숙박 410, 펜션 104, 유원시설업 68, 이용시설 85, 관광식당 181)의 관광사업체를 찾아 코로나19 확산 방지를 위한 주기적 방역과 이행수칙 준수 여부, 종사자 위생 관리, 유증상자 발생 시 방역 협력체계 구축 사항들을 점검한다.특히 여름철 수영장 이용이 급증할 것을 고려해 호텔․펜션 등 숙박시설 내 수영장을 중심으로 실제 운영사항 파악과 방역 관리에 대한 사전 점검을 진행한다.오는 17일까지 이뤄질 숙박시설 내 수영장 현장 점검에는 △일광용 의자 등 공용시설 2m 간격 유지 △탈의실(락커룸) 한칸씩 띄워 사용하기 △수영장내 다른 사람과 2m 이상 간격 유지하고 신체 접촉 및 대화 자제하기 등을 유도할 방침이다.실내 관광지에서는 마스크 착용 및 열 감지 체크 여부와 이용객 동선 분리 등의 사항이 중점적으로 확인된다.제주도는 실내 밀폐형 관광지 10개소와 야외관광지 내 실내전시관 20개소에 대해 사전 예약제를 운영하고 있으나, 실내 사설 관광지에 대해서도 사전예약제를 권고해 시간당 실내 동시 관람객 수 제한을 유도할 계획이다.해수욕장 내 코로나19 감염 방지를 위해서는 개장 기간 동안(7.1~8.31) 현장 수시 점검반을 구성, 방역관리 이행 사항을 수시로 점검한다. 점검반은 도내 지정 해수욕장 11곳(협재, 금능, 곽지, 이호테우, 삼양, 함덕, 김녕, 신양섭지, 표선, 중문색달, 화순금모래)을 찾아 코로나19 방역관리 이행상황과 현장의 문제점을 파악하고 개선해 나갈 계획이다. 특히 관광, 경제 활동을 보장하면서 코로나19 확산 방지와 즉각 대응 등 방역 활동이 함께 조화되도록 할 계획이다.제주도는 현재 행정, 보건, 민간안전요원 등 총 278명의 안전요원을 11개 해수욕장에 배치, 방역관리 상황에 대한 합동 지도를 실시하고 있다.코로나19 대응반은 278명의 안전요원과 함께 △해수욕장별 별도 격리 공간 조성 완료 △파라솔 등 차양시설 2m 이상 안전거리 유지·설치 완료 △샤워·탈의장 등 실내 다중이용시설 및 튜브 등 물놀이시설 이용객 일지 작성 실시 △실내 다중이용시설 발열검사 △보건요원 등 민간안전요원 방역관리 사전교육 △해수욕장에서의 방역관리 이용 수칙 등 행정 지도를 진행하고 있다.만약 해수욕장에서 37.5°C 이상 유증상자나 의사환자가 발생할 시에는 마스크를 착용해 별도의 격리 장소로 즉시 이동하고 20분~30분 후 2차 체온 측정이 이뤄진다.이때 해당 이용객과 접촉한 이용객이 있다면 보건소의 검사와 역학조사 등이 이뤄질 때까지 해수욕장내 격리장소에서 마스크와 일회용 장갑 등을 착용하고 보건소 담당자가 도착할 때까지 대기해야 한다.해수욕장별 방역관리책임자는 보고체계에 따라 즉각 상황을 보고하는 한편, 해수욕장 이용객에게 확진환자 발생사실을 알리고 운영을 일시 중단하고 소독 방역을 실시하게 된다.한편 제주도는 코로나19로 올해 야간 개장은 운영하지 않으나, 협재, 이호테우, 삼양, 함덕 해수욕장은 오는 15일부터 다음달 15일까지 한 달간 1시간 연장 운영된다. 진순현 기자 jinjin3808@naver.com 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 1 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 댓글목록 최신순 추천순 욕설, 타인비방 등의 게시물은 예고 없이 삭제 될 수 있습니다. 환장의섬제주 2020-07-06 16:41:01 더보기 삭제하기 이 시국에 놀러 다니는 똘아이들... 답글쓰기 2 3 투자유치 희망 기업 JDC 파트너스데이 개최 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 8 ‘경유·휘발유 값’ 전국서 가장 비싼 곳은 ‘제주도’ 1 조사 발표하면 싸집니까 ? 도 홈페이지를 방문해서 확인하는 사람이 몇명이나 있을까요 ? 2 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 3 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 4 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 5 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 6 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 7 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 1분기 이어 2분기도 회비 면제키로 &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 14:52 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도의회, 인사권 독립 후 첫 사무관 승진 임용 제주도, 유상증자 불참 제주항공 신주인수권 전량 매도 제5회 제주국제현대음악제, 20~21일 제주대서 개최 2022 세계유산축전 ‘제주 화산섬과 용암동굴’, 16일까지 진행 법원, 우도 내 삼륜 이동장치 제한 ‘정당’ 제주도 제한 정책 탄력 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 1분기 이어 2분기도 회비 면제키로 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 제주도관광협회, 1분기 이어 2분기도 회비 면제키로 기자명 이동건 기자					(dg@jejusori.net) 입력 2020.07.01 16:50 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도관광협회가 위치한 제주종합비즈니스센터 전경.제주도관광협회는 1분기에 이어 2분기도 회비를 면제한다고 1일 밝혔다. 회원들을 대상으로 회비를 걷는 관광협회는 코로나19 확산에 따라 제주를 찾는 관광객이 급감하면서 매출 감소 등 타격을 받는 관광사업체 회원을 위해 올해 1분기 회비를 면제했는데, 코로나19 사태가 장기화되면서 2분기 회비도 면제키로 했다. 면제되는 2분기 회비만 약 2억6000만원 규모다.  관광협회는 5억2000만원 상당의 1~2분기 회비 면제에 따라 자체적으로 경상경비·관리비 삭감, 인력 감축 등을 추진하고 있다.  관광협회 관계자는 “코로나19 타격을 입은 사업체를 대상으로 지원되는 고용유지지원금 신청이 원활히 진행될 수 있도록 오는 9월15일까지 고용지원센터에 인력을 파견하는 등 코로나19 위기 극복을 위해 최선을 다하겠다”고 말했다. 이동건 기자 dg@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 인사 제주시 2022년 하반기 사무관 6명 승진 의결 5 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 9 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 선거꾼 하나.. 선거운동 도와주고서 연봉 1억 넘는 자리 꿀꺽했구나.. 여론조사 전문가가 감사 활동 잘 할거다? 목에서 소리를 낸다고 말이 되거나 글자로 표현한다고 글이 되는 것은 아니다. 2 제주답게 만들기를~~ 3 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 4 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 5 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 6 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 7 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 8 못간다 9 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 10 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>성수기 맞은 제주도… 관광지 방역 구슬땀 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 14:51 (화) 실시간 뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 코웨이, 2022 한국산업의 고객만족도 조사 침대·정수기 2개 부문 1위 선정 긴급 안보대책회의 참석한 황인권 전 육군 제2작전사령관 긴급 안보대책회의 참석한 김준형 전 국립외교원장 긴급안보대책회의 참석하는 이재명 더불어민주당 대표 더불어민주당 긴급 안보대책회의 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 성수기 맞은 제주도… 관광지 방역 구슬땀 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 성수기 맞은 제주도… 관광지 방역 구슬땀 기자명 김연화 기자 입력 2020.07.07 09:45 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ‘수시로 닦고 안내하고’ 수영장서도 2m 간격 유지 지도 7월 1일부터 8월 31일까지 유관기관 합동으로 도내 848개소 관광사업체 점검 방역사항 및 이행수칙 준수 여부 계도… 불법 관광시설 집중 단속도 제주특별자치도청사 전경 [시사매거진/제주=김연화 기자] 제주특별자치도가 여름철 관광 성수기를 맞이해 8월 31일까지 유관기관과 합동으로 관광사업체 방역 현장 점검에 나선다. 19개조 38명(도․행정시 22명, 관광공사 6명, 관광협회 10명)으로 구성된 현장 점검팀은 도내 848개소의 관광사업체를 찾아 코로나19 확산 방지를 위한 주기적 방역과 이행수칙 준수 여부, 종사자 위생 관리, 유증상자 발생 시 방역 협력체계 구축 사항들을 점검한다. 코로나19로 해외로 가지 못한 여행객들이 제주로 발길을 돌리면서 성수기를 맞은 제주도는 ‘청정제주, 공정가격, 착한여행’이라는 슬로건 아래 제주관광 이미지 향상을 위한 추진계획을 지난 1일 발표한 바 있다. 원희룡 지사도 1일 열린 소통과 공감의 날 영상회의를 통해“제주경제를 생각하면 밀려드는 여행객이 반갑지만, 잘 지켜온 청정방역이 한 순간에 무너질 수 있는 위기이고 제주 관광의 가격과 품질 때문에 이미지가 흐려질 위기이기도 하다”며 “청정하고 안전한 제주의 지속과 포스트 코로나 대전환 시기의 능동적인 적응과 기회로 활동될 수 있도록 최선을 다해달라”고 당부한 바 있다. 특히 여름철 수영장 이용이 급증할 것을 고려해 호텔․펜션 등 숙박시설 내 수영장을 중심으로 실제 운영사항 파악과 방역 관리에 대한 사전 점검을 진행한다. 숙박시설 내 수영장 현장 점검은 본격적인 여름 성수기 시작 전 완료를 목표로 지난 6월 30일부터 오는 7월 17일까지 이뤄진다. 이를 통해 일광용 의자 등 공용시설 2m 간격 유지, 탈의실(락커룸) 한칸씩 띄워 사용하기, 수영장내 다른 사람과 2m 이상 간격 유지하고 신체 접촉 및 대화 자제하기 등을 유도할 방침이다. 숙박시설 내 수영장은 방역 지침 적용 대상으로 명시되지 않았으나 감염 예방을 위한 관리에 미흡함이 없도록 이용자, 책임자‧종사자로 구분된 상세 지침(하단 첨부)를 배부하고 출입 명부를 작성해 이용객들을 관리할 계획이다. 이와 함께 실내 관광지에서는 마스크 착용 및 열 감지 체크 여부와 이용객 동선 분리 등의 사항이 중점적으로 확인된다. 제주도는 실내 밀폐형 관광지(10개소)와 야외관광지 내 실내전시관(20개소)에 대해 사전 예약제를 운영하고 있으나, 실내 사설 관광지에 대해서도 사전예약제를 권고해 시간당 실내 동시 관람객 수 제한을 유도할 계획이다. 한편 지난 7월 1일부터 3일까지 관광사업체를 찾아 방역 지도 관리와 관광 수용 태세를 재정비한 결과, 대부분의 사업체가 방역관리자를 지정하고 자율 방역을 주 1회 이상 실시하며 코로나19 확산 방지를 위해 노력하는 것으로 나타났다. 대부분의 관광지들은 곳곳에 손소독제를 비치하고, 종사자들은 마스크 착용하고 근무를 하고 있다. 관광사업체 자체적으로 매일 또는 주1회 이상 수시로 방역하거나, 방역 전문업체에 의뢰해 방역을 진행하는 곳들도 있다. 코로나19 소독방역 완료 시간을 안내하고 손 씻기, 마스크 착용 준수에 대한 철저한 홍보로 입소문을 타고, 코로나19 이전보다 매출이 증대한 업소도 있다. 또한 관광숙박업과 휴양펜션업소에서는 객실 방역 및 환기 실시, 매주 2회 이상 로비, 복도 등 공용 이용부분에 대한 자체 소독이 실시되고 있는 것을 확인했다. 호텔 자체적으로 열화상카메라를 설치해 운영하거나, 마스크 미착용 시 출입을 금지하고 자체 문진표를 받는 곳과, 소독제를 비치하고 투숙객들이 휘트니스센터를 이용할 시 직접 운동 기구를 소독한 뒤 이용토록 하는 호텔도 있다. 제주도는 아울러 건전관광질서 계도반을 활용해 방역사항을 점검하고, 관광시설에 대한 집중 단속도 병행한다. 민관합동으로 주 3회 이상 무등록 숙박업소에 대한 단속을 실시하는 한편 유원시설, 야영장 등 미등록 사업체에 대한 점검도 진행한다. 김연화 기자 kyh5667@daum.net 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 국회, 감사원 국감 날 선 공방 예고 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 포토뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 4 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 선우은숙 재혼, 유영재 아나운서와 혼인신고... 나이·프로필 눈길 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>대정서초, 제주도 관광지 그리기 백일장 실시 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 14:51 (화) 실시간 뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 코웨이, 2022 한국산업의 고객만족도 조사 침대·정수기 2개 부문 1위 선정 긴급 안보대책회의 참석한 황인권 전 육군 제2작전사령관 긴급 안보대책회의 참석한 김준형 전 국립외교원장 긴급안보대책회의 참석하는 이재명 더불어민주당 대표 더불어민주당 긴급 안보대책회의 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 대정서초, 제주도 관광지 그리기 백일장 실시 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 대정서초, 제주도 관광지 그리기 백일장 실시 기자명 김광수 기자 입력 2020.07.08 10:49 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [시사매거진/제주=김광수 기자] 대정서초등학교(교장 문재필)에서는 지난 7월 6일(월) 6학년을 대상으로 교실에서 제주도 관광지 그리기 백일장을 실시했다. 대정서초, 제주도 관광지 그리기 백일장 실시 (사진_대정서초등학교) 2020년 관광선도학교로 선정된 대정서초등학교는 첫 행사로 미술시간에 스마트패드를 이용하여 제주도 주변 유명 관광지를 찾고 아크릴 물감을 활용하여 캔버스지에 옮겨 그렸다. 학교관계자는“이번 백일장은 제주도의 다양한 명소를 찾고 그리는 체험을 해봄으로써 제주도의 자연환경이 우리에게 주는 즐거움과 제주애(愛)를 느낄 수 있었고, 외부로 가지 못하는 열약한 환경 속에서 간접체험을 할 수 있는 좋은 기회였다”라고 전했다. 김광수 기자 sipong666@naver.com 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 국회, 감사원 국감 날 선 공방 예고 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 포토뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 4 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 선우은숙 재혼, 유영재 아나운서와 혼인신고... 나이·프로필 눈길 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 조직개편안 반발 여론에 밀려 ‘관광국’ ‘해녀문화유산과’ 존치 | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 제주도 조직개편안 반발 여론에 밀려 ‘관광국’ ‘해녀문화유산과’ 존치 입력 : 2020-07-01 03:00:00 수정 : 2020-06-30 17:28:17 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 제주도청 전경. 제주도가 조직 개편을 통해 통폐합하기로 했던 ‘관광국’과 ‘해녀문화유산과’가 관광업계와 해녀들의 반발 여론에 밀려 현행대로 유지된다. 제주도는 신종 코로나바이러스 감염증 여파로 타격을 받은 관광업계의 위기 극복을 위해 관광국을 현행대로 유지하기로 했다고 30일 밝혔다. 또 해녀문화유산과도 해녀 문화유산에 대한 체계적인 사후관리와 해녀 문화유산의 안정적인 기반 마련 때까지 전담부서 운영이 필요하다는 의견을 반영해 존치하기로 했다. 도는 애초 문화체육대외협력국과 관광국을 통합해 문화관광국을 신설하기로 했다. 해양수산국 산하 해녀문화유산과도 해양해녀문화과로 변경하기로 하고 입법 예고했다. 그러나 관광국 통폐합에 대한 관광업계의 반발과 해녀문화유산과를 대체하는 방안에 대한 해녀들의 반발시위 이후 기존 조직을 유지하는 것으로 입장을 바꿨다. 애초 관광청 설립 입장은 유지했다. 이번 조직개편안에는 공보관이 대변인으로 변경되고 도민안전실이 교통·항공관련 업무가 추가돼 안전교통실로 확대된다. 또 4·3지원과가 4·3평화과로 변경되고 관광국 산하 투자유치과가 없어지는 대신 일자리경제통상국의 업무로 이관된다. 제주시는 1과가 감축되고 서귀포시는 1국 2과가 줄어든다. 도는 다음 달 제주도의회에 조직개편안을 제출할 예정이다. 앞서 제주도관광협회와 제주관광학회 등 제주지역 관광업 종사자들은 “제주도의 관광국 축소통합 조직개편 계획은 제주관광을 포기하는 처사”라며 반대했다. 관광업 종사자들은 “제주 지역내총생산(GRDP)에서 관광을 포함한 서비스업이 차지하는 비중이 전체의 73％를 차지할 만큼 제주경제에 막대한 부분을 차지하고 있다”며 “관광을 포기하는 순간 제주경제는 순식간에 무너질 것이 불 보듯 뻔하다”고 주장했다. 이들은 “전국 자치단체가 주력 산업으로 관광산업에 집중하는 등 지방자치단체 간 경쟁이 치열해지고 있고, 빠르게 변화하는 관광산업의 특성상 이를 선제적으로 대응하기 위해서라도 관광국의 역할이 매우 중요하다”고 강조했다. 이들은 “관광은 농축산을 비롯한 해양·교통·체육·문화 등 다른 산업분야와도밀접한 연관이 있기 때문에 관광을 중심으로 협업 체계가 마련돼야 하는 상황에서 예산절감이라는 미명 아래 관광 책임부서를 축소통합하는 것은 이해할 수 없다”고 말했다. 제주=임성준 기자 jun2580@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20200630520202 0101070100000 0 2020-07-01 3:0:0 2020-06-30 17:28:17 0 제주도 조직개편안 반발 여론에 밀려 ‘관광국’ ‘해녀문화유산과’ 존치 세계일보 임성준 9a19e7e4-78a9-43d0-9d4a-245149669a84 jun2580@segye.com 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 "바위야 호박이야?" 1.1t 넘는 초대형 호박 수확 2 23층 지붕 위 기인…양복 입고 활보, 왜? 3 머스크, 440억달러에 트위터 인수…계약파기 철회 4 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 5 에펠탑 아래 숲, 하마터면 사라질뻔∼ 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>제주도, '공정가격-착한여행' 관광 캠페인 대대적 전개 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, '공정가격-착한여행' 관광 캠페인 대대적 전개 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, '공정가격-착한여행' 관광 캠페인 대대적 전개 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2020.07.01 10:43 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 민간중심 자율적 가격정보 제공...관광불편 신고센터 운영 일부 식당과 숙박업소에서 바가지 논란이 일면서 '제주관광=비싼가격'이라는 이미지가 생겨나고 있는 것에 대해 제주특별자치도가 이를 해소하기 위한 '착한여행' 캠페인에 나선다. 제주자치도는 '청정제주, 공정가격, 착한여행'이라는 슬로건 아래 제주관광 이미지 향상에 본격 나선다고 1일 밝혔다. 지난해 제주 방문 관광객 실태조사 결과 비싼 물가가 불만 요인 1위로 나오고 최근 고액 숙박요금과 관련한 부정적인 이미지가 생겨나고 있다. 이에 제주도는 민간 주도의 자정운동을 펼치면서, 부당요금 업체에는 신속히 조치하고 다양한 SNS 채널을 활용해 홍보하는 캠페인을 전개한다는 계획이다. 이에 따라, SNS 채널을 통한 '#제값하는 착한가게 추천 릴레이' 해시태그 캠페인을 6일부터 전개한다. 제주방문 관광객 중 비짓제주 SNS 참여자 및 관광불편 신고센터 의견 게시자에게는 제주관광공사가 소정의 모바일 기프트콘을 증정해 많은 사람들의 호응을 유인하는 이벤트를 연다. 이벤트 종료 후에는 SNS 게시물을 분석해 제주관광서비스의 객관적 평가로 관광산업의 개선사항을 도출할 계획이다. 특히 제주관광 불편 해소를 위해 도지사 직속 관광불편 신고센터를 설치.운영하고 신고 편의를 위해 제주자치도 홈페이지(jeju.go.kr) 내 배너 창구를 신설해 신고 즉시 자치경찰단이 현장을 확인하고 처리해 관광객 불편을 최소화할 계획이다. 또한, 관광협회 중심으로 관광업계 자율 참여하에 민간 중심의 가격정보 제공을 유도하고 공정가격 받기 자정운동을 전개한다. 이를 위해 제주도는 관광업계와 주기적 간담회를 개최하고, 소비자들이 고급 상품에 대한 오해가 없도록 정확한 정보 제공을 통한 홍보 마케팅 전략을 새로이 마련토록 유도한다. 지난 6월 29일 관광호텔업 관계자 대상으로 첫 간담회를 가졌다. 또한 국민들의 불신을 해소하고 제주관광의 긍정적 이미지 확산을 위해 예능프로그램인 ‘더짠내투어 제주편’을 방영하는 한편, 온라인마켓(탐나오) 활용 제주여행 빅할인 이벤트 및 '코로나19 착한 음식점'캠페인도 진행 중에 있다. 아울러, 공정관광질서 확립을 위해 자치경찰단 주도 하에 핵심관광클러스터지역 중심으로 미신고 영업행위 및 불공정거래, 관광사범 등에 대한 집중 단속과 적발 시 강력한 조치를 취할 계획이다. 제주도 관계자는 "제주관광의 신뢰를 회복하기 위해서는 국민들이 갖고 있는 선입견을 깨뜨리는 게 최우선이다"며 "우리 제주도가 '공정관광, 청정제주'를 지키기 위해 범도민적으로 노력하는 모습을 보여줄 수 있게 노력하겠다"고 밝혔다. 이어 "관광업계와 공동으로 건전관광질서를 확립해 관광객들이 안심하고 찾는 제주, 다시 찾고 싶은 제주를 만들어 가는 데 총력을 기울이겠다"고 강조했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>올여름 제주도 가볼만한 곳…청정제주에서 힐링하기 좋은 '제주 웰니스관광지'-디지틀조선일보(디조닷컴 dizzo.com) 국내여행 올여름 제주도 가볼만한 곳…청정제주에서 힐링하기 좋은 '제주 웰니스관광지' 서미영 기자 pepero99@chosun.com 기사입력 2020.07.08 11:30 올여름 코로나로 지친 몸과 마음을 힐링하고 싶다면 제주도 웰니스 관광지를 가보는 건 어떨까. 제주특별자치도와 제주관광공사가 여름철 제주에서 즐길 수 있는 힐링과 치유의 대표 콘텐츠인 ‘제주 웰니스관광 15선’을 발표했다.'웰니스(Wellness)'란 웰빙(Well-being)과 행복(Happiness), 건강(Fitness)의 합성어로 신체적, 정신적, 사회적으로 건강한 상태를 뜻한다. 이번에 선정된 웰니스관광지는 자연·숲 치유, 힐링·명상, 뷰티·스파, 만남·즐김 치유 4개 주제로 구성된 총 15개 관광지다.이번 제주도 웰니스 관광지 발표는 코로나로 지친 국민들에게 변화하는 여행트렌드에 부합하는 제주의 힐링, 치유 여행지를 새롭게 선보이고 이를 통한 제주관광시장에 활력을 불어 넣기 위해 기획됐다.제주관광공사는 지난 5월 자연/숲 치유, 힐링/명상, 뷰티/스파, 만남/즐김 치유 4개 주제로 나눠 각 주제별로 부합하는 관광자원 및 시설 등을 공개 모집하였다. 이후, 도내 관광분야 업계 및 학계로 구성된 협의체 회의와 도외 웰니스관련 학계 및 유관기관, 여행전문가 등으로 구성된 심사를 거쳐 최종 선정했다.자연/숲 치유 분야한남 머체왓 숲길 머체왓숲길 방문객지원센터 : 서귀포시 남원읍 서성로 755 ▲ 사진출처=제주관광공사 ‘머체왓숲길’은 서귀포시 한남리에 위치한 드넓은 목장 초원과 원시림을 동시에 즐길 수 있는 곳이다. ‘머체’는 ‘돌이 엉기정기 쌓이고 잡목이 우거진 곳’, ‘왓’은 ‘밭’을 일컫는 제주어의 합성어로, ‘머체왓’이라는 말은 이 일대가 머체(돌)로 이루어진 밭(왓)이라는 데서 붙여진 말이다. 또한ㅡ 머체왓숲길은 드넓은 목장 초원을 중심으로 삼나무숲과 편백나무숲이 길게 형성된 숲 터널, 서중천 계곡을 끼고 숲이 우거진, 마치 곶자왈과도 같은 느낌을 주는 탐방로 등 제주도 자연으로 채워진 아름다운 곳이다.자유롭게 숲길 산책을 해도 좋고, 숲 해설가와 동행하여 머체왓숲길의 비밀스런 곳곳을 알아나가는 재미도 크다. 숲길 산책 후 머체왓숲길 건강체험장에서 머체왓 숲의 기운을 담은 약차(이 곳에서 나는 8가지 건강한 약재 : 꾸지뽕나무, 황칠나무, 청미래덩굴, 예덕나무, 편백나무열매, 계피, 감초, 진피)나 귤 효소 차(유기농 귤로 발효)를 마시면서 피톤치드 에너지가 가득한 편백 족욕 체험을 곁들이면 몸과 마음이 행복해지는 치유의 시간을 경험할 수 있다. 머체왓숲길 탐방은 방문객지원센터를 찾으면 바로 출발할 수 있다.비체올린제주시 한경면 판조로 253-6 ▲ 사진출처=제주관광공사 비체올린은 제주시 서쪽 중산간 지역에 위치한 곳으로 자연 숲에 조성된 일천여미터 수로를 따라서 유유자적하게 카약을 타고 숲 속에서의 힐링과  여유를 즐길 수 있는 곳이다. 비체올린(빛에 올린)은 햇빛 위에 올려놓은, 다시 말해 자연 위에 조성되었다는 뜻이다. 바다가 아닌 숲 속 카약 체험이라는 독특한 콘셉트로 제주의 아름다운 자연과 숲 터널 풍경을 감상할 수 있으며, 카약 체험 외에도 곶자왈 산책로, 상록수인 아왜나무로 조성된 수목미로공원, 감귤 밭길 등을 이용할 수 있다. 또한 토끼와 새 등에 모이를 먹이는 체험을 할 수 있고, 바비큐장과 캠프파이어가 조성된 캠프촌에서 여유로운 힐링 캠핑도 즐길 수 있다.파파빌레제주시 조천읍 남조로 2185 ▲ 사진출처=제주관광공사 ‘파파빌레’는 드넓은 공간에 다양한 제주의 땅속 현무암의 모습을 보여주는 돌을 소재로 한 관광지다. '파파'는 아버지, '빌레'는 넓게 퍼져 있는 바위를 이르는 제주어다. 파파빌레 대표가 약초농사를 하던 중 용암의 흘러간 흔적을 발견하고 수차례 돌과 흙 청소하기를 반복하여 손작업으로 발굴하였다고 한다. 파파빌레에서는 한반도 모습을 닮은 대규모 암반은 물론 4방신(좌청룡, 우백호, 남주작, 북현무)모양의 암반도 만날 수 있다. 또한 백두대간 모습으로 생긴 흑룡의 암반은 길이가 무려 100m에 이르는 모습으로 제주 화산섬 땅속 자연의 신비로운 비경 작품이다. 이곳에서는 제주 화산섬 현무암 숲에서 나오는 음이온이 대량 방출되고 있다. 음이온은 산림 숲에 가야만 만날 수 있다고 생각하지만 파파빌레에서도 신선한 음이온을 마주할 수 있다. 현무암 숲에서 다량 발생하는 자연 음이온, 원적외선, 항균성분, 산소가 인체에 미치는 효과를 체험하고, 자연치유학 박사인 파파빌레 대표의 진행으로 삼림욕, 명상, 요가 등 산림치유를 병행함으로써 사전, 사후 심장변의도와 스트레스 등을 확인할 수 있는 웰니스 프로그램을 운영하고 있다.붉은 오름자연휴양림 서귀포시 표선면 남조로 1487-73 ▲ 사진출처=제주관광공사 붉은오름 자연휴양림은 서귀포시 남조로 주변에 위치하고 있다. 붉은오름은 덮인 흙이 유난히 붉다고 해서 붙여진 이름이다. 실제로 오름 대부분이 붉은 화산 송이인 '스코리어(scoria)'로 덮여 있다. 복수초, 단풍나무, 참식나무 등 다양한 야생식물과 노루 등 제주의 야생 동물을 직접 만날 수 있는 친환경 생태관광지일 뿐만 아니라 사려니 숲길, 물영아리, 물찻오름 등 다양한 생태체험코스를 인근에 두고 있어 다양하고 신비로운 경험을 할 수 있다. 붉은오름자연휴양림에서는 건강 숲길 걷기와 목재문화체험장에서 운영하는 ‘편백 체험실’을 통해 전신 및 반신욕을 체험할 수 있다. 특히 무장애 나눔숲길이 조성되어 휠체어를 사용하는 장애인 및 거동이 불편한 사람들을 위한 숲 체험 활동을 지원한다. 또한, 시각장애인의 편의를 위한 점자안내판과 발달장애아동 및 부모의 숲 체험 활동을 지원한다. 관음사야영장제주시 산록북로 588 ▲ 사진출처=제주관광공사 한라산 관음사야영장은 제주시 북쪽 아라동에 위치하여 제주시 도심 인근에서 캠핑을 즐길 수 있는 곳이다. 야영장은 해발 620m에 있어 한라산의 자연을 느끼기에 좋은 야영장이며, 야영장 주위에는 상록활엽수림인 녹나무와 참나무 그리고 침엽수인 삼나무가 숲을 이루고 있어, 자연생태를 관찰하기에도 좋은 곳이다. 관음사야영장에서 백록담까지는 8.7㎞ 코스로 한라산 탐방객들이 등반 시에 야영장을 애용하고 있다. 이 코스에는 획일적인 구획이 아닌 자연스럽게 설치된 30여 개의 사이트가 자리하고 있다. 모닥불이나 숯불은 사용 금지이며, 휴대용 버너를 이용한 조리만 가능하다.힐링/명상 분야제주힐링명상센터 제주시 애월읍 어음13길 196 ▲ 사진출처=제주관광공사 제주시 애월읍 중산간 400고지에 위치하여 오름과 드넓은 들판, 그리고 한림해변과 비양도를 품은 바다가 한눈에 내려다보이는 곳이다. 제주 중산간 천혜의 자연속에 위치하여, 몸, 마음을 건강하고 행복하게 하는 체험 위주의 힐링 명상 프로그램을 운영하고 있으며, 국궁체험장, 기에너지가든, 수련시설, 숙박과 식당 등 연수시설이 있다.국궁체험장에서 체험하는 전통 활쏘기는 국궁지도사의 전문 지도로 초보자도 체험이 가능하고, 호흡 조절을 통한 집중력 향상과 머리가 맑아지고 배가 따뜻해지는 기혈순환, 심신 단련과 스트레스 해소 효과가 있다.화산암의 기운, 물의 기운, 나무의 기운 등이 어우러져 치유의 에너지가 가득한 기에너지가든도 있다. 이 곳에서는 자연을 벗삼아 걷고 명상하며 몸과 마음을 이완하고 힐링할 수 있다. 제주힐링명상센터는 병원에서 하는 치료가 아니라, 스스로 내 몸안에서 일어나는 자연 치유의 힘을 깨워 나를 힐링하는 곳이다. 뇌체조명상, 기가든 자연명상 등 다양한 자연 치유 요법으로 몸과 마음을 힐링하기에 좋다.물뫼힐링팜 제주시 애월읍 예원로 51 ▲ 사진출처=제주관광공사 물뫼힐링팜은 제주시 애월읍 수산리에 위치하며, 지역명인 수산(물 수, 뫼 산)에서 붙여진 명칭이다. 토양을 살려 건강한 농산물과 생태적 환경을 기반으로 친환경농장을 운영하며 몸 안의 자연치유기능을 깨워 사람의 심신을 치유하는 힐링 공간이며, 일본 구마노웰니스투어리즘협회의 웰니스 프로그램을 교육받고 적극 활용하고 있는 곳이다.물뫼힐링팜의 힐링 프로그램으로는 짧게는 바비큐 파티와 공연을 즐기는 3시간 팜파티부터 길게는 제주 밭담길 트레킹과 명상, 요가로 치유하는 2박 3일 투어가 있다. 대상은 주로 감정노동과 업무 등으로 생긴 스트레스를 해소하고 심신의 건강을 찾고자하는 도시민과 감정노동자다. 심신의 피로를 풀어주고 친환경 유기농 농장에서 생산되는 로컬 푸드를 이용한 컬리너리 힐링푸드와 농촌치유프로그램을 통해 피로이완, 감성 회복 등 긍정적 일상의 에너지를 회복할 수 있다.취다선리조트 서귀포시 성산읍 해맞이해안로 2688 ▲ 사진출처=제주관광공사 취다선리조트 Tea&amp;Meditaion은 쉼을 최우선으로 하는 명상 리조트다. 일상에서 벗어나 나를 찾기 위해, 잠깐의 멈춤을 위해 온 여행객이라면 누구나 환영한다. 4개의 차실로 구성되어 있는 Tea Room은 손님이 직접 팽주(차를 다려내는 사람)가 되어 행다(차를 우려 마시는) 체험을 경험할 수도 있으며, 작은 소모임을 할 수 있는 공간이다. 명상, 요가 프로그램을 참여할 수 있는 공간 Auditorium에서는 제주 성산 해안의 수려한 풍광을 배경으로 매일 아침 명상과 저녁 액티브명상 등 진정한 힐링 체험이 가능하다. 이 외에도 캐주얼하게 차를 마실 수 있는 공간과 기념품을 구매할 수 있는 공간인 Tea Bar &amp; Show Room과 18객실의 더블 룸, 3객실의 패밀리 룸이 마련되어 있다.제주통나무휴양펜션 서귀포시 표선면 번영로 3328 ▲ 사진출처=제주관광공사 서귀포시 표선면에 위치한 제주통나무휴양펜션은 10평, 15평, 17평, 20평, 30평형 총5개의 형태로 숙박시설이 완비되어 있으며, 복층식&amp;독채형 구조로 조성되어 있다. 통나무 휴양 펜션은 개별 동마다 공간이 커서 옆 동의 이용객들과 동선 등이 겹치지 않아 자기만의 공간 안에서 자유롭게 힐링과 명상의 시간을 보낼 수 있다.제주통나무휴양펜션은 제주산 고급 삼나무와 제주 편백나무를 활용하여 숙소를 조성하여 다량의 피톤치드로 편안한 잠자리를 제공하고, 이를 통해 이용객들은 스트레스가 해소되고, 조용히 사색하며 휴식을 취할 수 있다. 한편, 펜션 주변에는 표선해수욕장, 가시리체험마을, 따라비오름, 거슨새미오름 등이 10분 거리 내에 위치하고 있어서 이용객들이 숙소를 이용함과 함께 제주의 자연에서 힐링의 기회를 갖을 수 있는 최상의 환경을 보유하고 있다.뷰티/스파 분야WE호텔 웰니스센터 서귀포시 1100로 453-95 ▲ 사진출처=제주관광공사 WE 호텔은 대한민국 최초로 관광과 헬스케어 서비스가 융합된 맞춤형 헬스리조트로서, 1100도로가 시작되고, 산록도로와 만나는 고요한 숲 속에 위치해 있다.WE 호텔은 5성 호텔임과 동시에 한국관광공사 주관 대한민국 ‘추천 웰니스관광지’다. 이는 WE 호텔이 보유한 웰니스센터에서 제공하는 천연화산암반수를 활용한 수(水) 치료, 메디컬 스파, 한라산의 자연을 그대로 담아 낸 숲 산책로(편백나무 군락지, 백담호수 등)에서 진행되는 포레스트 테라피, 청정제주의 식자재를 사용한 다양한 헬스푸드 등 토탈 웰니스 플랫폼이 인정된 결과라고 할 수 있다.WE 호텔 웰니스 센터에서는 다양한 미네랄 성분이 함유된 물을 이용한 수(水) 치료 프로그램과 헬스케어 서비스를 통해 머무르는 것만으로도 치유가 되는 헬스리조트 WE 호텔은 지금까지 경험해보지 못한 특별한 힐링 여행을 선사할 것이다.환상숲곶자왈담앙족욕제주시 한경면 녹차분재로 594-1 ▲ 사진출처=제주관광공사 담앙족욕은 제주의 천연원시림을 볼 수 있는 ‘환상숲곶자왈공원’ 내에 위치하고 있다. ‘담앙’은 담아서의 제주어로 ‘좋은 것만 담앙, 혼디 모영 발담앙, 느영나영 발담앙, 제주의 차 담앙’을 주제로 운영하는 이색 장소로, 용암위에 형성된 독특한 생태계가 유지되고 있는 세계 유일한 숲 ‘곶자왈’의 신비로운 풍경이 펼쳐진 공간 속에서 제주의 자생식물을 활용한 한방 족욕 테라피로 힐링의 시간을 가질 수 있는 장소이다.‘혼디모영 발담앙’과 ‘느영나영 발담앙’ 공간에서는 개별 및 단체 관람객들을 위한 풋스파가 진행된다. 폭포가 떨어지는 물 소리와 풍경이 몸과 마음을 편안하게 해준다. 개별 족욕기가 설치되어 있으며 숲 치유 음악과 명상, 그리고 몸의 긴장을 풀어주는 스트레칭이 진행된다.또한 숲이 내려다보이는 옥상 테라스가 갖춰져 있어 방문객들이 ‘담앙차’(제주의 진피와 페퍼민트 잎, 은행나무 잎이 들어간 차)를 즐길 수 있는 쉼의 장소로 애용되고 있다.씨에스호텔프라이빗스파서귀포시 중문관광로 198 ▲ 사진출처=제주관광공사 씨에스호텔은 제주 유일의 전통호텔로 흐르는 냇물이 너무 맑고 깨끗하여 ‘별이 내리는 내’라는 뜻의 제주어 베릿내로 불려왔던 어촌마을을 계승하여 제주 전통 이미지와 참모습을 그리고, 제주의 고유의 문화를 전파하고 있다. 호텔의 모든 시설은 황모작업을 하여 지붕을 덮고, 현무암으로 돌담을 쌓아 어촌마을 원형 그대로를 재현하고 있다. 그러한 호텔 내에 “배릿네 프라이빗 스파”라는 독채형 사우나는 도심에서 쌓인 심신의 피로를 치유해드리는 공간으로, 아름다운 밤 하늘의 별을 바라보며 여유로운 시간을 즐길 수 있는 프라이빗한 공간이다. 예약제로만 운영되며 예약한 시간부터 90분간 실내탕, 야외탕, 건식 사우나, 남녀 샤워장 및 탈의장이 있는 공간을 단독으로 이용할 수 있다. 만남/즐김 치유 분야가뫼물(제주농촌생태체험농장)서귀포시 남원읍 남위남성로 168 ▲ 사진출처=제주관광공사 곶자왈 물이 모이고 모여 큰 물웅덩이가 생겼는데 옛날 조상들은 이 물을 마시면서 밭일을 할 수 있었다고 한다. 뿐만 아니라 이 물은 주위에 살고 있는 동물들, 가축들에게도 없어서는 안 될 중요한 생명수였다. 아무리 가물어도 항상 물이 흐르고 마르지 않는 샘이라하여 붙여진 이름이 바로 ‘가뫼물’이다.가뫼물에는 방문객에게 농촌의 정서와 아낌없는 자연과의 소통을 느낄 수 있도록 다양한 농촌생태체험이 준비되어 있다. 나비와 곤충, 파충류, 타조, 알파카 등을 직접 관찰할 수 있는 체험장이 있으며, 총면적 2만평 부지로 감귤 품종 다양화를 통하여 언제든 감귤을 딸 수 있는 1년 연중 감귤따기 체험 농장 프로그램을 운영하고 있다. 봄에는 한라봉, 진지향, 청견, 세미놀, 카라향, 여름에는 카라향, 블루베리, 난방하우스감귤, 가을에는 극조생노지감귤, 겨울에는 노지감귤을 직접 따서 마음껏 먹어볼 수 있으며, 감귤로 만드는 감귤 피자, 감귤 잼, 감귤 비누, 감귤 초콜릿 칩 등 만들기 체험도 동시에 즐길 수 있다. 이 외에도 농촌교육농장을 운영하며 농업활동이 이루어지는 농촌의 인적, 물적 자원을 바탕으로 전문 강사 지도의 교육프로그램을 제공하고 있다.수목원테마파크(수목원 야시장길 &amp; LED 공원) 제주시 은수길 69 제주시에 위치하고 있으며, 제주공항에서 대중교통을 이용하면 15분 안에 도착할 정도로 도시와의 인접성이 좋다. 또한 뒤편에는 제주의 아마존이라 불리는 한라수목원이 있어 ‘도심 속 휴양지’라는 별칭이 가장 잘 어울리는 곳이다. 수목원테마파크에서는 단순한 자연 탐방 뿐만이 아니라, 아이스 뮤지엄, 수목원길 야시장, 먹거리 시장, LED 공원 등의 각양각색의 콘텐츠가 구비되어 있다.수목원테마파크 소나무 군락지에서 열리는 야시장은 다른 야시장과는 분위기가 사뭇 다르다. 숲 속을 밝힌 LED 조명과 푸드트럭, 프리마켓, 포토존마다 아기자기한 콘텐츠가 넘친다. 이렇듯 단순한 자연관광지의 기능을 뛰어넘어 제주도의 밤을 알차고 로맨틱하게 즐길 수 있는 도심 속 복합관광지다.옷귀 편백숲 승마서귀포시 남원읍 서성로 955-117 ▲ 사진출처=제주관광공사 의귀리는 헌마공신 김만일 공의 고향이며, 말의 고장이다. 옷귀 편백숲 승마는 의귀리의 깨끗하고 청정한 편백나무 숲과 비자나무 숲, 푸른 초원이 펼쳐진 장소에서 즐거운 체험승마를 경험할 수 있는 곳이다.강습이 포함된 1시간 교육 프로그램인 강습 승마는 승마가 익숙하지 않은 초보자에게 안성맞춤인 프로그램으로 마사에서 말을 끌고 나오는 것부터, 코치님의 강습과 함께 차근차근 승마를 배워나갈 수 있다. 총 10.5km의 삼나무 숲길을 말들과 함께 자유롭게 산책하는 외승 코스, 10월~4월까지 표선 해변에서 즐길 수 있는 해변 외승 코스, 오전에 출발하여 성판악 구간까지 체험하고 돌아오는 1일 코스의 산악 트레킹 프로그램을 운영하고 있다. 서미영 기자 pepero99@chosun.com 관련뉴스 지친 몸 힐링하러 인천으로 갈까? 인천시, 웰니스관광지 5곳 신규 선정 코로나로 지친 몸 힐링하러 가기 좋은 곳…한국관광공사, 2020 '웰니스 관광지' 9곳 신규 선정 최신뉴스 Copyright ⓒ 디지틀조선일보&amp;dizzo.com</t>
+  </si>
+  <si>
+    <t>제주도 관광지 코로나 방역 총력...수영장서도 2m '거리두기' - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 관광지 코로나 방역 총력...수영장서도 2m '거리두기' 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도 관광지 코로나 방역 총력...수영장서도 2m '거리두기' 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2020.07.06 11:44 댓글 1 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주도, 관광사업체 848곳 방역상황 집중 점검 여름 휴가시즌을 맞아 제주도 입도 관광객들이 크게 늘고 있는 가운데, 제주특별자치도가 코로나19 방역을 위해 총력적 대응체제로 전환했다. 관광지는 물론 호텔 등 숙박시설에서 방역수칙 이행을 강화하는 한편, 호텔 실내 수영장에서도 사람들간 2m 간격을 유지할 것을 강력히 권고하고 나섰다. 제주특별자치도는 여름철 관광 성수기를 맞아 이달부터 8월31일까지 행정시 및 관광공사, 관광협호 등 유관기관 합동으로 관광사업체에 대한 집중적 방역점검을 실시한다고 6일 밝혔다. 이를 위해 제주도는 19개조 38명으로 현장 점검팀을 구성하고, 관광숙박업 및 휴양펜션업, 유원시설업, 이용시서럽, 관광식당업 등 도내 848개 관광사업체를 대상으로 코로나19 확산 방지를 위한 주기적 방역과 이행수칙 준수 여부 등을 확인하기 위한 현장점검에 나선다. 특히 여름철 수영장 이용이 급증할 것을 고려해 호텔․펜션 등 숙박시설 내 수영장을 중심으로 실제 운영사항 파악과 방역 관리에 대한 사전 점검을 진행한다. 우선 숙박시설 내 수영장 현장 점검은 본격적인 여름 성수기 시작 전 완료를 목표로 지난 6월 30일부터 오는 17일까지 진행중이다. 이를 통해 일광용 의자 등 공용시설 2m 간격 유지, 탈의실(락커룸) 한칸씩 띄워 사용하기, 수영장내 다른 사람과 2m 이상 간격 유지하고 신체 접촉 및 대화 자제하기 등을 유도할 방침이다. 숙박시설 내 수영장은 방역 지침 적용 대상으로 명시되지 않았으나 감염 예방을 위한 관리에 미흡함이 없도록 이용자, 책임자‧종사자로 구분된 상세 지침(하단 첨부)를 배부하고 출입 명부를 작성해 이용객들을 관리할 계획이다. 이와 함께 실내 관광지에서는 마스크 착용 및 열 감지 체크 여부와 이용객 동선 분리 등의 사항이 중점적으로 확인된다. 제주도는 실내 밀폐형 관광지(10개소)와 야외관광지 내 실내전시관(20개소)에 대해 사전 예약제를 운영하고 있으나, 실내 사설 관광지에 대해서도 사전예약제를 권고해 시간당 실내 동시 관람객 수 제한을 유도할 계획이다. 한편 지난 7월 1일부터 3일까지 관광사업체를 찾아 방역 지도 관리와 관광 수용 태세를 재정비한 결과, 대부분의 사업체가 방역관리자를 지정하고 자율 방역을 주 1회 이상 실시하며 코로나19 확산 방지를 위해 노력하는 것으로 나타났다. 대부분의 관광지들은 곳곳에 손소독제를 비치하고, 종사자들은 마스크 착용한 상태로 근무하고 있는 것으로 나타났다. 관광사업체 자체적으로 매일 또는 주1회 이상 수시로 방역하거나, 방역 전문업체에 의뢰해 방역을 진행하는 곳들도 있는 것으로 조사됐다. 코로나19 소독방역 완료 시간을 안내하고 손 씻기, 마스크 착용 준수에 대한 철저한 홍보로 입소문을 타고, 코로나19 이전보다 매출이 증대한 업소도 있는 것으로 분석됐다. 또한 관광숙박업과 휴양펜션업소에서는 객실 방역 및 환기 실시, 매주 2회 이상 로비, 복도 등 공용 이용부분에 대한 자체 소독이 실시되고 있는 것으로 확인됐다. 호텔 자체적으로 열화상카메라를 설치해 운영하거나, 마스크 미착용 시 출입을 금지하고 자체 문진표를 받는 곳과, 소독제를 비치하고 투숙객들이 휘트니스센터를 이용할 시 직접 운동 기구를 소독한 뒤 이용토록 하는 호텔도 있었다. 제주도는 아울러 건전관광질서 계도반을 활용해 방역사항을 점검하고, 관광시설에 대한 집중 단속도 병행할 계획이다. 민관합동으로 주 3회 이상 무등록 숙박업소에 대한 단속을 실시하는 한편 유원시설, 야영장 등 미등록 사업체에 대한 점검도 진행한다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 1 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 손바닥으로 하늘 가리기 2020-07-06 12:31:19 | 39.***.***.87 더보기 삭제하기 수정하기 도대체 이게 실제적으로 지켜질 것이라고 보는가? 강력하게 권고한다고 했는데 안지키면 어떻게 할건데? 손바닥으로 하늘을 가릴수 있나? 답글쓰기 2 0 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 내국인 관광객 유치 재개 ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항투데이제주도, 내국인 관광객 유치 재개 홍수현2020년 07월 03일 07시 20분 00초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 코로나19로 침체된 관광산업을 되살리기 위해 내국인 관광객 유치 활동이 재개됩니다. 제주도는 도내 관광업계와 관광지 방역과 예방수칙 이행 등 안전관광을 전제로 자율적인 내국인 관광객 유치활동에 돌입하기로 했다고 밝혔습니다. 또 코로나19 사태로 어려움을 겪고 있는 여행업체 100곳에 여행객 방역키트를 전달하고, 관광상품 홍보비도 지원합니다. 올들어 제주를 찾은 관광객은 453만 명으로 지난해 같은 기간보다 38% 감소했습니다. 홍수현michael1116@jejumbc.com 최신 뉴스 뉴스투데이2022년 10월 11일 08시 31분 35초개교 100년 넘은 학교도 저출산으로 학생수 급감2022년 10월 11일 07시 20분 00초 고질체납차량·비과세 감면차량 일제 조사2022년 10월 11일 07시 20분 00초 홍해삼·전복 수산종자 91만 마리 방류2022년 10월 11일 07시 20분 00초휘발류보다 비싼 경유..디젤 차량 등록 첫 감소2022년 10월 11일 07시 20분 00초제주 해녀 10년 동안 1천200여 명 감소2022년 10월 11일 07시 20분 00초 오늘 맑고 찬바람 강해 쌀쌀‥내일 아침기온 뚝2022년 10월 11일 07시 20분 00초강원영동) 고향사랑기부금제 내년 도입2022년 10월 11일 07시 20분 00초(인터뷰)재일제주인 연구에 평생2022년 10월 11일 07시 20분 00초연중기획-마을공동체가 여행사업에 참여(리포트)2022년 10월 11일 07시 20분 00초제주도, 내국인 관광객 유치 재개 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
+  </si>
+  <si>
+    <t>제주도, 내국인 관광객 유치 재개 ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항뉴스데스크제주도, 내국인 관광객 유치 재개 홍수현2020년 07월 02일 20시 10분 00초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 코로나19로 침체된 관광산업을 되살리기 위해 내국인 관광객 유치 활동이 재개됩니다. 제주도는 도내 관광업계와 관광지 방역과 예방수칙 이행 등 안전관광을 전제로 자율적인 내국인 관광객 유치활동에 돌입하기로 했다고 밝혔습니다. 또 코로나19 사태로 어려움을 겪고 있는 여행업체 100곳에 여행객 방역키트를 전달하고, 관광상품 홍보비도 지원합니다. 올들어 제주를 찾은 관광객은 453만 명으로 지난해 같은 기간보다 38% 감소했습니다. 홍수현michael1116@jejumbc.com 최신 뉴스 뉴스투데이2022년 10월 11일 08시 31분 35초개교 100년 넘은 학교도 저출산으로 학생수 급감2022년 10월 11일 07시 20분 00초 고질체납차량·비과세 감면차량 일제 조사2022년 10월 11일 07시 20분 00초 홍해삼·전복 수산종자 91만 마리 방류2022년 10월 11일 07시 20분 00초휘발류보다 비싼 경유..디젤 차량 등록 첫 감소2022년 10월 11일 07시 20분 00초제주 해녀 10년 동안 1천200여 명 감소2022년 10월 11일 07시 20분 00초 오늘 맑고 찬바람 강해 쌀쌀‥내일 아침기온 뚝2022년 10월 11일 07시 20분 00초강원영동) 고향사랑기부금제 내년 도입2022년 10월 11일 07시 20분 00초(인터뷰)재일제주인 연구에 평생2022년 10월 11일 07시 20분 00초연중기획-마을공동체가 여행사업에 참여(리포트)2022년 10월 11일 07시 20분 00초제주도, 내국인 관광객 유치 재개 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 14:45 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N2 이전 다음 제주도관광협회, 1분기 이어 2분기 회비도 면제 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 경제 제주도관광협회, 1분기 이어 2분기 회비도 면제 김형훈 기자 승인 2020.07.02 10:41 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도관광협회가 코로나19로 인한 회원사들의 어려움을 감안해 1분기에 이어, 2분기 회비도 면제해주기로 했다. 제주도관광협회는 올해 초에 터진 코로나19로 회원사들이 직격탄을 맞자 1월부터 3월까지 1분기 회비 2억6000만원을 면제했다. 그럼에도 여전히 상황이 나아지지 않자 2분기(4~6월) 회비 2억6000만원도 면제하는 조치를 내렸다. 제주도관광협회는 이에 따라 경상경비 삭감, 관리비 및 인력 감축을 지속적으로 유지하는 등 고통분담에 적극 동참할 계획이다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 김형훈 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 6코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>[전문] 원희룡 지사, 여름 휴가철 제주도 방문 관광객 예방수칙 관련 담화 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 [전문] 원희룡 지사, 여름 휴가철 제주도 방문 관광객 예방수칙 관련 담화 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 [전문] 원희룡 지사, 여름 휴가철 제주도 방문 관광객 예방수칙 관련 담화 편집팀 iheadline@hanmail.net 승인 2020.07.01 12:33 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 원희룡 제주도지사는 1일 코로나19 상황 속에서 여름 휴가철을 맞아 제주도 관광객들이 크게 증가할 것으로 예상됨에 따라 제주를 찾는 국민들에게 전하는 예방수칙 관련 담화를 발표했다. 다음은 원 지사의 발표문 전문. 국민 여러분, 안녕하십니까 코로나19 사태로 인해 해외여행이 봉쇄되면서 이번 7~8월 휴가철에 하루 4만명 이상의 관광객이 제주를 방문할 것으로 전망되고 있습니다. 코로나19로 우리 일상이 바뀌게 된 지 벌써 반년이 지났습니다. 국민들께서 답답하고 지친 마음을 위로하고자 제주를 찾아주시는 발걸음 충분히 이해하고 환영합니다만, 단, 코로나19 확산 방지에 적극 동참하는 개념도 가지고 오시길 바랍니다. 저희는 마냥 기쁜 마음으로 여러분을 반길 수는 없습니다. 제주도는 현재까지 지역감염이 전혀 없는 지역이지만, 이것이 감염의 우려로부터 제주가 완전히 안전하다는 뜻은 아닙니다. 제주에서 발생한 코로나19 확진자 19명 중 18명이 모두 제주 바깥에서 감염된 후 유입된 사례였습니다. 나머지 1명도 확진자의 밀접 접촉자였습니다. 여러분, 코로나 사태는 아직 끝나지 않았습니다. 최근 여행객들이 해수욕장 등 관광지에서 마스크를 착용하지 않는 모습이 눈에 띄게 늘었습니다. 감염확산 위험이 여전하고 전국적으로 매일 20~30명의 지역감염이 발생하는 상황에서 서울 도심 어디에서도 벗지 않는 마스크를 제주도라고, 여행을 왔다고 벗는다는 건 안됩니다. 저는 지난 5월 초 황금연휴기간 국민 여러분께 다음과 같이 부탁드렸습니다. “가급적 제주로의 여행을 자제해 주십시오. 그래도 오시겠다면자신과 이웃, 청정 제주를 지킬 수 있도록 만반의 준비를 갖춰주시기 바랍니다. 방역의 관점에서 필요한 불편은 감수해 주셔야 합니다. ” 국민들께 지금 다시 한 번 부탁드립니다. 제주는 70만 도민들의 생활의 터전입니다. 제주는 모든 국민의 힐링을 위한 곳이지 코로나19의 도피처가 아닙니다. 코로나19 확산은 개인의 문제가 아닌 공동체의 문제인 만큼 여행객 한 분 한 분께서는 반드시 마스크를 착용해주시고 예방 수칙을 반드시 준수해 주십시오. 만약, 증상이 있음에도 마스크를 쓰지 않는 등 방역 수칙을 제대로 지키지 않고 제주여행을 무리하게 강행하다 확진되는 경우 제주는 그에 상응하는 책임을 반드시 물을 것입니다. 무엇보다 발열, 기침 등 미미한 증상이라도 나타나는 경우에는 즉시 1339 또는 보건소로 신고하셔야 합니다. 도움을 요청하시는 분은 철저히 보호하고 지원하겠습니다. 제주도는 동선이 분리된 검사와 진료 시스템을 완비하였고, 음압병실 등 의료자원에 여력이 있습니다. 적극적으로 지원을 요청하십시오. 가장 강력한 방역대책은 여행객 여러분의 자발적인 협조와 이해입니다. 현재 제주도정에서는 청정 제주를 지키기 위해 휴가철을 대비하여‘관광방역체계’를 재점검하고 2차 대유행을 대비해 ‘제주형 방역전략’을 수립하고 있습니다. 특히, 확진자의 이동 동선을 파악하고, 방역수칙을 충실히 이행하여 안심하고 이용할 수 있는 식당, 카페를 안내하는 ‘제주형 방역 어플리케이션’을 개발하고 있습니다. 도정은 앞으로도 제주도민에서 더 나아가 제주를 방문하시는 전 국민의 안전을 지키는 일에 온 행정력을 집중할 것입니다. 국민 한 분 한 분이 방역의 주체라는 것을 제주에서부터 증명해보일 수 있도록 수칙을 철저히 지켜주시기 바랍니다. 감사합니다. 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 원희룡 지사 "제주여행 코로나 유증상자, 상응하는 책임 물을 것" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 코로나 극복 위해 2분기 회비 면제 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 제주도관광협회, 코로나 극복 위해 2분기 회비 면제 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도관광협회, 코로나 극복 위해 2분기 회비 면제 문유미 기자 승인 2020.07.01 14:01 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도관광협회가 코로나19로 큰 피해를 입은 도내 관광업계와의 고통 분담을 위해 1분기에 이어 2분기 회비도 전액 면제키로 했다. 제주도관광협회(회장 부동석)는 코로나19 장기화로 관광객 입도 추세가 호전되지 않고 도내 관광사업체들의 경영여건이 여전히 최악의 상태를 벗어나지 못 하고 있는 점을 고려해 올 1분기에 이어 2분기 회비(약 2억6000만원)도 전액 면제키로 했다고 1일 밝혔다. 도관광협회는 약 5억2000만원의 1·2분기 회비 면제에 따른 예산 감축에 따라 경상경비 및 관리비 삭감과 인력 감축 등을 지속적으로 추진하는 등 고통 분담에 적극 동참한다. 아울러 도내 관광사업체 등의 고용유지지원금 신청이 원활히 진행될 수 있도록 고용지원센터에 오는 9월 15일까지 인력을 파견할 계획이다. 도관광협회 관계자는 “관광사업체들의 코로나19 위기 극복을 위해 최선의 노력을 기울일 것”이라고 말했다. 문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>KT 빅데이터 선정 6월 제주도 인기 급상승 관광지는 '혼인지' - 이투데이 속보창 구독신청 RSS 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 기업 전자/통신/IT KT 빅데이터 선정 6월 제주도 인기 급상승 관광지는 '혼인지' 입력 2020-07-12 09:00 김우람 기자																								구독하기 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 12일 제주도 주요 관광지·방문객 분석 발표 (KT 제공)제주도 대표적인 연못인 혼인지가 6월 가장 높은 방문객 수 증가세를 보였다. 5월 대비 3배가 넘는 증가세를 보이며, 인기 급상승 관광지로 자리잡았다. KT는 이런 내용을 담은 올해 제주도 주요 관광지와 방문객을 빅데이터로 분석을 12일 공개했다.6월 제주 관광지 별 방문객 수를 집계한 KT 빅데이터 분석 결과에 따르면 혼인지(368.18%), 화순곶자왈생태탐방숲길(204.01%), 한라생태숲 및 제주마방목지 일대(134.79%), 엉또폭포(130.26%), 비치미오름(121.36%) 순으로 전월 대비 관광객 수가 늘어난 여행지로 집계됐다. 관련 뉴스 대웅, 대웅제약 소송 장기화 가능성 부담 ‘투자의견↓’-KTB증권 KT, 영국 BBC와 '뽀로로' 출연 자연다큐 10일 공개 KT 요구에 어쩔 수 없이 입찰 참여했다는 세종텔레콤…법원 “담합 맞다” 5월엔 전월대비 카멜리아힐(202.98%), 롯데스카이힐CC 일대(168.11%), 수백 개의 기암괴석으로 구성된 오백나한(157.80%), 제주돌문화공원 및 에코랜드(155.33%), 제주 항파두리 항몽 유적지(154.21%) 등으로 증가세로 나타났다.연령대별로 인기가 높은 제주도 관광지도 차이를 보였다. 6월 방문객을 기준으로 20대가 가장 많이 찾은 관광지는 이중섭 문화거리, 30대는 쌍용굴 및 협재굴이었다. 40대 및 50대는 서귀포매일올레시장을 많이 찾았으며, 60대는 우도 성산포유람선, 70대는 중문관광단지에서 관광을 목적으로 방문한 인구가 제일 많은 것으로 분석했다.이밖에 코로나19 확산 이후 제주 여행객의 연령대도 변화가 일어났다. 코로나19가 본격화된 2월 제주도를 찾는 방문객 중 20대는 전월 대비 42.52% 줄어 가장 큰 감소 폭을 보였다. 또 5월 제주도 방문객 중에서 30대는 전월 대비 44.99% 늘어 가장 많은 증가세를 보였다. 6월에는 30대는 전월 대비 5.77% 증가했다.국내 공항을 이용하는 관광객 수도 늘고 있다. 김포공항의 경우 코로나19가 본격화된 올해 2월 이용자 수가 전월 대비 39.28%, 전년 동기 대비 25.35% 급감했다. 하지만 3월 이후 회복하기 시작해 5월에는 전월 대비 20% 정도 회복됐다.김채희 KT AI/BigData사업본부장(상무)은 "코로나19로 인해 변화한 여행 트렌드를 빅데이터 통계를 통해 확인할 수 있었다"며 "KT는 빅데이터 통계를 기반으로 고객과 국민들에게 유익한 정보를 지속적으로 제공하겠다"고 말했다. #KT 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 [이슈크래커] ‘무비자 여행 개시’ 일본 어디 갈까…日관광청 추천 10월 최고의 여행지는? 일본이 2년 7개월 만에 무비자 관광을 재개하면서 일본이 올 가을 최고의 여행지가 될 전망이다. 게다가 엔저 덕분에 유럽이나 미국보다 상대적으로 통화가치가 낮아 비용 부담도 덜 수 있다. 가을 정취를 즐길 수 있는 단풍 명소뿐만 아니라 먹거리와 트래킹, 핼러윈 축제 등이 여행객을 기다린다. 국내 여행사들은 앞다퉈 특가 항공권을 내놓 [영상] ‘무소음 이동’이 가능한 미국의 차세대 전차 ‘에이브럼스 X’ 공개 최근 미국 군수산업체 제너럴 다이내믹스사에서 미군의 차세대 전차 ‘에이브럼스 X’의 영상을 공개했습니다. 에이브럼스 X에는 신형주포, 하이브리드 엔진, 유무인복합체계 등이 적용 됐다고 하는데요. 놀라운 것은 에이브럼스 X에 장착되는 하이브리드 엔진은 연료 소모를 기존보다 50% 줄이고 ‘무소음 기동’도 가능하다고 합니다. 미국 차세대 [국감 핫이슈] ‘감사위원 배석’ 두고 여야 2라운드 공방 여야가 국회 법제사법위원회 감사원 국정감사에서 감사위원 배석 여부를 두고 충돌했다. 야당은 서해 공무원 피격사건 감사와 관련해 '감사위원회 패싱' 문제를 확인해야 한다고 주장했고, 여당에서는 '특정사안감사'는 문재인 정부 당시에도 많았다며 감사위원 배석이 불필요하다고 반박했다. 더불어민주당 국회 법사위 간사인 기동민 의원은 1 尹, 북한 전술핵에 “걱정 말라”…핵무장 여지도 남겨 윤석열 대통령은 11일 북한이 ‘전술핵 운용 훈련’을 했다고 밝히며 위협 수위를 높인 데 대해 한미일 안보협력을 통해 대비하겠다며 “걱정 말라”고 말했다. 윤 대통령은 이날 용산 대통령실 청사 출근길에 기자들과 만나 “북핵 위협이 날로 심각해지고 있다. 누누이 강조했지만 굳건한 한미동맹과 한미일 안보협력을 바탕으로 아주 견고한 대응 KDI "경기 회복세 약화...반도체ㆍ대중수출 부진 경기하방 위험↑" 한국개발연구원(KDI)이 두 달째 우리 경제의 회복세가 약화하고 있다는 진단을 내렸다. KDI는 11일 발간한 '10월 경제동향'에서 "최근 우리 경제는 내수가 일부 개선됐으나, 대외 여건 악화에 따른 수출 부진으로 경기 회복세가 약해지는 모습"이라고 분석했다. KDI의 이같은 진단은 지난달 '9월 경제동향' 발표에 이어 두번째다. KDI에 따르면 10월 초 무역수지 38억 달러 적자…글로벌 위기에 '빨간불' 계속 조업일수 줄어들고 분기초 빠지는 탓 반도체도 단가 하락으로 수출 감소해 중심축인 美·中 모두 무역수지 적자 "각국 금리·긴축 기조 영향 지켜봐야" 무역수지의 빨간불이 꺼지지 않고 있다. 수출이 많이 감소한 탓에 4~9월까지 6개월 연속 적자 흐름을 이어가고 있으며 국제 경기가 좋지 않은 상황이라 이번달 무역수지도 어두운 상황이다. 11 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 SRT 2018년부터 1만 7172회 늦어 KTX, 16분 미만은 지연으로 불포함 선로관리 미흡 등으로 열차 지연돼 유경준 의원 "철저한 관리 필요해" 서울 강남구에서 세종으로 출퇴근하는 공무원 전 모 씨는 고속열차를 이용하기 위해 수서역으로 향했다. 수서역에서 오송역에 내리자마자 출근 버스를 타야 하기에 시간에 맞춰 열차를 예매했지만, SRT가 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 73.6일간 정지…총 232건 발생 불시정지, 경영평가 항목 포함 서부발전 피해액만 33억원가량 엄태영 의원 "최대한 예방 必" 한국전력공사의 발전자회사 5곳이 지난 5년간 발전소 불시정지 사고로 78억 원가량 손해를 본 것으로 나타났다. 인적 과실로 인한 피해도 12건이나 발생했다. 이에 사전 점검 등 더 철저한 발전소 관리가 필요하다는 지적 많이 본 뉴스 01 선우은숙, 4살 연하 유영재 아나운서와 결혼…“혼인신고 마쳐” 02 전장연, 지하철 4호선 출근길 시위…“지연 우려” 03 [오늘의 증시] 래몽래인·코아스템·켐온·비케이탑스 등 04 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 05 신화 신혜성, 음주측정 거부해 현행범 체포…차량은 도난 의심 06 [Bit코인] 리플 주도 상승세 꺾여…“비트코인, 변동성 폭발·하락 경고” 07 ‘결혼지옥’ 외도 2번 저지른 79세 남편…“내연녀, 우수한 대학 성적 보기 좋더라” 08 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 09 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 10 ‘공사중단’ 둔촌주공, 상가 갈등에 발목 잡히나 최신 영상 ‘무소음 이동’이 가능한 미국의 차세대 전차 ‘에이브럼스 X’ 공개 // 이투데이TV 기업 최신 뉴스 점유율 격차 불과 2%…치열해지는 ‘롯데 VS 빙그레’ 빙과대전 돼지열병 우려에 소비심리 위축까지…‘金돼지’에 대형마트 ‘예의주시’ 유럽 경제통화위원회, '미카(MiCA)' 법안 28대 1로 승인…시장 영향은? 게임시장 진출 노크하는 넷플릭스…첫 라인업은 ‘고양이와 스프’ 서울우유, 치즈 가격 20% 인상…“원재룟값 상승 여파” 한국필립모리스, 한국산업 고객만족도 궐련형 전자담배 2년째 1위 대우조선해양, 그리스 최대 해운사로부터 29억 기부금 받아 최태원 “과학기술 없이 탄소중립 못 해...정책·제도적 지원 필요” 삼표-KCL, ESGㆍ자원순환체계 구축 업무협약…폐배터리 재활용 위한 순환체계 구축 추진 "노동시장 이중구조 완화해야 ESG 경영 수월해질 것" 뉴스발전소 [이슈크래커] '무비자 여행 개시' 일본 어디 갈까…日관광청 추천 10월 최고의 여행지는? 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] '비에니끄' 의류 선보이는 모델들 마켓 뉴스 특징주 투자전략 코아스템·켐온, 합병 소식에 상한가·28% 강세 LG에너지솔루션, 증권가 목표가 상향에 강세 CJ대한통운, 8만원 붕괴…‘신저가’ 경신 HMM, 52주 신저가 SCI평가정보, 기준금리 인상 가능성에 강세 “LG화학, 양극재 판매량 증가로 매출액, 영업익 모두 개선...목표가 7% 상향” “IT, 기대감이 주가 견인…추가 상승 모멘텀 ‘글쎄’” 메리츠증권 “불확실성 여전…10~11월 변동성 확대 구간” “LG생활건강, '위안화 약세'로 따이공 구매력 하락'에 3분기 영업익 부진...목표가 9% 하향” “삼성전자, 2019년 1분기와 비슷…단기 반등 가능” 오늘의 상승종목 10.11 14:33 20분지연 코스피 코스닥 1.다이나믹디자인 3,200 2.화천기계 1,050 3.유니온머티리얼 380 4.STX 525 5.베트남개발1 47 1.동국알앤에스 1,030 2.코아스템 2,680 3.켐온 585 4.테라셈 14 5.코디엠 166 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 27,355,000 -1.25% 이더리움 1,832,000 -2.66% 비트코인 캐시 159,900 -4.19% 리플 704.8 -6.46% 위믹스 2,417 -4.84% 에이다 569.1 -5.48% 이오스 1,496 -6.67% 트론 88.46 -2.92% 스텔라루멘 177.4 -2.63% 비트코인에스브이 68,350 -3.26% 체인링크 10,360 -4.34% 샌드박스 1,133 -4.79% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
+  </si>
+  <si>
+    <t>제주도, 여름 성수기 '바가지' 잡고 '공정관광' 조성 나선다 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 제주도, 여름 성수기 '바가지' 잡고 '공정관광' 조성 나선다 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 여름 성수기 '바가지' 잡고 '공정관광' 조성 나선다 현대성 기자 승인 2020.07.05 18:59 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 여름철 관광 성수기를 맞은 제주특별자치도가 코로나19 사태를 틈탄 ‘바가지 요금’을 억제하고 ‘공정관광’ 환경 조성에 나선다. 제주도는 ‘2020년 하계 휴가철 피서지 물가안정 대책’을 수립하고, 오는 9월 18일까지 물가관리 특별대책 기간을 운영한다. 물가관리 특별대책 주요 내용은 ▲민·관 협력을 통한 피서지 물가관리 ▲해수욕장 등 피서지 불공정거래 행위방지 활동 강화 ▲지방공공요금 및 개인서비스요금 안정관리 강화 등이다. 제주도는 이를 위해 제주도 경제정책과·보건건강위생과·관광정책과·동물방역과·해양산업과가 참여하는 물가안정 관리체계를 구축한다. 제주도는 행정안전부-제주도-양 행정시로 이어지는 물가대책 종합상황실을 운영, 물가 인상 대응 체계를 유지한다. 제주도는 계절음식점을 포함한 개인 서비스업소 요금 및 호텔 등 숙박료·콘도이용로 과다 및 부당 인상 행위, 담합에 의한 부당한 요금인상 행위를 중점적으로 점검한다. 피서철 해수욕장 자릿세 징수 행위와 파라솔, 튜브 등 피서용품 대여료 적정성 점검에도 나선다. 또 축산물 계량위반행위, 섞어팔기, 부정축산물 유통과 도내 대형마트 및 슈퍼마켓의 가격 표시제 및 원산지 표시제이행 여부도 점검해 ‘공정관광’ 조성에 총력을 기울일 방침이다. 제주도는 아울러 피서지 불량식품 근절을 위한 식품 위생과 먹거리 안전 집중점검에 나서고, 개인서비스업 종사가가 적정 요금을 징수하고 호객 행위를 하지 않도록 사전 교육을 실시한다. 제주도는 효과적인 지도·점검을 위해 소비자단체 등 유관기관과 합동 점점반을 편성해 활동하고, 피사지 상인회 등과 물가 안정 협조 체계를 강화한다. 제주도는 이에 더해 오는 9월 18일까지 피서지 부당요금 신고센터를 운영하고, 제주도 홈페이지 등에 외식비 등 개인 서비스 요금을 공개해 바가지 요금을 근절할 계획이다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 관련기사 ‘특별 여행주간’ 첫 주말, 제주관광 회복세 ‘미미’ 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>KT, 빅데이터로 본 제주도 '생태 관광지'로 회복세 닫기 Search #글로벌 #시승기 #애플 #삼성전자 #유럽 #카드뉴스 닫기 전체기사 글로벌비즈 종합 금융 증권 산업 ICT 부동산·공기업 유통경제 ESG경영 오피니언 GETV 전체기사 글로벌비즈 미국·북미 중국 일본 아시아·호주 유럽 중남미·중동·아프리카 국제 글로벌CEO 종합 정치 경제 사회 전국 인물동정·인사·부고 기타 금융 은행 보험 카드 제2금융 금융일반 증권 해외증시 시황·전망 해외증시 특징주 해외증시 일반 국내증시 시황·전망 국내증시 특징주 국내증시 일반 암호화폐 산업 경제단체 전기·전자 자동차 중화학 항공·조선 반도체·디스플레이 철강 산업일반 ICT 통신·뉴미디어 IT일반 과학일반 게임 부동산·공기업 건설·부동산 분양 공기업 부동산일반 유통경제 식음료 패션∙뷰티 소비자 제약·바이오 유통일반 생활일반 ESG경영 기업지배구조 ESG일반 오피니언 기고 데스크칼럼 기자수첩 GETV 시승기 증권 메뉴 KT, 빅데이터로 본 제주도 '생태 관광지'로 회복세 글로벌모터즈 온타임즈 PDF지면보기 English 中文 ICT facebook twitter youtube 검색 메뉴 통신·뉴미디어 IT일반 과학일반 게임 공유 0 KT, 빅데이터로 본 제주도 '생태 관광지'로 회복세 연못인 혼인지, 화순곶자왈생태탐방숲길, 한라생태숲 및 제주마방목지 등 인기 한현주 기자 입력2020-07-12 09:11 KT, 빅데이터로 본 제주도 '생태 관광지'로 회복세이미지 확대보기제주도 여행 패턴 분석. 자료=KT 코로나19 여파로 급감한 해외여행과 달리 제주 여행은 빠른 회복세를 보이고 있는 것으로 나타났다. 코로나19에 대한 영향으로 기존 실내 인기 관광지보다는 오름, 휴양림 등 생태 관광지가 인기를 얻고 있는 것이다. KT가 올해 제주도 주요 관광지와 방문객을 빅데이터로 분석한 결과 제주도 내 생태 관광지의 관광객수가 큰 폭으로 증가했다고 12일 밝혔다. KT 빅데이터 분석 결과에 따르면, 오름, 휴양림 등 생태관광이 각광을 받고 있다. 전월과 비교해 5월에는 수국으로 유명한 카멜리아힐(202.98%), 롯데스카이힐CC 일대(168.11%), 수백 개의 기암괴석으로 구성된 오백나한(157.80%), 제주돌문화공원 및 에코랜드(155.33%), 제주 항파두리 항몽 유적지(154.21%) 등지가 방문객 수가 크게 늘었다. 6월에는 제주도의 대표적인 연못인 혼인지(368.18%), 화순곶자왈생태탐방숲길(204.01%), 한라생태숲 및 제주마방목지 일대(134.79%), 엉또폭포(130.26%), 비치미오름(121.36%) 순으로 전월 대비 관광객 수가 큰 폭으로 늘어난 여행지로 집계됐다. KT, 빅데이터로 본 제주도 '생태 관광지'로 회복세이미지 확대보기제주도 여행 패턴 분석. 자료=KT 연령대별로 인기가 높은 제주도 관광지도 차이를 보였다. 6월 방문객을 기준으로 20대가 가장 많이 찾은 관광지는 이중섭 문화거리, 30대는 쌍용굴 및 협재굴이었다. 40대 및 50대는 서귀포매일올레시장을 많이 찾았으며, 60대는 우도 성산포유람선, 70대는 중문관광단지에서 관광을 목적으로 방문한 인구가 제일 많은 것으로 분석했다. 이밖에 코로나19 확산 이후 제주 여행객의 연령대도 변화가 일어났다. 코로나19가 본격화된 2월 제주도를 찾는 방문객 중 20대는 전월 대비 42.52% 줄어 가장 큰 감소 폭을 보였다. 또한 5월 제주도 방문객 중에서 30대는 전월 대비 44.99% 늘어 가장 큰 증가 폭을 보였다. 6월에는 30대는 전월 대비 5.77% 증가했다. 한편, KT가 발표한 빅데이터 통계에 따르면 국내선 탑승객들이 이용하는 김포공항 및 제주공항은 방문객 수가 빠르게 회복 중인 것으로 나타났다. 김포공항의 경우 코로나19가 본격화된 올해 2월 이용자 수가 전월 대비 39.28%, 전년 동기 대비 25.35% 급감했다. 하지만 3월 이후 회복하기 시작해 5월에는 전월 대비 20% 정도 회복됐다. KT 빅데이터 자료에 대한 상세한 내용은 KT 빅사이트와 KT 통신 빅데이터 플랫폼에서 확인할 수 있다. KT AI/BigData사업본부장 김채희 상무는 “코로나19로 인해 변화한 여행 트렌드를 빅데이터 통계를 통해 확인할 수 있었다”면서 “KT는 빅데이터 통계를 기반으로 고객과 국민들에게 유익한 정보를 지속적으로 제공하겠다”고 말했다. 한현주 글로벌이코노믹 기자 kamsa0912@g-enews.com [관련기사] KT, 화상회의 솔루션 '미디어박스 라이브' 출시 예정 KT 광화문사옥 코로나19 확진자 2일이어 1명 추가…재택근무 재연장 필리핀 뉴스 기본정보 무역 투자 비즈니스 여행 한-필리핀 FTA, 협상 개시 2년여 만에 타결 선언 2021.11.02 필리핀의 3대 보험제도 2021.10.21 필리핀 건설면허 종류와 발급 요건 2021.09.14 필리핀 외국인 취업허가증(AEP) 발급 요건 강화 2021.08.27 필리핀 다바오 시 인프라(항구·공항) 개발정보 2021.08.10 헤드라인 뉴스 대만 TSMC 주가 하락 충격 HSBC, 중국 서부 청두와 항저우에 지점설치 美, 부실한 아기 복지…옷·음식·기저귀 공급 부족 글로벌비즈 中인민은행, 경기부양 위해 9월 장기대출 PSL 21조원 제공 엔달러 환율 또 급등 일본 재무성 긴급 외환시장 개입 목표선 돌파 국제민간항공기구, '2050년까지 탄소중립' 합의...중국·인도, 기한 연장 요구 G-Ship Story 대선조선, 수은으로부터 RG 발급 받았다…6500만달러 상당 대우조선해양, 건조 중인 LNG선 화물창 실시간 관리한다 현대글로비스, 물류부터 해운까지 新사업 착착...지배구조 개편 신호탄 G-Military 인니 정부, 프랑스 라팔제치고 KF-21 개발에 매달리나 美육군의 업그레이드된 M1A2 SEPv4 에이브람스 탱크 프로토타입 '유출' 낙탄사고 일으킨 현무 미사일…K-국방 신뢰성 해칠까 우려 미래의 한류 스타 내로라하는 국내외 유명 안무가 총출동…춤의 진수 선보인다 양소영, 저돌적 추진력과 가공할 연습량 소지한 연기자…연기는 난생처럼 '잘하고 싶은 일' 봉다룬, 판소리·현대무용 연기에 심취…항상 목말라하는 공연계의 '히딩크' 오늘의 주요뉴스 코인베이스, 싱가포르 라이선스 획득 "주요 이정표" [초점] 미국 LNG 산업 폭발적 성장…유럽서 러시아 가스 대체 아우디, 美에 전기차 생산 거점 구상 중 글래스노드 "비트코인 '바닥'은 고래비용 기반 1만6천달러" [초점] ﻿美, OPEC+ 원유감산에 '묘책'이 없는 이유는? Hot 포토 김보라, '핀란드 파파' 여주인공 발탁…김우석과 호흡 블랙핑크 케이팝 최초 '빌보드 200' 메인 1위 석권 아이유·수지, 수해복구 성금 1억원씩 기부 우주소녀 '엠카' 출격…'라스트 시퀀스' 무대 많이 본 기사 1 10월 2주차, '테라리아' 2주 연속 10만명 몰려 2 삼성전자, 인도서 갤럭시버즈2프로 펌웨어업데이트 이후 소음문제 발생 3 여론전 나선 통신3사, 망 사용료법 표류 조짐에 반격 채비 4 엑스박스 없이 TV로만 게임하는 기기 '키스톤' 실물 사진 유출 5 '테라·루나 사태' 권도형, 19일 여권 무효화...신병확보 주목 글로벌 슈퍼리치 제프 베조스 전처 매켄지 스콧, 756억원 상당 비벌리힐스 저택 자선단체에 기부 할리우드 스타 소피아 베르가라, 비벌리힐스 맨션 257억원에 매각 예정 프로골퍼 비제이 싱, 300억 원 상당 하와이 저택 매각 예정 카메론 디아즈x벤지 메이든 커플, 몬테시토 맨션 1267만 달러에 구입 리얼시승기 아이오닉6 "수려한 디자인에 잘 다듬어진 주행성능 갖춰" 기아 셀토스 부분변경 "이미 완벽한데, 더 좋아졌네?" 벤츠 C200 4매틱 "젊어진 S클래스" 포르쉐 마칸 GTS "강렬한 존재감에 도로위 시선 집중" ICT 실시간 뉴스 55분전 피앤피시큐어, 마곡동 신사옥 '피앤피스테이션' 이전 엑스박스 없이 TV로만 게임하는 기기 '키스톤' 실물 사진 유출 파수, 새로워진 ‘랩소디’로 문서중앙화 완벽 대체 3시간전 롤러코스터 탔다고 119 출동?…아이폰14 충돌감지 기능 '시끌' 넥스지, 상일미디어고와 네트워크보안 인재양성 위해 맞손 넷플릭스 게임에 국산 힐링게임 '고양이와 스프' 출시된다 4시간전 日 인기 RPG '페르소나 5' 기반 카드게임 나온다 삼성전자, 인도서 갤럭시버즈2프로 펌웨어업데이트 이후 소음문제 발생 글로벌이코노믹 패밀리 사이트 온타임즈 글로벌모터즈 신문사소개 윤리강령 기사제보 광고문의 이메일무단수집거부 개인정보취급방침 청소년보호 및 고충처리인 불편신고 (우)04004 서울특별시 마포구 월드컵로62 서교동 한림빌딩 2층 (주)그린미디어 | 제호 : 글로벌이코노믹 | 대표전화 : 02-323-7474 등록번호 : 서울 아 02232 | 등록·발행일자 : 2012년 8월 9일 | 발행·편집인 : 박형준 | 편집국장 : 진성기 | 청소년보호책임자 : 이인수 글로벌이코노믹을 통해 제공되는 모든 콘텐츠(기사 및 사진)를 무단 사용·복사·배포시 저작권법에 저촉되며, 법적 제재를 받을 수 있습니다. Copyright © 2011 글로벌이코노믹. All rights reserved. mail to webmaster@g-enews.com</t>
+  </si>
+  <si>
+    <t>[SR경제&amp;라이프] KT, 빅데이터로 본 제주도 관광…생태 관광지 관광객수↑ - SR타임스 2022.10.11 (화) 사회적 책임 이끄는 종합인터넷신문 HOME전체기사보기로그인회원가입 지배구조 Organizational governance 소비자이슈 Consumer issues 공정운영 Fair operating practices 인권 Human rights 노동 Labour practices 환경 The environment 사회공헌 Community involvement and development SR포커스/해외SR 경제/라이프 오피니언 지자체의 SR 기사검색 이전 다음 로고 [SR경제&amp;라이프] KT, 빅데이터로 본 제주도 관광…생태 관광지 관광객수↑ 페이스북 트위터 구글 카카오스토리 메일 HOME 경제/라이프 IT·통신 [SR경제&amp;라이프] KT, 빅데이터로 본 제주도 관광…생태 관광지 관광객수↑ 김수민 기자 승인 2020.07.12 12:27:42 댓글 0 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사(권장) 가나다라마바사 가나다라마바사 가나다라마바사 메일보내기 인쇄하기 페이스북 트위터 구글 카카오스토리 ▲KT 제주도 여행 패턴 분석 인포그래픽. ⓒKT - 2월 제주공항, 김포공항 이용객 모두 급감했으나 3월부터 회복세 [SR(에스알)타임스 김수민 기자] KT가 올해 제주도 주요 관광지와 방문객을 빅데이터로 분석한 결과 제주도 내 생태 관광지의 관광객수가 큰 폭으로 증가했다고 12일 밝혔다. KT 빅데이터 분석 결과에 따르면, 오름, 휴양림 등 이른바 생태관광이 각광을 받고 있었다. 전월과 비교해 5월에는 수국으로 유명한 카멜리아힐(202.98%), 롯데스카이힐CC 일대(168.11%), 수백 개의 기암괴석으로 구성된 오백나한(157.80%), 제주돌문화공원 및 에코랜드(155.33%), 제주 항파두리 항몽 유적지(154.21%) 등지가 방문객 수가 크게 늘었다. 6월에는 제주도의 대표적인 연못인 혼인지(368.18%), 화순곶자왈생태탐방숲길(204.01%), 한라생태숲 및 제주마방목지 일대(134.79%), 엉또폭포(130.26%), 비치미오름(121.36%) 순으로 전월 대비 관광객 수가 큰 폭으로 늘어난 여행지로 집계됐다. 연령대별로 인기가 높은 제주도 관광지도 차이를 보였다. 6월 방문객을 기준으로 20대가 가장 많이 찾은 관광지는 이중섭 문화거리, 30대는 쌍용굴 및 협재굴이었다. 40대 및 50대는 서귀포매일올레시장을 많이 찾았으며, 60대는 우도 성산포유람선, 70대는 중문관광단지에서 관광을 목적으로 방문한 인구가 제일 많은 것으로 분석했다. 이밖에 코로나19 확산 이후 제주 여행객의 연령대도 변화가 일어났다. 코로나19가 본격화된 2월 제주도를 찾는 방문객 중 20대는 전월 대비 42.52% 줄어 가장 큰 감소 폭을 보였다. 또한 5월 제주도 방문객 중에서 30대는 전월 대비 44.99% 늘어 가장 큰 증가 폭을 보였다. 6월에는 30대는 전월 대비 5.77% 증가했다. 한편, KT가 발표한 빅데이터 통계에 따르면 국내선 탑승객들이 이용하는 김포공항 및 제주공항은 방문객 수가 빠르게 회복 중인 것으로 나타났다. 김포공항의 경우 코로나19가 본격화된 올해 2월 이용자 수가 전월 대비 39.28%, 전년 동기 대비 25.35% 급감했다. 하지만 3월 이후 회복하기 시작해 5월에는 전월 대비 20% 정도 회복됐다. 김채희 KT AI/BigData사업본부장(상무)은 “코로나19로 인해 변화한 여행 트렌드를 빅데이터 통계를 통해 확인할 수 있었다”며, “KT는 빅데이터 통계를 기반으로 고객과 국민들에게 유익한 정보를 지속적으로 제공하겠다”고 말했다. 김수민 기자  k8silver2@daum.net&lt;저작권자 © SR타임스, 무단 전재 및 재배포 금지&gt; 메일보내기 인쇄하기 트윗하기 김수민 기자의 다른기사 보기 icon관련기사 icon[SR경제&amp;라이프] KT 시즌, 신규 오리지널 콘텐츠 ‘아이들다방 3’ 론칭 icon[SR통신IT] 이통3사, 역대금 과징금 5G 투자 위축 '우려’ icon[SR공정운영] 방통위, 단통법 위반 이통3사에 512억 과징금 icon[SR통신IT] KT 클라우드, 금융 API 4종 출시 icon[SR경제&amp;라이프] KT, 한국판 뉴딜 성공 위해 ICT 역량 ‘올인’ icon[SR경제&amp;라이프] KT, 구독형 ‘포토북’ 서비스 출시 icon[SR경제&amp;라이프] NH농협은행, 대학생봉사단 화상교육 진행 icon[SR통신IT] NH농협은행, 올원뱅크에 이통3사 ‘패스 인증서’ 적용 icon현대HCN 본입찰 ‘임박’…SKT-KT스카이라이프 2파전 icon[SR통신IT] KT스카이라이프, 좋은라이프와 상조 결합상품 출시 위해 MOU icon[SR새상품] KT-하이트진로, ‘기가지니X진로 썸버 스페셜 패키지’ 출시 icon[SR통신IT] KT, 5G 융복합 사업 수요 맞춰 ‘5G 기업 망 슬라이스’ 개발 icon[SR통신IT] KT, 텔스타홈멜과 클라우드 기반 공장자동화 플랫폼 선봬 icon[SR경제&amp;라이프] KT, 차이나모바일과 K-콘텐츠 판매 계약 체결 icon인기기사 “다 함께 상생하는 사회 기원”…인추협, 국토 순례 대장정 시작 디즈니+ ‘안도르’·‘핑크 라이’...5일 공개 外 국힘, 세종시 의회 상병헌 의장 ‘불신임안’ 단독 기습 처리 부동산PF 대출 중단으로 유동성 위기감…삼성·LG전자, 3분기 수익성 악화 'LG카' 출시될까?…"가능성 충분" [지자체의 SR] “다 함께 상생하는 사회 기원”…인추협, 국토 순례 대장정 시작[지자체의 SR] “다 함께 상생하는 사회 기원”…인추협, 국토 순례 대장정 시작 기사 댓글 0개 전체보기 0/300 등록 첫번째 댓글을 남겨주세요. 여백 여백 소비자보호/이슈 김경만 의원 "안전 위반 어린이제품 수거율 32.2% 그쳐" 김경만 의원 "안전 위반 어린이제품 수거율 32.2% 그쳐" LG생활건강 '유아용 물티슈'서 가습기 살균제 성분 검출…'늦장 고지' 논란 LG생활건강 '유아용 물티슈'서 가습기 살균제 성분 검출…'늦장 고지' 논란 여백 지역사회와 함께 이봉창 의사 순국 90주기 추모식 거행 이봉창 의사 순국 90주기 추모식 거행 “다 함께 상생하는 사회 기원”…인추협, 국토 순례 대장정 시작 “다 함께 상생하는 사회 기원”…인추협, 국토 순례 대장정 시작 여백 소중한 환경 천혜 자연이라더니…세종 고복 자연생태공원 '녹초·악취' 몸살 천혜 자연이라더니…세종 고복 자연생태공원 '녹초·악취' 몸살 세종에 오래전 사라졌던 반딧불이  출현…"되찾은 수질 등 환경 좋아진 탓" 세종에 오래전 사라졌던 반딧불이  출현…"되찾은 수질 등 환경 좋아진 탓" 여백 여백 신문사소개 언론윤리 신문윤리강령 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 에스알미디어그룹  |   (우)04334 서울특별시 용산구 한강대로 102길 11-3 (용산구 동자동 41-6) 5층 SR타임스  |  대표전화 : 02-572-0451  |  팩스 : 02-572-0452 제호 : SR타임스  |  발행일 : 2014년 07월 07일  |  등록번호 : 서울 아 03041  |  등록일 : 2014년 03월 11일  |  편집인/발행인 : 장의식  |  편집국장 : 김두탁  |  청소년보호책임자 : 이정우 SR타임스의 모든 컨텐츠(기사)는 저작권법의 보호를 받습니다. 무단 전재·복사·배포 등을 금지합니다. Copyright © 2022 SR타임스. All rights reserved.  mailto : srtimes0311@daum.net Back to Top</t>
+  </si>
+  <si>
+    <t>KT, 빅데이터 분석 결과 발표…제주도 생태 관광지 방문 관광객수 큰 폭 증가 &lt; 전자/IT &lt; 산업 &lt; 기사본문 - 이코노뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 UPDATE : 2022-10-11 14:47 (화) 기사검색 검색 홈 로그인 회원가입 전체기사보기 rss 기업포커스 글로벌비즈 기업 정책 산업 전자/IT 자동차/항공/운송 건설/부동산 조선/철강/기계 유통 에너지/화학 연재 남영진 최성범 남경우 이동준 이현우 최충현 김홍국 이민주 김선태 박병호 하응백 한필이 김미영 김광신 창업 창업 고용 경제 정책 증권 금융 산업 증시 인물광장 오피니언 기자칼럼 인성교육 커피&amp;티 기고 화폐로 떠나는 세계여행 박병호의 중국견문록 신선윤의 당구이야기 카드뉴스 오늘의 명언 카드뉴스 그래픽 전체메뉴 버튼 본문영역 이전 기사보기 다음 기사보기 KT, 빅데이터 분석 결과 발표…제주도 생태 관광지 방문 관광객수 큰 폭 증가 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 산업 전자/IT KT, 빅데이터 분석 결과 발표…제주도 생태 관광지 방문 관광객수 큰 폭 증가 기자명 최아람 기자 입력 2020.07.12 09:00 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 제주도 여행 패턴 분석 인포그래픽 (사진=KT)[이코노뉴스=최아람 기자] KT는 올해 제주도 주요 관광지와 방문객을 빅데이터로 분석한 결과 제주도 내 생태 관광지의 관광객수가 큰 폭으로 증가했다고 12일 밝혔다.KT 빅데이터 분석 결과에 따르면, 오름, 휴양림 등 이른바 생태관광이 각광을 받고 있었다. 전월과 비교해 5월에는 수국으로 유명한 카멜리아힐(202.98%), 롯데스카이힐CC 일대(168.11%), 수백 개의 기암괴석으로 구성된 오백나한(157.80%), 제주돌문화공원 및 에코랜드(155.33%), 제주 항파두리 항몽 유적지(154.21%) 등지가 방문객 수가 크게 늘었다.6월에는 제주도의 대표적인 연못인 혼인지(368.18%), 화순곶자왈생태탐방숲길(204.01%), 한라생태숲 및 제주마방목지 일대(134.79%), 엉또폭포(130.26%), 비치미오름(121.36%) 순으로 전월 대비 관광객 수가 큰 폭으로 늘어난 여행지로 집계됐다. 연령대별로 인기가 높은 제주도 관광지도 차이를 보였다. 6월 방문객을 기준으로 20대가 가장 많이 찾은 관광지는 이중섭 문화거리, 30대는 쌍용굴 및 협재굴이었다. 40대 및 50대는 서귀포매일올레시장을 많이 찾았으며, 60대는 우도 성산포유람선, 70대는 중문관광단지에서 관광을 목적으로 방문한 인구가 제일 많은 것으로 분석했다.이밖에 코로나19 확산 이후 제주 여행객의 연령대도 변화가 일어났다. 코로나19가 본격화된 2월 제주도를 찾는 방문객 중 20대는 전월 대비 42.52% 줄어 가장 큰 감소 폭을 보였다. 또한 5월 제주도 방문객 중에서 30대는 전월 대비 44.99% 늘어 가장 큰 증가 폭을 보였다. 6월에는 30대는 전월 대비 5.77% 증가했다.한편, KT가 발표한 빅데이터 통계에 따르면 국내선 탑승객들이 이용하는 김포공항 및 제주공항은 방문객 수가 빠르게 회복 중인 것으로 나타났다.김포공항의 경우 코로나19가 본격화된 올해 2월 이용자 수가 전월 대비 39.28%, 전년 동기 대비 25.35% 급감했다. 하지만 3월 이후 회복하기 시작해 5월에는 전월 대비 20% 정도 회복됐다.KT 빅데이터 자료에 대한 상세한 내용은 KT 빅사이트와 KT 통신 빅데이터 플랫폼에서 확인할 수 있다.KT AI/BigData사업본부장 김채희 상무는 “코로나19로 인해 변화한 여행 트렌드를 빅데이터 통계를 통해 확인할 수 있었다”며, “KT는 빅데이터 통계를 기반으로 고객과 국민들에게 유익한 정보를 지속적으로 제공하겠다”고 말했다. 최아람 기자 e5@econonews.co.kr 다른기사 보기 저작권자 © 이코노뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [띠별로 보는 주간운세] 10월 2일 - 10월 8일 원숭이띠 "일거양득의 운세" [오늘의 운세] 10월9일 뱀띠 “천생연분이 될 연인이 들어오는 날” 개띠 “당장은 실속이 없으나 희망찬 내일이 있다” 로코초코 ㄷㄱㅅㅅ…캐시워크 퀴즈는 “OOOO보다” [오늘의 운세] 9월29일 소띠 “간절히 원하던 것을 이룰 수 있게 된다” 용띠 “좋은 찬스를 잡을 수 있는 기회가 온다” [오늘의 운세] 10월1일 쥐띠 “그동안 한 노력의 결과물이 나오니 기쁘겠다” 토끼띠 “돈이 들어온다” 닥터바리스타 버터커피 ㅈㅈㅅㅇ…캐시워크 퀴즈는 “방탄커피를 OOOO” 소이비랩 저당두유 ㄱㄱㄱㅈㅇㅎㄱ…캐시워크 퀴즈는 “OOOOO” 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 주요기사 삼화네트웍스, 전날 하락 이어 7% 급락…2400원선 밑으로 브이원텍, 전날 하락 이어 7% 급락…6200원선 밑으로 SM 엔터테인먼트·SM C&amp;C, 하락에 급락까지…특히 SM 엔터테인먼트 7% 급락 랩지노믹스·수젠텍, 엇갈리는 주가…특히 랩지노믹스 12% 급등에 7600원선 제돌파 STX·STX중공업, 엇갈리는 주가…특히 STX 12% 급등 NPC·NPC우, 모두 급락으로 무너져…7% 낙폭 최신뉴스 삼화네트웍스, 전날 하락 이어 7% 급락…2400원선 밑으로 브이원텍, 전날 하락 이어 7% 급락…6200원선 밑으로 SM 엔터테인먼트·SM C&amp;C, 하락에 급락까지…특히 SM 엔터테인먼트 7% 급락 랩지노믹스·수젠텍, 엇갈리는 주가…특히 랩지노믹스 12% 급등에 7600원선 제돌파 STX·STX중공업, 엇갈리는 주가…특히 STX 12% 급등 포토뉴스 삼화네트웍스, 전날 하락 이어 7% 급락…2400원선 밑으로 브이원텍, 전날 하락 이어 7% 급락…6200원선 밑으로 SM 엔터테인먼트·SM C&amp;C, 하락에 급락까지…특히 SM 엔터테인먼트 7% 급락 랩지노믹스·수젠텍, 엇갈리는 주가…특히 랩지노믹스 12% 급등에 7600원선 제돌파 인기뉴스 1 [띠별로 보는 주간운세] 10월 2일 - 10월 8일 원숭이띠 "일거양득의 운세" 2 [오늘의 운세] 10월9일 뱀띠 “천생연분이 될 연인이 들어오는 날” 개띠 “당장은 실속이 없으나 희망찬 내일이 있다” 3 로코초코 ㄷㄱㅅㅅ…캐시워크 퀴즈는 “OOOO보다” 4 [오늘의 운세] 9월29일 소띠 “간절히 원하던 것을 이룰 수 있게 된다” 용띠 “좋은 찬스를 잡을 수 있는 기회가 온다” 5 [오늘의 운세] 10월1일 쥐띠 “그동안 한 노력의 결과물이 나오니 기쁘겠다” 토끼띠 “돈이 들어온다” 6 닥터바리스타 버터커피 ㅈㅈㅅㅇ…캐시워크 퀴즈는 “방탄커피를 OOOO” 7 소이비랩 저당두유 ㄱㄱㄱㅈㅇㅎㄱ…캐시워크 퀴즈는 “OOOOO” 8 [오늘의 운세] 10월7일 소띠 “잘한 것에 대한 좋은 결과가 나온다” 용띠 “따뜻한 마음이 전해지는 훈훈한 날” 하단메뉴 신문사소개 조직도 개인정보처리방침 청소년보호정책 이메일무단수집거부 매체정보 서울특별시 마포구 백범로 235 , 5층(신공덕동, 신보빌딩) 대표전화 : 070 7817 0177 팩스 : 02-464-5958 대표법인 : 이코노뉴스 등록번호 : 서울, 아03530 등록일 : 2015-01-19 발행인 : 이종수 편집인 : 조희제 청소년보호책임자 : 조희제 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 조희제 070-7817-0177 hjcho1070@naver.com © 이코노뉴스. All rights reserved. 위로 전체메뉴 전체기사 기업포커스 글로벌비즈 전체 기업 정책 산업 전체 전자/IT 자동차/항공/운송 건설/부동산 조선/철강/기계 유통 에너지/화학 연재 전체 남영진 최성범 남경우 이동준 이현우 최충현 이종수 이민주 김선태 박병호 하응백 한필이 김미영 김광신 민족미래연구소 창업 전체 창업 고용 경제 전체 정책 증권 금융 산업 증시 인물광장 오피니언 전체 기자칼럼 인성교육 커피&amp;티 기고 화폐로 떠나는 세계여행 박병호의 중국견문록 신선윤의 당구이야기 카드뉴스 전체 오늘의 명언 카드뉴스 그래픽 전체메뉴닫기</t>
   </si>
 </sst>
 </file>
@@ -434,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +684,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -464,10 +692,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -475,10 +703,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -486,10 +714,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -497,10 +722,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -508,10 +733,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -519,10 +744,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -530,10 +755,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -541,10 +766,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -552,10 +777,441 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
